--- a/Supports files/members.xlsx
+++ b/Supports files/members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Laravel\Code-js\code-js-lms\Supports files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD76C453-BEDC-4096-8782-DA150D53A6C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B89D283-3B5B-4131-A639-D763A48D1BBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2164,9 +2164,6 @@
     <t>image</t>
   </si>
   <si>
-    <t>default_avatar</t>
-  </si>
-  <si>
     <t>nic</t>
   </si>
   <si>
@@ -2183,6 +2180,9 @@
   </si>
   <si>
     <t>titleid</t>
+  </si>
+  <si>
+    <t>default_avatar.png</t>
   </si>
 </sst>
 </file>
@@ -2576,8 +2576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E4E8A3-F863-467D-9744-C089C81E808C}">
   <dimension ref="A1:R701"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2596,7 +2596,7 @@
     <col min="13" max="13" width="7.42578125" style="3" customWidth="1"/>
     <col min="14" max="14" width="16.140625" style="5" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="7"/>
-    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2604,10 +2604,10 @@
         <v>699</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>700</v>
@@ -2637,13 +2637,13 @@
         <v>708</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>711</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>709</v>
@@ -2666,19 +2666,19 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>716</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>716</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>717</v>
       </c>
       <c r="N2" s="5">
         <v>94715151050</v>
       </c>
       <c r="R2" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -2701,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -2724,7 +2724,7 @@
         <v>3</v>
       </c>
       <c r="R4" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -2747,7 +2747,7 @@
         <v>4</v>
       </c>
       <c r="R5" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -2770,7 +2770,7 @@
         <v>5</v>
       </c>
       <c r="R6" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -2793,7 +2793,7 @@
         <v>6</v>
       </c>
       <c r="R7" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -2816,7 +2816,7 @@
         <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
         <v>8</v>
       </c>
       <c r="R9" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -2862,7 +2862,7 @@
         <v>9</v>
       </c>
       <c r="R10" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -2885,7 +2885,7 @@
         <v>10</v>
       </c>
       <c r="R11" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -2908,7 +2908,7 @@
         <v>11</v>
       </c>
       <c r="R12" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -2931,7 +2931,7 @@
         <v>12</v>
       </c>
       <c r="R13" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -2954,7 +2954,7 @@
         <v>13</v>
       </c>
       <c r="R14" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -2977,7 +2977,7 @@
         <v>14</v>
       </c>
       <c r="R15" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -3000,7 +3000,7 @@
         <v>15</v>
       </c>
       <c r="R16" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -3023,7 +3023,7 @@
         <v>16</v>
       </c>
       <c r="R17" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -3046,7 +3046,7 @@
         <v>17</v>
       </c>
       <c r="R18" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -3069,7 +3069,7 @@
         <v>18</v>
       </c>
       <c r="R19" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -3092,7 +3092,7 @@
         <v>19</v>
       </c>
       <c r="R20" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -3115,7 +3115,7 @@
         <v>20</v>
       </c>
       <c r="R21" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -3138,7 +3138,7 @@
         <v>21</v>
       </c>
       <c r="R22" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -3161,7 +3161,7 @@
         <v>22</v>
       </c>
       <c r="R23" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -3184,7 +3184,7 @@
         <v>23</v>
       </c>
       <c r="R24" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -3207,7 +3207,7 @@
         <v>24</v>
       </c>
       <c r="R25" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -3230,7 +3230,7 @@
         <v>25</v>
       </c>
       <c r="R26" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -3253,7 +3253,7 @@
         <v>26</v>
       </c>
       <c r="R27" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -3276,7 +3276,7 @@
         <v>27</v>
       </c>
       <c r="R28" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -3299,7 +3299,7 @@
         <v>28</v>
       </c>
       <c r="R29" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -3322,7 +3322,7 @@
         <v>29</v>
       </c>
       <c r="R30" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -3345,7 +3345,7 @@
         <v>30</v>
       </c>
       <c r="R31" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -3368,7 +3368,7 @@
         <v>31</v>
       </c>
       <c r="R32" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -3391,7 +3391,7 @@
         <v>32</v>
       </c>
       <c r="R33" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -3414,7 +3414,7 @@
         <v>33</v>
       </c>
       <c r="R34" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -3437,7 +3437,7 @@
         <v>34</v>
       </c>
       <c r="R35" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -3460,7 +3460,7 @@
         <v>35</v>
       </c>
       <c r="R36" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -3483,7 +3483,7 @@
         <v>36</v>
       </c>
       <c r="R37" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -3506,7 +3506,7 @@
         <v>37</v>
       </c>
       <c r="R38" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -3529,7 +3529,7 @@
         <v>38</v>
       </c>
       <c r="R39" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -3552,7 +3552,7 @@
         <v>39</v>
       </c>
       <c r="R40" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -3575,7 +3575,7 @@
         <v>40</v>
       </c>
       <c r="R41" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -3598,7 +3598,7 @@
         <v>41</v>
       </c>
       <c r="R42" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -3621,7 +3621,7 @@
         <v>42</v>
       </c>
       <c r="R43" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -3644,7 +3644,7 @@
         <v>43</v>
       </c>
       <c r="R44" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -3667,7 +3667,7 @@
         <v>44</v>
       </c>
       <c r="R45" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -3690,7 +3690,7 @@
         <v>45</v>
       </c>
       <c r="R46" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="R47" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -3736,7 +3736,7 @@
         <v>46</v>
       </c>
       <c r="R48" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -3759,7 +3759,7 @@
         <v>47</v>
       </c>
       <c r="R49" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -3782,7 +3782,7 @@
         <v>48</v>
       </c>
       <c r="R50" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -3805,7 +3805,7 @@
         <v>49</v>
       </c>
       <c r="R51" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -3828,7 +3828,7 @@
         <v>50</v>
       </c>
       <c r="R52" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -3851,7 +3851,7 @@
         <v>51</v>
       </c>
       <c r="R53" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -3874,7 +3874,7 @@
         <v>52</v>
       </c>
       <c r="R54" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -3897,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="R55" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -3920,7 +3920,7 @@
         <v>53</v>
       </c>
       <c r="R56" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -3943,7 +3943,7 @@
         <v>54</v>
       </c>
       <c r="R57" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -3966,7 +3966,7 @@
         <v>55</v>
       </c>
       <c r="R58" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -3989,7 +3989,7 @@
         <v>56</v>
       </c>
       <c r="R59" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -4012,7 +4012,7 @@
         <v>57</v>
       </c>
       <c r="R60" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -4035,7 +4035,7 @@
         <v>58</v>
       </c>
       <c r="R61" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -4058,7 +4058,7 @@
         <v>59</v>
       </c>
       <c r="R62" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -4081,7 +4081,7 @@
         <v>60</v>
       </c>
       <c r="R63" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -4104,7 +4104,7 @@
         <v>61</v>
       </c>
       <c r="R64" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -4127,7 +4127,7 @@
         <v>62</v>
       </c>
       <c r="R65" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -4150,7 +4150,7 @@
         <v>63</v>
       </c>
       <c r="R66" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -4173,7 +4173,7 @@
         <v>64</v>
       </c>
       <c r="R67" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -4196,7 +4196,7 @@
         <v>65</v>
       </c>
       <c r="R68" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -4219,7 +4219,7 @@
         <v>66</v>
       </c>
       <c r="R69" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -4242,7 +4242,7 @@
         <v>696</v>
       </c>
       <c r="R70" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -4265,7 +4265,7 @@
         <v>67</v>
       </c>
       <c r="R71" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
@@ -4288,7 +4288,7 @@
         <v>68</v>
       </c>
       <c r="R72" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
@@ -4311,7 +4311,7 @@
         <v>69</v>
       </c>
       <c r="R73" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
@@ -4334,7 +4334,7 @@
         <v>70</v>
       </c>
       <c r="R74" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
@@ -4357,7 +4357,7 @@
         <v>71</v>
       </c>
       <c r="R75" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -4380,7 +4380,7 @@
         <v>72</v>
       </c>
       <c r="R76" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
@@ -4403,7 +4403,7 @@
         <v>73</v>
       </c>
       <c r="R77" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -4426,7 +4426,7 @@
         <v>74</v>
       </c>
       <c r="R78" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -4449,7 +4449,7 @@
         <v>75</v>
       </c>
       <c r="R79" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -4472,7 +4472,7 @@
         <v>76</v>
       </c>
       <c r="R80" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -4495,7 +4495,7 @@
         <v>77</v>
       </c>
       <c r="R81" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
@@ -4518,7 +4518,7 @@
         <v>78</v>
       </c>
       <c r="R82" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
@@ -4541,7 +4541,7 @@
         <v>79</v>
       </c>
       <c r="R83" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
@@ -4564,7 +4564,7 @@
         <v>80</v>
       </c>
       <c r="R84" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
@@ -4587,7 +4587,7 @@
         <v>81</v>
       </c>
       <c r="R85" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
@@ -4610,7 +4610,7 @@
         <v>82</v>
       </c>
       <c r="R86" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
@@ -4633,7 +4633,7 @@
         <v>83</v>
       </c>
       <c r="R87" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
@@ -4656,7 +4656,7 @@
         <v>84</v>
       </c>
       <c r="R88" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
@@ -4679,7 +4679,7 @@
         <v>85</v>
       </c>
       <c r="R89" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
@@ -4702,7 +4702,7 @@
         <v>86</v>
       </c>
       <c r="R90" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
@@ -4725,7 +4725,7 @@
         <v>87</v>
       </c>
       <c r="R91" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
@@ -4748,7 +4748,7 @@
         <v>88</v>
       </c>
       <c r="R92" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
@@ -4771,7 +4771,7 @@
         <v>89</v>
       </c>
       <c r="R93" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
@@ -4794,7 +4794,7 @@
         <v>90</v>
       </c>
       <c r="R94" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
@@ -4817,7 +4817,7 @@
         <v>91</v>
       </c>
       <c r="R95" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
@@ -4840,7 +4840,7 @@
         <v>92</v>
       </c>
       <c r="R96" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
@@ -4863,7 +4863,7 @@
         <v>93</v>
       </c>
       <c r="R97" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
@@ -4886,7 +4886,7 @@
         <v>94</v>
       </c>
       <c r="R98" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
@@ -4909,7 +4909,7 @@
         <v>95</v>
       </c>
       <c r="R99" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
@@ -4932,7 +4932,7 @@
         <v>96</v>
       </c>
       <c r="R100" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
@@ -4955,7 +4955,7 @@
         <v>97</v>
       </c>
       <c r="R101" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
@@ -4978,7 +4978,7 @@
         <v>98</v>
       </c>
       <c r="R102" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
@@ -5001,7 +5001,7 @@
         <v>99</v>
       </c>
       <c r="R103" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
@@ -5024,7 +5024,7 @@
         <v>100</v>
       </c>
       <c r="R104" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
@@ -5047,7 +5047,7 @@
         <v>101</v>
       </c>
       <c r="R105" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
@@ -5070,7 +5070,7 @@
         <v>102</v>
       </c>
       <c r="R106" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
@@ -5093,7 +5093,7 @@
         <v>103</v>
       </c>
       <c r="R107" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
@@ -5116,7 +5116,7 @@
         <v>104</v>
       </c>
       <c r="R108" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
@@ -5139,7 +5139,7 @@
         <v>105</v>
       </c>
       <c r="R109" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
@@ -5162,7 +5162,7 @@
         <v>106</v>
       </c>
       <c r="R110" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
@@ -5185,7 +5185,7 @@
         <v>107</v>
       </c>
       <c r="R111" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
@@ -5208,7 +5208,7 @@
         <v>108</v>
       </c>
       <c r="R112" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
@@ -5231,7 +5231,7 @@
         <v>109</v>
       </c>
       <c r="R113" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
@@ -5254,7 +5254,7 @@
         <v>110</v>
       </c>
       <c r="R114" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
@@ -5277,7 +5277,7 @@
         <v>111</v>
       </c>
       <c r="R115" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
@@ -5300,7 +5300,7 @@
         <v>112</v>
       </c>
       <c r="R116" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
@@ -5323,7 +5323,7 @@
         <v>113</v>
       </c>
       <c r="R117" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
@@ -5346,7 +5346,7 @@
         <v>114</v>
       </c>
       <c r="R118" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
@@ -5369,7 +5369,7 @@
         <v>115</v>
       </c>
       <c r="R119" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
@@ -5392,7 +5392,7 @@
         <v>116</v>
       </c>
       <c r="R120" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
@@ -5415,7 +5415,7 @@
         <v>117</v>
       </c>
       <c r="R121" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
@@ -5438,7 +5438,7 @@
         <v>118</v>
       </c>
       <c r="R122" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
@@ -5461,7 +5461,7 @@
         <v>119</v>
       </c>
       <c r="R123" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
@@ -5484,7 +5484,7 @@
         <v>120</v>
       </c>
       <c r="R124" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
@@ -5507,7 +5507,7 @@
         <v>121</v>
       </c>
       <c r="R125" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
@@ -5530,7 +5530,7 @@
         <v>122</v>
       </c>
       <c r="R126" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
@@ -5553,7 +5553,7 @@
         <v>123</v>
       </c>
       <c r="R127" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
@@ -5576,7 +5576,7 @@
         <v>124</v>
       </c>
       <c r="R128" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
@@ -5599,7 +5599,7 @@
         <v>125</v>
       </c>
       <c r="R129" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
@@ -5622,7 +5622,7 @@
         <v>126</v>
       </c>
       <c r="R130" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
@@ -5645,7 +5645,7 @@
         <v>127</v>
       </c>
       <c r="R131" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
@@ -5668,7 +5668,7 @@
         <v>128</v>
       </c>
       <c r="R132" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
@@ -5691,7 +5691,7 @@
         <v>129</v>
       </c>
       <c r="R133" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
@@ -5714,7 +5714,7 @@
         <v>130</v>
       </c>
       <c r="R134" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
@@ -5737,7 +5737,7 @@
         <v>131</v>
       </c>
       <c r="R135" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
@@ -5760,7 +5760,7 @@
         <v>132</v>
       </c>
       <c r="R136" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
@@ -5783,7 +5783,7 @@
         <v>133</v>
       </c>
       <c r="R137" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
@@ -5806,7 +5806,7 @@
         <v>134</v>
       </c>
       <c r="R138" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
@@ -5829,7 +5829,7 @@
         <v>135</v>
       </c>
       <c r="R139" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
@@ -5852,7 +5852,7 @@
         <v>136</v>
       </c>
       <c r="R140" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
@@ -5875,7 +5875,7 @@
         <v>137</v>
       </c>
       <c r="R141" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
@@ -5898,7 +5898,7 @@
         <v>138</v>
       </c>
       <c r="R142" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
@@ -5921,7 +5921,7 @@
         <v>139</v>
       </c>
       <c r="R143" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
@@ -5944,7 +5944,7 @@
         <v>140</v>
       </c>
       <c r="R144" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
@@ -5967,7 +5967,7 @@
         <v>141</v>
       </c>
       <c r="R145" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
@@ -5990,7 +5990,7 @@
         <v>142</v>
       </c>
       <c r="R146" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
@@ -6013,7 +6013,7 @@
         <v>143</v>
       </c>
       <c r="R147" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
@@ -6036,7 +6036,7 @@
         <v>144</v>
       </c>
       <c r="R148" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
@@ -6059,7 +6059,7 @@
         <v>145</v>
       </c>
       <c r="R149" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
@@ -6082,7 +6082,7 @@
         <v>146</v>
       </c>
       <c r="R150" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
@@ -6105,7 +6105,7 @@
         <v>147</v>
       </c>
       <c r="R151" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
@@ -6128,7 +6128,7 @@
         <v>148</v>
       </c>
       <c r="R152" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
@@ -6151,7 +6151,7 @@
         <v>149</v>
       </c>
       <c r="R153" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
@@ -6174,7 +6174,7 @@
         <v>150</v>
       </c>
       <c r="R154" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
@@ -6197,7 +6197,7 @@
         <v>151</v>
       </c>
       <c r="R155" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
@@ -6220,7 +6220,7 @@
         <v>152</v>
       </c>
       <c r="R156" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
@@ -6243,7 +6243,7 @@
         <v>153</v>
       </c>
       <c r="R157" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
@@ -6266,7 +6266,7 @@
         <v>154</v>
       </c>
       <c r="R158" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
@@ -6289,7 +6289,7 @@
         <v>155</v>
       </c>
       <c r="R159" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
@@ -6312,7 +6312,7 @@
         <v>156</v>
       </c>
       <c r="R160" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
@@ -6335,7 +6335,7 @@
         <v>157</v>
       </c>
       <c r="R161" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
@@ -6358,7 +6358,7 @@
         <v>158</v>
       </c>
       <c r="R162" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
@@ -6381,7 +6381,7 @@
         <v>159</v>
       </c>
       <c r="R163" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
@@ -6404,7 +6404,7 @@
         <v>160</v>
       </c>
       <c r="R164" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
@@ -6427,7 +6427,7 @@
         <v>161</v>
       </c>
       <c r="R165" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
@@ -6450,7 +6450,7 @@
         <v>162</v>
       </c>
       <c r="R166" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
@@ -6473,7 +6473,7 @@
         <v>163</v>
       </c>
       <c r="R167" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
@@ -6496,7 +6496,7 @@
         <v>164</v>
       </c>
       <c r="R168" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
@@ -6519,7 +6519,7 @@
         <v>165</v>
       </c>
       <c r="R169" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
@@ -6542,7 +6542,7 @@
         <v>166</v>
       </c>
       <c r="R170" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
@@ -6565,7 +6565,7 @@
         <v>167</v>
       </c>
       <c r="R171" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
@@ -6588,7 +6588,7 @@
         <v>168</v>
       </c>
       <c r="R172" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
@@ -6611,7 +6611,7 @@
         <v>169</v>
       </c>
       <c r="R173" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
@@ -6634,7 +6634,7 @@
         <v>170</v>
       </c>
       <c r="R174" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
@@ -6657,7 +6657,7 @@
         <v>171</v>
       </c>
       <c r="R175" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
@@ -6680,7 +6680,7 @@
         <v>172</v>
       </c>
       <c r="R176" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
@@ -6703,7 +6703,7 @@
         <v>173</v>
       </c>
       <c r="R177" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
@@ -6726,7 +6726,7 @@
         <v>174</v>
       </c>
       <c r="R178" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
@@ -6749,7 +6749,7 @@
         <v>175</v>
       </c>
       <c r="R179" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
@@ -6772,7 +6772,7 @@
         <v>176</v>
       </c>
       <c r="R180" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
@@ -6795,7 +6795,7 @@
         <v>177</v>
       </c>
       <c r="R181" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
@@ -6818,7 +6818,7 @@
         <v>178</v>
       </c>
       <c r="R182" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
@@ -6841,7 +6841,7 @@
         <v>179</v>
       </c>
       <c r="R183" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
@@ -6864,7 +6864,7 @@
         <v>180</v>
       </c>
       <c r="R184" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
@@ -6887,7 +6887,7 @@
         <v>181</v>
       </c>
       <c r="R185" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
@@ -6910,7 +6910,7 @@
         <v>182</v>
       </c>
       <c r="R186" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
@@ -6933,7 +6933,7 @@
         <v>183</v>
       </c>
       <c r="R187" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
@@ -6956,7 +6956,7 @@
         <v>184</v>
       </c>
       <c r="R188" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
@@ -6979,7 +6979,7 @@
         <v>185</v>
       </c>
       <c r="R189" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
@@ -7002,7 +7002,7 @@
         <v>186</v>
       </c>
       <c r="R190" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
@@ -7025,7 +7025,7 @@
         <v>187</v>
       </c>
       <c r="R191" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
@@ -7048,7 +7048,7 @@
         <v>188</v>
       </c>
       <c r="R192" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
@@ -7071,7 +7071,7 @@
         <v>189</v>
       </c>
       <c r="R193" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
@@ -7094,7 +7094,7 @@
         <v>190</v>
       </c>
       <c r="R194" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
@@ -7117,7 +7117,7 @@
         <v>191</v>
       </c>
       <c r="R195" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
@@ -7140,7 +7140,7 @@
         <v>192</v>
       </c>
       <c r="R196" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
@@ -7163,7 +7163,7 @@
         <v>193</v>
       </c>
       <c r="R197" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
@@ -7186,7 +7186,7 @@
         <v>194</v>
       </c>
       <c r="R198" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
@@ -7209,7 +7209,7 @@
         <v>195</v>
       </c>
       <c r="R199" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
@@ -7232,7 +7232,7 @@
         <v>196</v>
       </c>
       <c r="R200" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
@@ -7255,7 +7255,7 @@
         <v>197</v>
       </c>
       <c r="R201" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
@@ -7278,7 +7278,7 @@
         <v>198</v>
       </c>
       <c r="R202" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
@@ -7301,7 +7301,7 @@
         <v>199</v>
       </c>
       <c r="R203" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
@@ -7324,7 +7324,7 @@
         <v>200</v>
       </c>
       <c r="R204" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
@@ -7347,7 +7347,7 @@
         <v>201</v>
       </c>
       <c r="R205" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
@@ -7370,7 +7370,7 @@
         <v>202</v>
       </c>
       <c r="R206" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
@@ -7393,7 +7393,7 @@
         <v>203</v>
       </c>
       <c r="R207" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
@@ -7416,7 +7416,7 @@
         <v>204</v>
       </c>
       <c r="R208" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
@@ -7439,7 +7439,7 @@
         <v>205</v>
       </c>
       <c r="R209" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
@@ -7462,7 +7462,7 @@
         <v>206</v>
       </c>
       <c r="R210" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
@@ -7485,7 +7485,7 @@
         <v>207</v>
       </c>
       <c r="R211" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
@@ -7508,7 +7508,7 @@
         <v>208</v>
       </c>
       <c r="R212" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
@@ -7531,7 +7531,7 @@
         <v>209</v>
       </c>
       <c r="R213" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
@@ -7554,7 +7554,7 @@
         <v>210</v>
       </c>
       <c r="R214" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
@@ -7577,7 +7577,7 @@
         <v>211</v>
       </c>
       <c r="R215" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
@@ -7600,7 +7600,7 @@
         <v>212</v>
       </c>
       <c r="R216" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
@@ -7623,7 +7623,7 @@
         <v>213</v>
       </c>
       <c r="R217" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
@@ -7646,7 +7646,7 @@
         <v>214</v>
       </c>
       <c r="R218" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
@@ -7669,7 +7669,7 @@
         <v>215</v>
       </c>
       <c r="R219" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
@@ -7692,7 +7692,7 @@
         <v>216</v>
       </c>
       <c r="R220" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
@@ -7715,7 +7715,7 @@
         <v>217</v>
       </c>
       <c r="R221" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
@@ -7738,7 +7738,7 @@
         <v>218</v>
       </c>
       <c r="R222" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
@@ -7761,7 +7761,7 @@
         <v>219</v>
       </c>
       <c r="R223" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
@@ -7784,7 +7784,7 @@
         <v>220</v>
       </c>
       <c r="R224" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
@@ -7807,7 +7807,7 @@
         <v>221</v>
       </c>
       <c r="R225" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
@@ -7830,7 +7830,7 @@
         <v>222</v>
       </c>
       <c r="R226" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
@@ -7853,7 +7853,7 @@
         <v>223</v>
       </c>
       <c r="R227" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
@@ -7876,7 +7876,7 @@
         <v>224</v>
       </c>
       <c r="R228" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
@@ -7899,7 +7899,7 @@
         <v>225</v>
       </c>
       <c r="R229" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
@@ -7922,7 +7922,7 @@
         <v>226</v>
       </c>
       <c r="R230" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
@@ -7945,7 +7945,7 @@
         <v>227</v>
       </c>
       <c r="R231" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
@@ -7968,7 +7968,7 @@
         <v>228</v>
       </c>
       <c r="R232" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
@@ -7991,7 +7991,7 @@
         <v>229</v>
       </c>
       <c r="R233" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
@@ -8014,7 +8014,7 @@
         <v>230</v>
       </c>
       <c r="R234" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.25">
@@ -8037,7 +8037,7 @@
         <v>231</v>
       </c>
       <c r="R235" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
@@ -8060,7 +8060,7 @@
         <v>232</v>
       </c>
       <c r="R236" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.25">
@@ -8083,7 +8083,7 @@
         <v>233</v>
       </c>
       <c r="R237" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
@@ -8106,7 +8106,7 @@
         <v>234</v>
       </c>
       <c r="R238" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
@@ -8129,7 +8129,7 @@
         <v>235</v>
       </c>
       <c r="R239" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
@@ -8152,7 +8152,7 @@
         <v>236</v>
       </c>
       <c r="R240" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.25">
@@ -8175,7 +8175,7 @@
         <v>237</v>
       </c>
       <c r="R241" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.25">
@@ -8198,7 +8198,7 @@
         <v>238</v>
       </c>
       <c r="R242" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.25">
@@ -8221,7 +8221,7 @@
         <v>239</v>
       </c>
       <c r="R243" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.25">
@@ -8244,7 +8244,7 @@
         <v>240</v>
       </c>
       <c r="R244" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.25">
@@ -8267,7 +8267,7 @@
         <v>241</v>
       </c>
       <c r="R245" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
@@ -8290,7 +8290,7 @@
         <v>242</v>
       </c>
       <c r="R246" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.25">
@@ -8313,7 +8313,7 @@
         <v>243</v>
       </c>
       <c r="R247" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
@@ -8336,7 +8336,7 @@
         <v>244</v>
       </c>
       <c r="R248" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.25">
@@ -8359,7 +8359,7 @@
         <v>245</v>
       </c>
       <c r="R249" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.25">
@@ -8382,7 +8382,7 @@
         <v>246</v>
       </c>
       <c r="R250" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.25">
@@ -8405,7 +8405,7 @@
         <v>697</v>
       </c>
       <c r="R251" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.25">
@@ -8428,7 +8428,7 @@
         <v>247</v>
       </c>
       <c r="R252" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.25">
@@ -8451,7 +8451,7 @@
         <v>248</v>
       </c>
       <c r="R253" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.25">
@@ -8474,7 +8474,7 @@
         <v>249</v>
       </c>
       <c r="R254" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.25">
@@ -8497,7 +8497,7 @@
         <v>250</v>
       </c>
       <c r="R255" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.25">
@@ -8520,7 +8520,7 @@
         <v>251</v>
       </c>
       <c r="R256" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="257" spans="1:18" x14ac:dyDescent="0.25">
@@ -8543,7 +8543,7 @@
         <v>252</v>
       </c>
       <c r="R257" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.25">
@@ -8566,7 +8566,7 @@
         <v>253</v>
       </c>
       <c r="R258" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="259" spans="1:18" x14ac:dyDescent="0.25">
@@ -8589,7 +8589,7 @@
         <v>254</v>
       </c>
       <c r="R259" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="260" spans="1:18" x14ac:dyDescent="0.25">
@@ -8612,7 +8612,7 @@
         <v>255</v>
       </c>
       <c r="R260" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="261" spans="1:18" x14ac:dyDescent="0.25">
@@ -8635,7 +8635,7 @@
         <v>256</v>
       </c>
       <c r="R261" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="262" spans="1:18" x14ac:dyDescent="0.25">
@@ -8658,7 +8658,7 @@
         <v>257</v>
       </c>
       <c r="R262" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="263" spans="1:18" x14ac:dyDescent="0.25">
@@ -8681,7 +8681,7 @@
         <v>258</v>
       </c>
       <c r="R263" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="264" spans="1:18" x14ac:dyDescent="0.25">
@@ -8704,7 +8704,7 @@
         <v>259</v>
       </c>
       <c r="R264" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="265" spans="1:18" x14ac:dyDescent="0.25">
@@ -8727,7 +8727,7 @@
         <v>260</v>
       </c>
       <c r="R265" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="266" spans="1:18" x14ac:dyDescent="0.25">
@@ -8750,7 +8750,7 @@
         <v>261</v>
       </c>
       <c r="R266" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="267" spans="1:18" x14ac:dyDescent="0.25">
@@ -8773,7 +8773,7 @@
         <v>262</v>
       </c>
       <c r="R267" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="268" spans="1:18" x14ac:dyDescent="0.25">
@@ -8796,7 +8796,7 @@
         <v>263</v>
       </c>
       <c r="R268" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="269" spans="1:18" x14ac:dyDescent="0.25">
@@ -8819,7 +8819,7 @@
         <v>264</v>
       </c>
       <c r="R269" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="270" spans="1:18" x14ac:dyDescent="0.25">
@@ -8842,7 +8842,7 @@
         <v>265</v>
       </c>
       <c r="R270" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="271" spans="1:18" x14ac:dyDescent="0.25">
@@ -8865,7 +8865,7 @@
         <v>266</v>
       </c>
       <c r="R271" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="272" spans="1:18" x14ac:dyDescent="0.25">
@@ -8888,7 +8888,7 @@
         <v>267</v>
       </c>
       <c r="R272" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="273" spans="1:18" x14ac:dyDescent="0.25">
@@ -8911,7 +8911,7 @@
         <v>268</v>
       </c>
       <c r="R273" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="274" spans="1:18" x14ac:dyDescent="0.25">
@@ -8934,7 +8934,7 @@
         <v>269</v>
       </c>
       <c r="R274" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="275" spans="1:18" x14ac:dyDescent="0.25">
@@ -8957,7 +8957,7 @@
         <v>270</v>
       </c>
       <c r="R275" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="276" spans="1:18" x14ac:dyDescent="0.25">
@@ -8980,7 +8980,7 @@
         <v>271</v>
       </c>
       <c r="R276" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="277" spans="1:18" x14ac:dyDescent="0.25">
@@ -9003,7 +9003,7 @@
         <v>272</v>
       </c>
       <c r="R277" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="278" spans="1:18" x14ac:dyDescent="0.25">
@@ -9026,7 +9026,7 @@
         <v>273</v>
       </c>
       <c r="R278" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="279" spans="1:18" x14ac:dyDescent="0.25">
@@ -9049,7 +9049,7 @@
         <v>274</v>
       </c>
       <c r="R279" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="280" spans="1:18" x14ac:dyDescent="0.25">
@@ -9072,7 +9072,7 @@
         <v>275</v>
       </c>
       <c r="R280" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="281" spans="1:18" x14ac:dyDescent="0.25">
@@ -9095,7 +9095,7 @@
         <v>276</v>
       </c>
       <c r="R281" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="282" spans="1:18" x14ac:dyDescent="0.25">
@@ -9118,7 +9118,7 @@
         <v>277</v>
       </c>
       <c r="R282" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="283" spans="1:18" x14ac:dyDescent="0.25">
@@ -9141,7 +9141,7 @@
         <v>278</v>
       </c>
       <c r="R283" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="284" spans="1:18" x14ac:dyDescent="0.25">
@@ -9164,7 +9164,7 @@
         <v>279</v>
       </c>
       <c r="R284" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="285" spans="1:18" x14ac:dyDescent="0.25">
@@ -9187,7 +9187,7 @@
         <v>280</v>
       </c>
       <c r="R285" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="286" spans="1:18" x14ac:dyDescent="0.25">
@@ -9210,7 +9210,7 @@
         <v>281</v>
       </c>
       <c r="R286" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="287" spans="1:18" x14ac:dyDescent="0.25">
@@ -9233,7 +9233,7 @@
         <v>282</v>
       </c>
       <c r="R287" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="288" spans="1:18" x14ac:dyDescent="0.25">
@@ -9256,7 +9256,7 @@
         <v>283</v>
       </c>
       <c r="R288" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="289" spans="1:18" x14ac:dyDescent="0.25">
@@ -9279,7 +9279,7 @@
         <v>284</v>
       </c>
       <c r="R289" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="290" spans="1:18" x14ac:dyDescent="0.25">
@@ -9302,7 +9302,7 @@
         <v>285</v>
       </c>
       <c r="R290" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="291" spans="1:18" x14ac:dyDescent="0.25">
@@ -9325,7 +9325,7 @@
         <v>286</v>
       </c>
       <c r="R291" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="292" spans="1:18" x14ac:dyDescent="0.25">
@@ -9348,7 +9348,7 @@
         <v>287</v>
       </c>
       <c r="R292" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="293" spans="1:18" x14ac:dyDescent="0.25">
@@ -9371,7 +9371,7 @@
         <v>288</v>
       </c>
       <c r="R293" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="294" spans="1:18" x14ac:dyDescent="0.25">
@@ -9394,7 +9394,7 @@
         <v>289</v>
       </c>
       <c r="R294" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="295" spans="1:18" x14ac:dyDescent="0.25">
@@ -9417,7 +9417,7 @@
         <v>290</v>
       </c>
       <c r="R295" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="296" spans="1:18" x14ac:dyDescent="0.25">
@@ -9440,7 +9440,7 @@
         <v>291</v>
       </c>
       <c r="R296" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="297" spans="1:18" x14ac:dyDescent="0.25">
@@ -9463,7 +9463,7 @@
         <v>292</v>
       </c>
       <c r="R297" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="298" spans="1:18" x14ac:dyDescent="0.25">
@@ -9486,7 +9486,7 @@
         <v>293</v>
       </c>
       <c r="R298" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="299" spans="1:18" x14ac:dyDescent="0.25">
@@ -9509,7 +9509,7 @@
         <v>294</v>
       </c>
       <c r="R299" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="300" spans="1:18" x14ac:dyDescent="0.25">
@@ -9532,7 +9532,7 @@
         <v>295</v>
       </c>
       <c r="R300" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="301" spans="1:18" x14ac:dyDescent="0.25">
@@ -9555,7 +9555,7 @@
         <v>296</v>
       </c>
       <c r="R301" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="302" spans="1:18" x14ac:dyDescent="0.25">
@@ -9578,7 +9578,7 @@
         <v>297</v>
       </c>
       <c r="R302" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="303" spans="1:18" x14ac:dyDescent="0.25">
@@ -9601,7 +9601,7 @@
         <v>298</v>
       </c>
       <c r="R303" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="304" spans="1:18" x14ac:dyDescent="0.25">
@@ -9624,7 +9624,7 @@
         <v>299</v>
       </c>
       <c r="R304" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="305" spans="1:18" x14ac:dyDescent="0.25">
@@ -9647,7 +9647,7 @@
         <v>300</v>
       </c>
       <c r="R305" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="306" spans="1:18" x14ac:dyDescent="0.25">
@@ -9670,7 +9670,7 @@
         <v>301</v>
       </c>
       <c r="R306" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="307" spans="1:18" x14ac:dyDescent="0.25">
@@ -9693,7 +9693,7 @@
         <v>302</v>
       </c>
       <c r="R307" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="308" spans="1:18" x14ac:dyDescent="0.25">
@@ -9716,7 +9716,7 @@
         <v>303</v>
       </c>
       <c r="R308" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="309" spans="1:18" x14ac:dyDescent="0.25">
@@ -9739,7 +9739,7 @@
         <v>304</v>
       </c>
       <c r="R309" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="310" spans="1:18" x14ac:dyDescent="0.25">
@@ -9762,7 +9762,7 @@
         <v>305</v>
       </c>
       <c r="R310" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="311" spans="1:18" x14ac:dyDescent="0.25">
@@ -9785,7 +9785,7 @@
         <v>306</v>
       </c>
       <c r="R311" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="312" spans="1:18" x14ac:dyDescent="0.25">
@@ -9808,7 +9808,7 @@
         <v>307</v>
       </c>
       <c r="R312" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="313" spans="1:18" x14ac:dyDescent="0.25">
@@ -9831,7 +9831,7 @@
         <v>308</v>
       </c>
       <c r="R313" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="314" spans="1:18" x14ac:dyDescent="0.25">
@@ -9854,7 +9854,7 @@
         <v>309</v>
       </c>
       <c r="R314" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="315" spans="1:18" x14ac:dyDescent="0.25">
@@ -9877,7 +9877,7 @@
         <v>310</v>
       </c>
       <c r="R315" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="316" spans="1:18" x14ac:dyDescent="0.25">
@@ -9900,7 +9900,7 @@
         <v>311</v>
       </c>
       <c r="R316" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.25">
@@ -9923,7 +9923,7 @@
         <v>312</v>
       </c>
       <c r="R317" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="318" spans="1:18" x14ac:dyDescent="0.25">
@@ -9946,7 +9946,7 @@
         <v>313</v>
       </c>
       <c r="R318" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="319" spans="1:18" x14ac:dyDescent="0.25">
@@ -9969,7 +9969,7 @@
         <v>314</v>
       </c>
       <c r="R319" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="320" spans="1:18" x14ac:dyDescent="0.25">
@@ -9992,7 +9992,7 @@
         <v>315</v>
       </c>
       <c r="R320" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="321" spans="1:18" x14ac:dyDescent="0.25">
@@ -10015,7 +10015,7 @@
         <v>316</v>
       </c>
       <c r="R321" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="322" spans="1:18" x14ac:dyDescent="0.25">
@@ -10038,7 +10038,7 @@
         <v>317</v>
       </c>
       <c r="R322" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="323" spans="1:18" x14ac:dyDescent="0.25">
@@ -10061,7 +10061,7 @@
         <v>318</v>
       </c>
       <c r="R323" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="324" spans="1:18" x14ac:dyDescent="0.25">
@@ -10084,7 +10084,7 @@
         <v>319</v>
       </c>
       <c r="R324" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="325" spans="1:18" x14ac:dyDescent="0.25">
@@ -10107,7 +10107,7 @@
         <v>320</v>
       </c>
       <c r="R325" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="326" spans="1:18" x14ac:dyDescent="0.25">
@@ -10130,7 +10130,7 @@
         <v>321</v>
       </c>
       <c r="R326" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="327" spans="1:18" x14ac:dyDescent="0.25">
@@ -10153,7 +10153,7 @@
         <v>322</v>
       </c>
       <c r="R327" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="328" spans="1:18" x14ac:dyDescent="0.25">
@@ -10176,7 +10176,7 @@
         <v>323</v>
       </c>
       <c r="R328" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="329" spans="1:18" x14ac:dyDescent="0.25">
@@ -10199,7 +10199,7 @@
         <v>324</v>
       </c>
       <c r="R329" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.25">
@@ -10222,7 +10222,7 @@
         <v>325</v>
       </c>
       <c r="R330" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.25">
@@ -10245,7 +10245,7 @@
         <v>326</v>
       </c>
       <c r="R331" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="332" spans="1:18" x14ac:dyDescent="0.25">
@@ -10268,7 +10268,7 @@
         <v>327</v>
       </c>
       <c r="R332" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="333" spans="1:18" x14ac:dyDescent="0.25">
@@ -10291,7 +10291,7 @@
         <v>328</v>
       </c>
       <c r="R333" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="334" spans="1:18" x14ac:dyDescent="0.25">
@@ -10314,7 +10314,7 @@
         <v>329</v>
       </c>
       <c r="R334" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="335" spans="1:18" x14ac:dyDescent="0.25">
@@ -10337,7 +10337,7 @@
         <v>330</v>
       </c>
       <c r="R335" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="336" spans="1:18" x14ac:dyDescent="0.25">
@@ -10360,7 +10360,7 @@
         <v>331</v>
       </c>
       <c r="R336" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="337" spans="1:18" x14ac:dyDescent="0.25">
@@ -10383,7 +10383,7 @@
         <v>332</v>
       </c>
       <c r="R337" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="338" spans="1:18" x14ac:dyDescent="0.25">
@@ -10406,7 +10406,7 @@
         <v>333</v>
       </c>
       <c r="R338" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="339" spans="1:18" x14ac:dyDescent="0.25">
@@ -10429,7 +10429,7 @@
         <v>334</v>
       </c>
       <c r="R339" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="340" spans="1:18" x14ac:dyDescent="0.25">
@@ -10452,7 +10452,7 @@
         <v>335</v>
       </c>
       <c r="R340" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="341" spans="1:18" x14ac:dyDescent="0.25">
@@ -10475,7 +10475,7 @@
         <v>336</v>
       </c>
       <c r="R341" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="342" spans="1:18" x14ac:dyDescent="0.25">
@@ -10498,7 +10498,7 @@
         <v>337</v>
       </c>
       <c r="R342" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="343" spans="1:18" x14ac:dyDescent="0.25">
@@ -10521,7 +10521,7 @@
         <v>338</v>
       </c>
       <c r="R343" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="344" spans="1:18" x14ac:dyDescent="0.25">
@@ -10544,7 +10544,7 @@
         <v>339</v>
       </c>
       <c r="R344" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="345" spans="1:18" x14ac:dyDescent="0.25">
@@ -10567,7 +10567,7 @@
         <v>340</v>
       </c>
       <c r="R345" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="346" spans="1:18" x14ac:dyDescent="0.25">
@@ -10590,7 +10590,7 @@
         <v>341</v>
       </c>
       <c r="R346" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="347" spans="1:18" x14ac:dyDescent="0.25">
@@ -10613,7 +10613,7 @@
         <v>342</v>
       </c>
       <c r="R347" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="348" spans="1:18" x14ac:dyDescent="0.25">
@@ -10636,7 +10636,7 @@
         <v>343</v>
       </c>
       <c r="R348" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="349" spans="1:18" x14ac:dyDescent="0.25">
@@ -10659,7 +10659,7 @@
         <v>344</v>
       </c>
       <c r="R349" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="350" spans="1:18" x14ac:dyDescent="0.25">
@@ -10682,7 +10682,7 @@
         <v>345</v>
       </c>
       <c r="R350" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="351" spans="1:18" x14ac:dyDescent="0.25">
@@ -10705,7 +10705,7 @@
         <v>346</v>
       </c>
       <c r="R351" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="352" spans="1:18" x14ac:dyDescent="0.25">
@@ -10728,7 +10728,7 @@
         <v>347</v>
       </c>
       <c r="R352" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="353" spans="1:18" x14ac:dyDescent="0.25">
@@ -10751,7 +10751,7 @@
         <v>348</v>
       </c>
       <c r="R353" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="354" spans="1:18" x14ac:dyDescent="0.25">
@@ -10774,7 +10774,7 @@
         <v>349</v>
       </c>
       <c r="R354" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="355" spans="1:18" x14ac:dyDescent="0.25">
@@ -10797,7 +10797,7 @@
         <v>350</v>
       </c>
       <c r="R355" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="356" spans="1:18" x14ac:dyDescent="0.25">
@@ -10820,7 +10820,7 @@
         <v>351</v>
       </c>
       <c r="R356" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="357" spans="1:18" x14ac:dyDescent="0.25">
@@ -10843,7 +10843,7 @@
         <v>352</v>
       </c>
       <c r="R357" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="358" spans="1:18" x14ac:dyDescent="0.25">
@@ -10866,7 +10866,7 @@
         <v>353</v>
       </c>
       <c r="R358" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="359" spans="1:18" x14ac:dyDescent="0.25">
@@ -10889,7 +10889,7 @@
         <v>354</v>
       </c>
       <c r="R359" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="360" spans="1:18" x14ac:dyDescent="0.25">
@@ -10912,7 +10912,7 @@
         <v>355</v>
       </c>
       <c r="R360" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="361" spans="1:18" x14ac:dyDescent="0.25">
@@ -10935,7 +10935,7 @@
         <v>356</v>
       </c>
       <c r="R361" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="362" spans="1:18" x14ac:dyDescent="0.25">
@@ -10958,7 +10958,7 @@
         <v>357</v>
       </c>
       <c r="R362" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="363" spans="1:18" x14ac:dyDescent="0.25">
@@ -10981,7 +10981,7 @@
         <v>358</v>
       </c>
       <c r="R363" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="364" spans="1:18" x14ac:dyDescent="0.25">
@@ -11004,7 +11004,7 @@
         <v>359</v>
       </c>
       <c r="R364" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="365" spans="1:18" x14ac:dyDescent="0.25">
@@ -11027,7 +11027,7 @@
         <v>360</v>
       </c>
       <c r="R365" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="366" spans="1:18" x14ac:dyDescent="0.25">
@@ -11050,7 +11050,7 @@
         <v>361</v>
       </c>
       <c r="R366" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="367" spans="1:18" x14ac:dyDescent="0.25">
@@ -11073,7 +11073,7 @@
         <v>362</v>
       </c>
       <c r="R367" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="368" spans="1:18" x14ac:dyDescent="0.25">
@@ -11096,7 +11096,7 @@
         <v>363</v>
       </c>
       <c r="R368" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="369" spans="1:18" x14ac:dyDescent="0.25">
@@ -11119,7 +11119,7 @@
         <v>364</v>
       </c>
       <c r="R369" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="370" spans="1:18" x14ac:dyDescent="0.25">
@@ -11142,7 +11142,7 @@
         <v>365</v>
       </c>
       <c r="R370" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="371" spans="1:18" x14ac:dyDescent="0.25">
@@ -11165,7 +11165,7 @@
         <v>366</v>
       </c>
       <c r="R371" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="372" spans="1:18" x14ac:dyDescent="0.25">
@@ -11188,7 +11188,7 @@
         <v>367</v>
       </c>
       <c r="R372" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="373" spans="1:18" x14ac:dyDescent="0.25">
@@ -11211,7 +11211,7 @@
         <v>368</v>
       </c>
       <c r="R373" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="374" spans="1:18" x14ac:dyDescent="0.25">
@@ -11234,7 +11234,7 @@
         <v>369</v>
       </c>
       <c r="R374" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="375" spans="1:18" x14ac:dyDescent="0.25">
@@ -11257,7 +11257,7 @@
         <v>370</v>
       </c>
       <c r="R375" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="376" spans="1:18" x14ac:dyDescent="0.25">
@@ -11280,7 +11280,7 @@
         <v>371</v>
       </c>
       <c r="R376" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="377" spans="1:18" x14ac:dyDescent="0.25">
@@ -11303,7 +11303,7 @@
         <v>372</v>
       </c>
       <c r="R377" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="378" spans="1:18" x14ac:dyDescent="0.25">
@@ -11326,7 +11326,7 @@
         <v>373</v>
       </c>
       <c r="R378" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="379" spans="1:18" x14ac:dyDescent="0.25">
@@ -11349,7 +11349,7 @@
         <v>374</v>
       </c>
       <c r="R379" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="380" spans="1:18" x14ac:dyDescent="0.25">
@@ -11372,7 +11372,7 @@
         <v>375</v>
       </c>
       <c r="R380" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="381" spans="1:18" x14ac:dyDescent="0.25">
@@ -11395,7 +11395,7 @@
         <v>376</v>
       </c>
       <c r="R381" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="382" spans="1:18" x14ac:dyDescent="0.25">
@@ -11418,7 +11418,7 @@
         <v>377</v>
       </c>
       <c r="R382" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="383" spans="1:18" x14ac:dyDescent="0.25">
@@ -11441,7 +11441,7 @@
         <v>378</v>
       </c>
       <c r="R383" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="384" spans="1:18" x14ac:dyDescent="0.25">
@@ -11464,7 +11464,7 @@
         <v>379</v>
       </c>
       <c r="R384" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="385" spans="1:18" x14ac:dyDescent="0.25">
@@ -11487,7 +11487,7 @@
         <v>380</v>
       </c>
       <c r="R385" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="386" spans="1:18" x14ac:dyDescent="0.25">
@@ -11510,7 +11510,7 @@
         <v>381</v>
       </c>
       <c r="R386" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="387" spans="1:18" x14ac:dyDescent="0.25">
@@ -11533,7 +11533,7 @@
         <v>382</v>
       </c>
       <c r="R387" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="388" spans="1:18" x14ac:dyDescent="0.25">
@@ -11556,7 +11556,7 @@
         <v>383</v>
       </c>
       <c r="R388" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="389" spans="1:18" x14ac:dyDescent="0.25">
@@ -11579,7 +11579,7 @@
         <v>384</v>
       </c>
       <c r="R389" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="390" spans="1:18" x14ac:dyDescent="0.25">
@@ -11602,7 +11602,7 @@
         <v>385</v>
       </c>
       <c r="R390" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="391" spans="1:18" x14ac:dyDescent="0.25">
@@ -11625,7 +11625,7 @@
         <v>386</v>
       </c>
       <c r="R391" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="392" spans="1:18" x14ac:dyDescent="0.25">
@@ -11648,7 +11648,7 @@
         <v>387</v>
       </c>
       <c r="R392" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="393" spans="1:18" x14ac:dyDescent="0.25">
@@ -11671,7 +11671,7 @@
         <v>388</v>
       </c>
       <c r="R393" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="394" spans="1:18" x14ac:dyDescent="0.25">
@@ -11694,7 +11694,7 @@
         <v>389</v>
       </c>
       <c r="R394" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="395" spans="1:18" x14ac:dyDescent="0.25">
@@ -11717,7 +11717,7 @@
         <v>390</v>
       </c>
       <c r="R395" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="396" spans="1:18" x14ac:dyDescent="0.25">
@@ -11740,7 +11740,7 @@
         <v>391</v>
       </c>
       <c r="R396" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="397" spans="1:18" x14ac:dyDescent="0.25">
@@ -11763,7 +11763,7 @@
         <v>392</v>
       </c>
       <c r="R397" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="398" spans="1:18" x14ac:dyDescent="0.25">
@@ -11786,7 +11786,7 @@
         <v>393</v>
       </c>
       <c r="R398" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="399" spans="1:18" x14ac:dyDescent="0.25">
@@ -11809,7 +11809,7 @@
         <v>394</v>
       </c>
       <c r="R399" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="400" spans="1:18" x14ac:dyDescent="0.25">
@@ -11832,7 +11832,7 @@
         <v>395</v>
       </c>
       <c r="R400" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="401" spans="1:18" x14ac:dyDescent="0.25">
@@ -11855,7 +11855,7 @@
         <v>396</v>
       </c>
       <c r="R401" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="402" spans="1:18" x14ac:dyDescent="0.25">
@@ -11878,7 +11878,7 @@
         <v>397</v>
       </c>
       <c r="R402" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="403" spans="1:18" x14ac:dyDescent="0.25">
@@ -11901,7 +11901,7 @@
         <v>398</v>
       </c>
       <c r="R403" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="404" spans="1:18" x14ac:dyDescent="0.25">
@@ -11924,7 +11924,7 @@
         <v>399</v>
       </c>
       <c r="R404" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="405" spans="1:18" x14ac:dyDescent="0.25">
@@ -11947,7 +11947,7 @@
         <v>400</v>
       </c>
       <c r="R405" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="406" spans="1:18" x14ac:dyDescent="0.25">
@@ -11970,7 +11970,7 @@
         <v>401</v>
       </c>
       <c r="R406" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="407" spans="1:18" x14ac:dyDescent="0.25">
@@ -11993,7 +11993,7 @@
         <v>402</v>
       </c>
       <c r="R407" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="408" spans="1:18" x14ac:dyDescent="0.25">
@@ -12016,7 +12016,7 @@
         <v>403</v>
       </c>
       <c r="R408" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="409" spans="1:18" x14ac:dyDescent="0.25">
@@ -12039,7 +12039,7 @@
         <v>404</v>
       </c>
       <c r="R409" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="410" spans="1:18" x14ac:dyDescent="0.25">
@@ -12062,7 +12062,7 @@
         <v>405</v>
       </c>
       <c r="R410" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="411" spans="1:18" x14ac:dyDescent="0.25">
@@ -12085,7 +12085,7 @@
         <v>406</v>
       </c>
       <c r="R411" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="412" spans="1:18" x14ac:dyDescent="0.25">
@@ -12108,7 +12108,7 @@
         <v>407</v>
       </c>
       <c r="R412" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="413" spans="1:18" x14ac:dyDescent="0.25">
@@ -12131,7 +12131,7 @@
         <v>408</v>
       </c>
       <c r="R413" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="414" spans="1:18" x14ac:dyDescent="0.25">
@@ -12154,7 +12154,7 @@
         <v>409</v>
       </c>
       <c r="R414" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="415" spans="1:18" x14ac:dyDescent="0.25">
@@ -12177,7 +12177,7 @@
         <v>410</v>
       </c>
       <c r="R415" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="416" spans="1:18" x14ac:dyDescent="0.25">
@@ -12200,7 +12200,7 @@
         <v>411</v>
       </c>
       <c r="R416" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="417" spans="1:18" x14ac:dyDescent="0.25">
@@ -12223,7 +12223,7 @@
         <v>412</v>
       </c>
       <c r="R417" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="418" spans="1:18" x14ac:dyDescent="0.25">
@@ -12246,7 +12246,7 @@
         <v>413</v>
       </c>
       <c r="R418" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="419" spans="1:18" x14ac:dyDescent="0.25">
@@ -12269,7 +12269,7 @@
         <v>414</v>
       </c>
       <c r="R419" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="420" spans="1:18" x14ac:dyDescent="0.25">
@@ -12292,7 +12292,7 @@
         <v>415</v>
       </c>
       <c r="R420" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="421" spans="1:18" x14ac:dyDescent="0.25">
@@ -12315,7 +12315,7 @@
         <v>416</v>
       </c>
       <c r="R421" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="422" spans="1:18" x14ac:dyDescent="0.25">
@@ -12338,7 +12338,7 @@
         <v>417</v>
       </c>
       <c r="R422" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="423" spans="1:18" x14ac:dyDescent="0.25">
@@ -12361,7 +12361,7 @@
         <v>418</v>
       </c>
       <c r="R423" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="424" spans="1:18" x14ac:dyDescent="0.25">
@@ -12384,7 +12384,7 @@
         <v>419</v>
       </c>
       <c r="R424" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="425" spans="1:18" x14ac:dyDescent="0.25">
@@ -12407,7 +12407,7 @@
         <v>420</v>
       </c>
       <c r="R425" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="426" spans="1:18" x14ac:dyDescent="0.25">
@@ -12430,7 +12430,7 @@
         <v>698</v>
       </c>
       <c r="R426" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="427" spans="1:18" x14ac:dyDescent="0.25">
@@ -12453,7 +12453,7 @@
         <v>421</v>
       </c>
       <c r="R427" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="428" spans="1:18" x14ac:dyDescent="0.25">
@@ -12476,7 +12476,7 @@
         <v>422</v>
       </c>
       <c r="R428" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="429" spans="1:18" x14ac:dyDescent="0.25">
@@ -12499,7 +12499,7 @@
         <v>423</v>
       </c>
       <c r="R429" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="430" spans="1:18" x14ac:dyDescent="0.25">
@@ -12522,7 +12522,7 @@
         <v>424</v>
       </c>
       <c r="R430" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="431" spans="1:18" x14ac:dyDescent="0.25">
@@ -12545,7 +12545,7 @@
         <v>425</v>
       </c>
       <c r="R431" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="432" spans="1:18" x14ac:dyDescent="0.25">
@@ -12568,7 +12568,7 @@
         <v>426</v>
       </c>
       <c r="R432" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="433" spans="1:18" x14ac:dyDescent="0.25">
@@ -12591,7 +12591,7 @@
         <v>427</v>
       </c>
       <c r="R433" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="434" spans="1:18" x14ac:dyDescent="0.25">
@@ -12614,7 +12614,7 @@
         <v>428</v>
       </c>
       <c r="R434" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="435" spans="1:18" x14ac:dyDescent="0.25">
@@ -12637,7 +12637,7 @@
         <v>429</v>
       </c>
       <c r="R435" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="436" spans="1:18" x14ac:dyDescent="0.25">
@@ -12660,7 +12660,7 @@
         <v>430</v>
       </c>
       <c r="R436" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="437" spans="1:18" x14ac:dyDescent="0.25">
@@ -12683,7 +12683,7 @@
         <v>431</v>
       </c>
       <c r="R437" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="438" spans="1:18" x14ac:dyDescent="0.25">
@@ -12706,7 +12706,7 @@
         <v>432</v>
       </c>
       <c r="R438" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="439" spans="1:18" x14ac:dyDescent="0.25">
@@ -12729,7 +12729,7 @@
         <v>433</v>
       </c>
       <c r="R439" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="440" spans="1:18" x14ac:dyDescent="0.25">
@@ -12752,7 +12752,7 @@
         <v>434</v>
       </c>
       <c r="R440" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="441" spans="1:18" x14ac:dyDescent="0.25">
@@ -12775,7 +12775,7 @@
         <v>435</v>
       </c>
       <c r="R441" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="442" spans="1:18" x14ac:dyDescent="0.25">
@@ -12798,7 +12798,7 @@
         <v>436</v>
       </c>
       <c r="R442" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="443" spans="1:18" x14ac:dyDescent="0.25">
@@ -12821,7 +12821,7 @@
         <v>437</v>
       </c>
       <c r="R443" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="444" spans="1:18" x14ac:dyDescent="0.25">
@@ -12844,7 +12844,7 @@
         <v>438</v>
       </c>
       <c r="R444" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="445" spans="1:18" x14ac:dyDescent="0.25">
@@ -12867,7 +12867,7 @@
         <v>439</v>
       </c>
       <c r="R445" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="446" spans="1:18" x14ac:dyDescent="0.25">
@@ -12890,7 +12890,7 @@
         <v>440</v>
       </c>
       <c r="R446" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="447" spans="1:18" x14ac:dyDescent="0.25">
@@ -12913,7 +12913,7 @@
         <v>441</v>
       </c>
       <c r="R447" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="448" spans="1:18" x14ac:dyDescent="0.25">
@@ -12936,7 +12936,7 @@
         <v>442</v>
       </c>
       <c r="R448" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="449" spans="1:18" x14ac:dyDescent="0.25">
@@ -12959,7 +12959,7 @@
         <v>443</v>
       </c>
       <c r="R449" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="450" spans="1:18" x14ac:dyDescent="0.25">
@@ -12982,7 +12982,7 @@
         <v>444</v>
       </c>
       <c r="R450" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="451" spans="1:18" x14ac:dyDescent="0.25">
@@ -13005,7 +13005,7 @@
         <v>445</v>
       </c>
       <c r="R451" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="452" spans="1:18" x14ac:dyDescent="0.25">
@@ -13028,7 +13028,7 @@
         <v>446</v>
       </c>
       <c r="R452" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="453" spans="1:18" x14ac:dyDescent="0.25">
@@ -13051,7 +13051,7 @@
         <v>447</v>
       </c>
       <c r="R453" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="454" spans="1:18" x14ac:dyDescent="0.25">
@@ -13074,7 +13074,7 @@
         <v>448</v>
       </c>
       <c r="R454" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="455" spans="1:18" x14ac:dyDescent="0.25">
@@ -13097,7 +13097,7 @@
         <v>449</v>
       </c>
       <c r="R455" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="456" spans="1:18" x14ac:dyDescent="0.25">
@@ -13120,7 +13120,7 @@
         <v>450</v>
       </c>
       <c r="R456" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="457" spans="1:18" x14ac:dyDescent="0.25">
@@ -13143,7 +13143,7 @@
         <v>451</v>
       </c>
       <c r="R457" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="458" spans="1:18" x14ac:dyDescent="0.25">
@@ -13166,7 +13166,7 @@
         <v>452</v>
       </c>
       <c r="R458" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="459" spans="1:18" x14ac:dyDescent="0.25">
@@ -13189,7 +13189,7 @@
         <v>453</v>
       </c>
       <c r="R459" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="460" spans="1:18" x14ac:dyDescent="0.25">
@@ -13212,7 +13212,7 @@
         <v>454</v>
       </c>
       <c r="R460" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="461" spans="1:18" x14ac:dyDescent="0.25">
@@ -13235,7 +13235,7 @@
         <v>455</v>
       </c>
       <c r="R461" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="462" spans="1:18" x14ac:dyDescent="0.25">
@@ -13258,7 +13258,7 @@
         <v>456</v>
       </c>
       <c r="R462" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="463" spans="1:18" x14ac:dyDescent="0.25">
@@ -13281,7 +13281,7 @@
         <v>457</v>
       </c>
       <c r="R463" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="464" spans="1:18" x14ac:dyDescent="0.25">
@@ -13304,7 +13304,7 @@
         <v>458</v>
       </c>
       <c r="R464" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="465" spans="1:18" x14ac:dyDescent="0.25">
@@ -13327,7 +13327,7 @@
         <v>459</v>
       </c>
       <c r="R465" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="466" spans="1:18" x14ac:dyDescent="0.25">
@@ -13350,7 +13350,7 @@
         <v>460</v>
       </c>
       <c r="R466" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="467" spans="1:18" x14ac:dyDescent="0.25">
@@ -13373,7 +13373,7 @@
         <v>461</v>
       </c>
       <c r="R467" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="468" spans="1:18" x14ac:dyDescent="0.25">
@@ -13396,7 +13396,7 @@
         <v>462</v>
       </c>
       <c r="R468" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="469" spans="1:18" x14ac:dyDescent="0.25">
@@ -13419,7 +13419,7 @@
         <v>463</v>
       </c>
       <c r="R469" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="470" spans="1:18" x14ac:dyDescent="0.25">
@@ -13442,7 +13442,7 @@
         <v>464</v>
       </c>
       <c r="R470" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="471" spans="1:18" x14ac:dyDescent="0.25">
@@ -13465,7 +13465,7 @@
         <v>465</v>
       </c>
       <c r="R471" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="472" spans="1:18" x14ac:dyDescent="0.25">
@@ -13488,7 +13488,7 @@
         <v>466</v>
       </c>
       <c r="R472" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="473" spans="1:18" x14ac:dyDescent="0.25">
@@ -13511,7 +13511,7 @@
         <v>467</v>
       </c>
       <c r="R473" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="474" spans="1:18" x14ac:dyDescent="0.25">
@@ -13534,7 +13534,7 @@
         <v>468</v>
       </c>
       <c r="R474" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="475" spans="1:18" x14ac:dyDescent="0.25">
@@ -13557,7 +13557,7 @@
         <v>469</v>
       </c>
       <c r="R475" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="476" spans="1:18" x14ac:dyDescent="0.25">
@@ -13580,7 +13580,7 @@
         <v>470</v>
       </c>
       <c r="R476" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="477" spans="1:18" x14ac:dyDescent="0.25">
@@ -13603,7 +13603,7 @@
         <v>471</v>
       </c>
       <c r="R477" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="478" spans="1:18" x14ac:dyDescent="0.25">
@@ -13626,7 +13626,7 @@
         <v>472</v>
       </c>
       <c r="R478" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="479" spans="1:18" x14ac:dyDescent="0.25">
@@ -13649,7 +13649,7 @@
         <v>473</v>
       </c>
       <c r="R479" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="480" spans="1:18" x14ac:dyDescent="0.25">
@@ -13672,7 +13672,7 @@
         <v>474</v>
       </c>
       <c r="R480" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="481" spans="1:18" x14ac:dyDescent="0.25">
@@ -13695,7 +13695,7 @@
         <v>475</v>
       </c>
       <c r="R481" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="482" spans="1:18" x14ac:dyDescent="0.25">
@@ -13718,7 +13718,7 @@
         <v>476</v>
       </c>
       <c r="R482" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="483" spans="1:18" x14ac:dyDescent="0.25">
@@ -13741,7 +13741,7 @@
         <v>477</v>
       </c>
       <c r="R483" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="484" spans="1:18" x14ac:dyDescent="0.25">
@@ -13764,7 +13764,7 @@
         <v>478</v>
       </c>
       <c r="R484" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="485" spans="1:18" x14ac:dyDescent="0.25">
@@ -13787,7 +13787,7 @@
         <v>479</v>
       </c>
       <c r="R485" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="486" spans="1:18" x14ac:dyDescent="0.25">
@@ -13810,7 +13810,7 @@
         <v>480</v>
       </c>
       <c r="R486" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="487" spans="1:18" x14ac:dyDescent="0.25">
@@ -13833,7 +13833,7 @@
         <v>481</v>
       </c>
       <c r="R487" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="488" spans="1:18" x14ac:dyDescent="0.25">
@@ -13856,7 +13856,7 @@
         <v>482</v>
       </c>
       <c r="R488" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="489" spans="1:18" x14ac:dyDescent="0.25">
@@ -13879,7 +13879,7 @@
         <v>483</v>
       </c>
       <c r="R489" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="490" spans="1:18" x14ac:dyDescent="0.25">
@@ -13902,7 +13902,7 @@
         <v>484</v>
       </c>
       <c r="R490" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="491" spans="1:18" x14ac:dyDescent="0.25">
@@ -13925,7 +13925,7 @@
         <v>485</v>
       </c>
       <c r="R491" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="492" spans="1:18" x14ac:dyDescent="0.25">
@@ -13948,7 +13948,7 @@
         <v>486</v>
       </c>
       <c r="R492" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="493" spans="1:18" x14ac:dyDescent="0.25">
@@ -13971,7 +13971,7 @@
         <v>487</v>
       </c>
       <c r="R493" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="494" spans="1:18" x14ac:dyDescent="0.25">
@@ -13994,7 +13994,7 @@
         <v>488</v>
       </c>
       <c r="R494" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="495" spans="1:18" x14ac:dyDescent="0.25">
@@ -14017,7 +14017,7 @@
         <v>489</v>
       </c>
       <c r="R495" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="496" spans="1:18" x14ac:dyDescent="0.25">
@@ -14040,7 +14040,7 @@
         <v>490</v>
       </c>
       <c r="R496" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="497" spans="1:18" x14ac:dyDescent="0.25">
@@ -14063,7 +14063,7 @@
         <v>491</v>
       </c>
       <c r="R497" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="498" spans="1:18" x14ac:dyDescent="0.25">
@@ -14086,7 +14086,7 @@
         <v>492</v>
       </c>
       <c r="R498" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="499" spans="1:18" x14ac:dyDescent="0.25">
@@ -14109,7 +14109,7 @@
         <v>493</v>
       </c>
       <c r="R499" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="500" spans="1:18" x14ac:dyDescent="0.25">
@@ -14132,7 +14132,7 @@
         <v>494</v>
       </c>
       <c r="R500" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="501" spans="1:18" x14ac:dyDescent="0.25">
@@ -14155,7 +14155,7 @@
         <v>495</v>
       </c>
       <c r="R501" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="502" spans="1:18" x14ac:dyDescent="0.25">
@@ -14178,7 +14178,7 @@
         <v>496</v>
       </c>
       <c r="R502" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="503" spans="1:18" x14ac:dyDescent="0.25">
@@ -14201,7 +14201,7 @@
         <v>497</v>
       </c>
       <c r="R503" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="504" spans="1:18" x14ac:dyDescent="0.25">
@@ -14224,7 +14224,7 @@
         <v>498</v>
       </c>
       <c r="R504" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="505" spans="1:18" x14ac:dyDescent="0.25">
@@ -14247,7 +14247,7 @@
         <v>499</v>
       </c>
       <c r="R505" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="506" spans="1:18" x14ac:dyDescent="0.25">
@@ -14270,7 +14270,7 @@
         <v>500</v>
       </c>
       <c r="R506" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="507" spans="1:18" x14ac:dyDescent="0.25">
@@ -14293,7 +14293,7 @@
         <v>501</v>
       </c>
       <c r="R507" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="508" spans="1:18" x14ac:dyDescent="0.25">
@@ -14316,7 +14316,7 @@
         <v>502</v>
       </c>
       <c r="R508" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="509" spans="1:18" x14ac:dyDescent="0.25">
@@ -14339,7 +14339,7 @@
         <v>503</v>
       </c>
       <c r="R509" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="510" spans="1:18" x14ac:dyDescent="0.25">
@@ -14362,7 +14362,7 @@
         <v>504</v>
       </c>
       <c r="R510" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="511" spans="1:18" x14ac:dyDescent="0.25">
@@ -14385,7 +14385,7 @@
         <v>505</v>
       </c>
       <c r="R511" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="512" spans="1:18" x14ac:dyDescent="0.25">
@@ -14408,7 +14408,7 @@
         <v>506</v>
       </c>
       <c r="R512" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="513" spans="1:18" x14ac:dyDescent="0.25">
@@ -14431,7 +14431,7 @@
         <v>507</v>
       </c>
       <c r="R513" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="514" spans="1:18" x14ac:dyDescent="0.25">
@@ -14454,7 +14454,7 @@
         <v>508</v>
       </c>
       <c r="R514" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="515" spans="1:18" x14ac:dyDescent="0.25">
@@ -14477,7 +14477,7 @@
         <v>509</v>
       </c>
       <c r="R515" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="516" spans="1:18" x14ac:dyDescent="0.25">
@@ -14500,7 +14500,7 @@
         <v>510</v>
       </c>
       <c r="R516" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="517" spans="1:18" x14ac:dyDescent="0.25">
@@ -14523,7 +14523,7 @@
         <v>511</v>
       </c>
       <c r="R517" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="518" spans="1:18" x14ac:dyDescent="0.25">
@@ -14546,7 +14546,7 @@
         <v>512</v>
       </c>
       <c r="R518" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="519" spans="1:18" x14ac:dyDescent="0.25">
@@ -14569,7 +14569,7 @@
         <v>513</v>
       </c>
       <c r="R519" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="520" spans="1:18" x14ac:dyDescent="0.25">
@@ -14592,7 +14592,7 @@
         <v>514</v>
       </c>
       <c r="R520" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="521" spans="1:18" x14ac:dyDescent="0.25">
@@ -14615,7 +14615,7 @@
         <v>515</v>
       </c>
       <c r="R521" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="522" spans="1:18" x14ac:dyDescent="0.25">
@@ -14638,7 +14638,7 @@
         <v>516</v>
       </c>
       <c r="R522" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="523" spans="1:18" x14ac:dyDescent="0.25">
@@ -14661,7 +14661,7 @@
         <v>517</v>
       </c>
       <c r="R523" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="524" spans="1:18" x14ac:dyDescent="0.25">
@@ -14684,7 +14684,7 @@
         <v>518</v>
       </c>
       <c r="R524" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="525" spans="1:18" x14ac:dyDescent="0.25">
@@ -14707,7 +14707,7 @@
         <v>519</v>
       </c>
       <c r="R525" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="526" spans="1:18" x14ac:dyDescent="0.25">
@@ -14730,7 +14730,7 @@
         <v>520</v>
       </c>
       <c r="R526" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="527" spans="1:18" x14ac:dyDescent="0.25">
@@ -14753,7 +14753,7 @@
         <v>521</v>
       </c>
       <c r="R527" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="528" spans="1:18" x14ac:dyDescent="0.25">
@@ -14776,7 +14776,7 @@
         <v>522</v>
       </c>
       <c r="R528" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="529" spans="1:18" x14ac:dyDescent="0.25">
@@ -14799,7 +14799,7 @@
         <v>523</v>
       </c>
       <c r="R529" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="530" spans="1:18" x14ac:dyDescent="0.25">
@@ -14822,7 +14822,7 @@
         <v>524</v>
       </c>
       <c r="R530" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="531" spans="1:18" x14ac:dyDescent="0.25">
@@ -14845,7 +14845,7 @@
         <v>525</v>
       </c>
       <c r="R531" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="532" spans="1:18" x14ac:dyDescent="0.25">
@@ -14868,7 +14868,7 @@
         <v>526</v>
       </c>
       <c r="R532" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="533" spans="1:18" x14ac:dyDescent="0.25">
@@ -14891,7 +14891,7 @@
         <v>527</v>
       </c>
       <c r="R533" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="534" spans="1:18" x14ac:dyDescent="0.25">
@@ -14914,7 +14914,7 @@
         <v>528</v>
       </c>
       <c r="R534" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="535" spans="1:18" x14ac:dyDescent="0.25">
@@ -14937,7 +14937,7 @@
         <v>529</v>
       </c>
       <c r="R535" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="536" spans="1:18" x14ac:dyDescent="0.25">
@@ -14960,7 +14960,7 @@
         <v>530</v>
       </c>
       <c r="R536" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="537" spans="1:18" x14ac:dyDescent="0.25">
@@ -14983,7 +14983,7 @@
         <v>531</v>
       </c>
       <c r="R537" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="538" spans="1:18" x14ac:dyDescent="0.25">
@@ -15006,7 +15006,7 @@
         <v>532</v>
       </c>
       <c r="R538" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="539" spans="1:18" x14ac:dyDescent="0.25">
@@ -15029,7 +15029,7 @@
         <v>533</v>
       </c>
       <c r="R539" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="540" spans="1:18" x14ac:dyDescent="0.25">
@@ -15052,7 +15052,7 @@
         <v>534</v>
       </c>
       <c r="R540" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="541" spans="1:18" x14ac:dyDescent="0.25">
@@ -15075,7 +15075,7 @@
         <v>535</v>
       </c>
       <c r="R541" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="542" spans="1:18" x14ac:dyDescent="0.25">
@@ -15098,7 +15098,7 @@
         <v>536</v>
       </c>
       <c r="R542" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="543" spans="1:18" x14ac:dyDescent="0.25">
@@ -15121,7 +15121,7 @@
         <v>537</v>
       </c>
       <c r="R543" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="544" spans="1:18" x14ac:dyDescent="0.25">
@@ -15144,7 +15144,7 @@
         <v>538</v>
       </c>
       <c r="R544" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="545" spans="1:18" x14ac:dyDescent="0.25">
@@ -15167,7 +15167,7 @@
         <v>539</v>
       </c>
       <c r="R545" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="546" spans="1:18" x14ac:dyDescent="0.25">
@@ -15190,7 +15190,7 @@
         <v>540</v>
       </c>
       <c r="R546" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="547" spans="1:18" x14ac:dyDescent="0.25">
@@ -15213,7 +15213,7 @@
         <v>541</v>
       </c>
       <c r="R547" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="548" spans="1:18" x14ac:dyDescent="0.25">
@@ -15236,7 +15236,7 @@
         <v>542</v>
       </c>
       <c r="R548" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="549" spans="1:18" x14ac:dyDescent="0.25">
@@ -15259,7 +15259,7 @@
         <v>543</v>
       </c>
       <c r="R549" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="550" spans="1:18" x14ac:dyDescent="0.25">
@@ -15282,7 +15282,7 @@
         <v>544</v>
       </c>
       <c r="R550" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="551" spans="1:18" x14ac:dyDescent="0.25">
@@ -15305,7 +15305,7 @@
         <v>545</v>
       </c>
       <c r="R551" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="552" spans="1:18" x14ac:dyDescent="0.25">
@@ -15328,7 +15328,7 @@
         <v>546</v>
       </c>
       <c r="R552" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="553" spans="1:18" x14ac:dyDescent="0.25">
@@ -15351,7 +15351,7 @@
         <v>547</v>
       </c>
       <c r="R553" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="554" spans="1:18" x14ac:dyDescent="0.25">
@@ -15374,7 +15374,7 @@
         <v>548</v>
       </c>
       <c r="R554" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="555" spans="1:18" x14ac:dyDescent="0.25">
@@ -15397,7 +15397,7 @@
         <v>549</v>
       </c>
       <c r="R555" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="556" spans="1:18" x14ac:dyDescent="0.25">
@@ -15420,7 +15420,7 @@
         <v>550</v>
       </c>
       <c r="R556" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="557" spans="1:18" x14ac:dyDescent="0.25">
@@ -15443,7 +15443,7 @@
         <v>551</v>
       </c>
       <c r="R557" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="558" spans="1:18" x14ac:dyDescent="0.25">
@@ -15466,7 +15466,7 @@
         <v>552</v>
       </c>
       <c r="R558" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="559" spans="1:18" x14ac:dyDescent="0.25">
@@ -15489,7 +15489,7 @@
         <v>553</v>
       </c>
       <c r="R559" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="560" spans="1:18" x14ac:dyDescent="0.25">
@@ -15512,7 +15512,7 @@
         <v>554</v>
       </c>
       <c r="R560" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="561" spans="1:18" x14ac:dyDescent="0.25">
@@ -15535,7 +15535,7 @@
         <v>555</v>
       </c>
       <c r="R561" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="562" spans="1:18" x14ac:dyDescent="0.25">
@@ -15558,7 +15558,7 @@
         <v>556</v>
       </c>
       <c r="R562" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="563" spans="1:18" x14ac:dyDescent="0.25">
@@ -15581,7 +15581,7 @@
         <v>557</v>
       </c>
       <c r="R563" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="564" spans="1:18" x14ac:dyDescent="0.25">
@@ -15604,7 +15604,7 @@
         <v>558</v>
       </c>
       <c r="R564" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="565" spans="1:18" x14ac:dyDescent="0.25">
@@ -15627,7 +15627,7 @@
         <v>559</v>
       </c>
       <c r="R565" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="566" spans="1:18" x14ac:dyDescent="0.25">
@@ -15650,7 +15650,7 @@
         <v>560</v>
       </c>
       <c r="R566" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="567" spans="1:18" x14ac:dyDescent="0.25">
@@ -15673,7 +15673,7 @@
         <v>561</v>
       </c>
       <c r="R567" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="568" spans="1:18" x14ac:dyDescent="0.25">
@@ -15696,7 +15696,7 @@
         <v>562</v>
       </c>
       <c r="R568" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="569" spans="1:18" x14ac:dyDescent="0.25">
@@ -15719,7 +15719,7 @@
         <v>563</v>
       </c>
       <c r="R569" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="570" spans="1:18" x14ac:dyDescent="0.25">
@@ -15742,7 +15742,7 @@
         <v>564</v>
       </c>
       <c r="R570" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="571" spans="1:18" x14ac:dyDescent="0.25">
@@ -15765,7 +15765,7 @@
         <v>565</v>
       </c>
       <c r="R571" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="572" spans="1:18" x14ac:dyDescent="0.25">
@@ -15788,7 +15788,7 @@
         <v>566</v>
       </c>
       <c r="R572" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="573" spans="1:18" x14ac:dyDescent="0.25">
@@ -15811,7 +15811,7 @@
         <v>567</v>
       </c>
       <c r="R573" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="574" spans="1:18" x14ac:dyDescent="0.25">
@@ -15834,7 +15834,7 @@
         <v>568</v>
       </c>
       <c r="R574" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="575" spans="1:18" x14ac:dyDescent="0.25">
@@ -15857,7 +15857,7 @@
         <v>569</v>
       </c>
       <c r="R575" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="576" spans="1:18" x14ac:dyDescent="0.25">
@@ -15880,7 +15880,7 @@
         <v>570</v>
       </c>
       <c r="R576" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="577" spans="1:18" x14ac:dyDescent="0.25">
@@ -15903,7 +15903,7 @@
         <v>571</v>
       </c>
       <c r="R577" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="578" spans="1:18" x14ac:dyDescent="0.25">
@@ -15926,7 +15926,7 @@
         <v>572</v>
       </c>
       <c r="R578" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="579" spans="1:18" x14ac:dyDescent="0.25">
@@ -15949,7 +15949,7 @@
         <v>573</v>
       </c>
       <c r="R579" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="580" spans="1:18" x14ac:dyDescent="0.25">
@@ -15972,7 +15972,7 @@
         <v>574</v>
       </c>
       <c r="R580" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="581" spans="1:18" x14ac:dyDescent="0.25">
@@ -15995,7 +15995,7 @@
         <v>575</v>
       </c>
       <c r="R581" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="582" spans="1:18" x14ac:dyDescent="0.25">
@@ -16018,7 +16018,7 @@
         <v>576</v>
       </c>
       <c r="R582" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="583" spans="1:18" x14ac:dyDescent="0.25">
@@ -16041,7 +16041,7 @@
         <v>577</v>
       </c>
       <c r="R583" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="584" spans="1:18" x14ac:dyDescent="0.25">
@@ -16064,7 +16064,7 @@
         <v>578</v>
       </c>
       <c r="R584" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="585" spans="1:18" x14ac:dyDescent="0.25">
@@ -16087,7 +16087,7 @@
         <v>579</v>
       </c>
       <c r="R585" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="586" spans="1:18" x14ac:dyDescent="0.25">
@@ -16110,7 +16110,7 @@
         <v>580</v>
       </c>
       <c r="R586" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="587" spans="1:18" x14ac:dyDescent="0.25">
@@ -16133,7 +16133,7 @@
         <v>581</v>
       </c>
       <c r="R587" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="588" spans="1:18" x14ac:dyDescent="0.25">
@@ -16156,7 +16156,7 @@
         <v>582</v>
       </c>
       <c r="R588" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="589" spans="1:18" x14ac:dyDescent="0.25">
@@ -16179,7 +16179,7 @@
         <v>583</v>
       </c>
       <c r="R589" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="590" spans="1:18" x14ac:dyDescent="0.25">
@@ -16202,7 +16202,7 @@
         <v>584</v>
       </c>
       <c r="R590" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="591" spans="1:18" x14ac:dyDescent="0.25">
@@ -16225,7 +16225,7 @@
         <v>585</v>
       </c>
       <c r="R591" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="592" spans="1:18" x14ac:dyDescent="0.25">
@@ -16248,7 +16248,7 @@
         <v>586</v>
       </c>
       <c r="R592" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="593" spans="1:18" x14ac:dyDescent="0.25">
@@ -16271,7 +16271,7 @@
         <v>587</v>
       </c>
       <c r="R593" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="594" spans="1:18" x14ac:dyDescent="0.25">
@@ -16294,7 +16294,7 @@
         <v>588</v>
       </c>
       <c r="R594" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="595" spans="1:18" x14ac:dyDescent="0.25">
@@ -16317,7 +16317,7 @@
         <v>589</v>
       </c>
       <c r="R595" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="596" spans="1:18" x14ac:dyDescent="0.25">
@@ -16340,7 +16340,7 @@
         <v>590</v>
       </c>
       <c r="R596" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="597" spans="1:18" x14ac:dyDescent="0.25">
@@ -16363,7 +16363,7 @@
         <v>591</v>
       </c>
       <c r="R597" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="598" spans="1:18" x14ac:dyDescent="0.25">
@@ -16386,7 +16386,7 @@
         <v>592</v>
       </c>
       <c r="R598" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="599" spans="1:18" x14ac:dyDescent="0.25">
@@ -16409,7 +16409,7 @@
         <v>593</v>
       </c>
       <c r="R599" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="600" spans="1:18" x14ac:dyDescent="0.25">
@@ -16432,7 +16432,7 @@
         <v>594</v>
       </c>
       <c r="R600" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="601" spans="1:18" x14ac:dyDescent="0.25">
@@ -16455,7 +16455,7 @@
         <v>595</v>
       </c>
       <c r="R601" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="602" spans="1:18" x14ac:dyDescent="0.25">
@@ -16478,7 +16478,7 @@
         <v>596</v>
       </c>
       <c r="R602" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="603" spans="1:18" x14ac:dyDescent="0.25">
@@ -16501,7 +16501,7 @@
         <v>597</v>
       </c>
       <c r="R603" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="604" spans="1:18" x14ac:dyDescent="0.25">
@@ -16524,7 +16524,7 @@
         <v>598</v>
       </c>
       <c r="R604" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="605" spans="1:18" x14ac:dyDescent="0.25">
@@ -16547,7 +16547,7 @@
         <v>599</v>
       </c>
       <c r="R605" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="606" spans="1:18" x14ac:dyDescent="0.25">
@@ -16570,7 +16570,7 @@
         <v>600</v>
       </c>
       <c r="R606" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="607" spans="1:18" x14ac:dyDescent="0.25">
@@ -16593,7 +16593,7 @@
         <v>601</v>
       </c>
       <c r="R607" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="608" spans="1:18" x14ac:dyDescent="0.25">
@@ -16616,7 +16616,7 @@
         <v>602</v>
       </c>
       <c r="R608" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="609" spans="1:18" x14ac:dyDescent="0.25">
@@ -16639,7 +16639,7 @@
         <v>603</v>
       </c>
       <c r="R609" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="610" spans="1:18" x14ac:dyDescent="0.25">
@@ -16662,7 +16662,7 @@
         <v>604</v>
       </c>
       <c r="R610" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="611" spans="1:18" x14ac:dyDescent="0.25">
@@ -16685,7 +16685,7 @@
         <v>605</v>
       </c>
       <c r="R611" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="612" spans="1:18" x14ac:dyDescent="0.25">
@@ -16708,7 +16708,7 @@
         <v>606</v>
       </c>
       <c r="R612" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="613" spans="1:18" x14ac:dyDescent="0.25">
@@ -16731,7 +16731,7 @@
         <v>607</v>
       </c>
       <c r="R613" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="614" spans="1:18" x14ac:dyDescent="0.25">
@@ -16754,7 +16754,7 @@
         <v>608</v>
       </c>
       <c r="R614" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="615" spans="1:18" x14ac:dyDescent="0.25">
@@ -16777,7 +16777,7 @@
         <v>609</v>
       </c>
       <c r="R615" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="616" spans="1:18" x14ac:dyDescent="0.25">
@@ -16800,7 +16800,7 @@
         <v>610</v>
       </c>
       <c r="R616" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="617" spans="1:18" x14ac:dyDescent="0.25">
@@ -16823,7 +16823,7 @@
         <v>611</v>
       </c>
       <c r="R617" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="618" spans="1:18" x14ac:dyDescent="0.25">
@@ -16846,7 +16846,7 @@
         <v>612</v>
       </c>
       <c r="R618" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="619" spans="1:18" x14ac:dyDescent="0.25">
@@ -16869,7 +16869,7 @@
         <v>613</v>
       </c>
       <c r="R619" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="620" spans="1:18" x14ac:dyDescent="0.25">
@@ -16892,7 +16892,7 @@
         <v>614</v>
       </c>
       <c r="R620" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="621" spans="1:18" x14ac:dyDescent="0.25">
@@ -16915,7 +16915,7 @@
         <v>615</v>
       </c>
       <c r="R621" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="622" spans="1:18" x14ac:dyDescent="0.25">
@@ -16938,7 +16938,7 @@
         <v>616</v>
       </c>
       <c r="R622" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="623" spans="1:18" x14ac:dyDescent="0.25">
@@ -16961,7 +16961,7 @@
         <v>617</v>
       </c>
       <c r="R623" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="624" spans="1:18" x14ac:dyDescent="0.25">
@@ -16984,7 +16984,7 @@
         <v>618</v>
       </c>
       <c r="R624" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="625" spans="1:18" x14ac:dyDescent="0.25">
@@ -17007,7 +17007,7 @@
         <v>619</v>
       </c>
       <c r="R625" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="626" spans="1:18" x14ac:dyDescent="0.25">
@@ -17030,7 +17030,7 @@
         <v>620</v>
       </c>
       <c r="R626" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="627" spans="1:18" x14ac:dyDescent="0.25">
@@ -17053,7 +17053,7 @@
         <v>621</v>
       </c>
       <c r="R627" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="628" spans="1:18" x14ac:dyDescent="0.25">
@@ -17076,7 +17076,7 @@
         <v>622</v>
       </c>
       <c r="R628" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="629" spans="1:18" x14ac:dyDescent="0.25">
@@ -17099,7 +17099,7 @@
         <v>623</v>
       </c>
       <c r="R629" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="630" spans="1:18" x14ac:dyDescent="0.25">
@@ -17122,7 +17122,7 @@
         <v>624</v>
       </c>
       <c r="R630" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="631" spans="1:18" x14ac:dyDescent="0.25">
@@ -17145,7 +17145,7 @@
         <v>625</v>
       </c>
       <c r="R631" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="632" spans="1:18" x14ac:dyDescent="0.25">
@@ -17168,7 +17168,7 @@
         <v>626</v>
       </c>
       <c r="R632" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="633" spans="1:18" x14ac:dyDescent="0.25">
@@ -17191,7 +17191,7 @@
         <v>627</v>
       </c>
       <c r="R633" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="634" spans="1:18" x14ac:dyDescent="0.25">
@@ -17214,7 +17214,7 @@
         <v>628</v>
       </c>
       <c r="R634" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="635" spans="1:18" x14ac:dyDescent="0.25">
@@ -17237,7 +17237,7 @@
         <v>629</v>
       </c>
       <c r="R635" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="636" spans="1:18" x14ac:dyDescent="0.25">
@@ -17260,7 +17260,7 @@
         <v>630</v>
       </c>
       <c r="R636" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="637" spans="1:18" x14ac:dyDescent="0.25">
@@ -17283,7 +17283,7 @@
         <v>631</v>
       </c>
       <c r="R637" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="638" spans="1:18" x14ac:dyDescent="0.25">
@@ -17306,7 +17306,7 @@
         <v>632</v>
       </c>
       <c r="R638" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="639" spans="1:18" x14ac:dyDescent="0.25">
@@ -17329,7 +17329,7 @@
         <v>633</v>
       </c>
       <c r="R639" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="640" spans="1:18" x14ac:dyDescent="0.25">
@@ -17352,7 +17352,7 @@
         <v>634</v>
       </c>
       <c r="R640" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="641" spans="1:18" x14ac:dyDescent="0.25">
@@ -17375,7 +17375,7 @@
         <v>635</v>
       </c>
       <c r="R641" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="642" spans="1:18" x14ac:dyDescent="0.25">
@@ -17398,7 +17398,7 @@
         <v>636</v>
       </c>
       <c r="R642" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="643" spans="1:18" x14ac:dyDescent="0.25">
@@ -17421,7 +17421,7 @@
         <v>637</v>
       </c>
       <c r="R643" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="644" spans="1:18" x14ac:dyDescent="0.25">
@@ -17444,7 +17444,7 @@
         <v>638</v>
       </c>
       <c r="R644" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="645" spans="1:18" x14ac:dyDescent="0.25">
@@ -17467,7 +17467,7 @@
         <v>639</v>
       </c>
       <c r="R645" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="646" spans="1:18" x14ac:dyDescent="0.25">
@@ -17490,7 +17490,7 @@
         <v>640</v>
       </c>
       <c r="R646" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="647" spans="1:18" x14ac:dyDescent="0.25">
@@ -17513,7 +17513,7 @@
         <v>641</v>
       </c>
       <c r="R647" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="648" spans="1:18" x14ac:dyDescent="0.25">
@@ -17536,7 +17536,7 @@
         <v>642</v>
       </c>
       <c r="R648" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="649" spans="1:18" x14ac:dyDescent="0.25">
@@ -17559,7 +17559,7 @@
         <v>643</v>
       </c>
       <c r="R649" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="650" spans="1:18" x14ac:dyDescent="0.25">
@@ -17582,7 +17582,7 @@
         <v>644</v>
       </c>
       <c r="R650" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="651" spans="1:18" x14ac:dyDescent="0.25">
@@ -17605,7 +17605,7 @@
         <v>645</v>
       </c>
       <c r="R651" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="652" spans="1:18" x14ac:dyDescent="0.25">
@@ -17628,7 +17628,7 @@
         <v>646</v>
       </c>
       <c r="R652" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="653" spans="1:18" x14ac:dyDescent="0.25">
@@ -17651,7 +17651,7 @@
         <v>647</v>
       </c>
       <c r="R653" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="654" spans="1:18" x14ac:dyDescent="0.25">
@@ -17674,7 +17674,7 @@
         <v>648</v>
       </c>
       <c r="R654" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="655" spans="1:18" x14ac:dyDescent="0.25">
@@ -17697,7 +17697,7 @@
         <v>649</v>
       </c>
       <c r="R655" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="656" spans="1:18" x14ac:dyDescent="0.25">
@@ -17720,7 +17720,7 @@
         <v>650</v>
       </c>
       <c r="R656" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="657" spans="1:18" x14ac:dyDescent="0.25">
@@ -17743,7 +17743,7 @@
         <v>651</v>
       </c>
       <c r="R657" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="658" spans="1:18" x14ac:dyDescent="0.25">
@@ -17766,7 +17766,7 @@
         <v>652</v>
       </c>
       <c r="R658" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="659" spans="1:18" x14ac:dyDescent="0.25">
@@ -17789,7 +17789,7 @@
         <v>653</v>
       </c>
       <c r="R659" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="660" spans="1:18" x14ac:dyDescent="0.25">
@@ -17812,7 +17812,7 @@
         <v>654</v>
       </c>
       <c r="R660" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="661" spans="1:18" x14ac:dyDescent="0.25">
@@ -17835,7 +17835,7 @@
         <v>655</v>
       </c>
       <c r="R661" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="662" spans="1:18" x14ac:dyDescent="0.25">
@@ -17858,7 +17858,7 @@
         <v>656</v>
       </c>
       <c r="R662" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="663" spans="1:18" x14ac:dyDescent="0.25">
@@ -17881,7 +17881,7 @@
         <v>657</v>
       </c>
       <c r="R663" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="664" spans="1:18" x14ac:dyDescent="0.25">
@@ -17904,7 +17904,7 @@
         <v>658</v>
       </c>
       <c r="R664" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="665" spans="1:18" x14ac:dyDescent="0.25">
@@ -17927,7 +17927,7 @@
         <v>659</v>
       </c>
       <c r="R665" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="666" spans="1:18" x14ac:dyDescent="0.25">
@@ -17950,7 +17950,7 @@
         <v>660</v>
       </c>
       <c r="R666" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="667" spans="1:18" x14ac:dyDescent="0.25">
@@ -17973,7 +17973,7 @@
         <v>661</v>
       </c>
       <c r="R667" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="668" spans="1:18" x14ac:dyDescent="0.25">
@@ -17996,7 +17996,7 @@
         <v>662</v>
       </c>
       <c r="R668" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="669" spans="1:18" x14ac:dyDescent="0.25">
@@ -18019,7 +18019,7 @@
         <v>663</v>
       </c>
       <c r="R669" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="670" spans="1:18" x14ac:dyDescent="0.25">
@@ -18042,7 +18042,7 @@
         <v>664</v>
       </c>
       <c r="R670" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="671" spans="1:18" x14ac:dyDescent="0.25">
@@ -18065,7 +18065,7 @@
         <v>665</v>
       </c>
       <c r="R671" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="672" spans="1:18" x14ac:dyDescent="0.25">
@@ -18088,7 +18088,7 @@
         <v>666</v>
       </c>
       <c r="R672" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="673" spans="1:18" x14ac:dyDescent="0.25">
@@ -18111,7 +18111,7 @@
         <v>667</v>
       </c>
       <c r="R673" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="674" spans="1:18" x14ac:dyDescent="0.25">
@@ -18134,7 +18134,7 @@
         <v>668</v>
       </c>
       <c r="R674" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="675" spans="1:18" x14ac:dyDescent="0.25">
@@ -18157,7 +18157,7 @@
         <v>669</v>
       </c>
       <c r="R675" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="676" spans="1:18" x14ac:dyDescent="0.25">
@@ -18180,7 +18180,7 @@
         <v>670</v>
       </c>
       <c r="R676" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="677" spans="1:18" x14ac:dyDescent="0.25">
@@ -18203,7 +18203,7 @@
         <v>671</v>
       </c>
       <c r="R677" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="678" spans="1:18" x14ac:dyDescent="0.25">
@@ -18226,7 +18226,7 @@
         <v>672</v>
       </c>
       <c r="R678" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="679" spans="1:18" x14ac:dyDescent="0.25">
@@ -18249,7 +18249,7 @@
         <v>673</v>
       </c>
       <c r="R679" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="680" spans="1:18" x14ac:dyDescent="0.25">
@@ -18272,7 +18272,7 @@
         <v>674</v>
       </c>
       <c r="R680" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="681" spans="1:18" x14ac:dyDescent="0.25">
@@ -18295,7 +18295,7 @@
         <v>675</v>
       </c>
       <c r="R681" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="682" spans="1:18" x14ac:dyDescent="0.25">
@@ -18318,7 +18318,7 @@
         <v>676</v>
       </c>
       <c r="R682" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="683" spans="1:18" x14ac:dyDescent="0.25">
@@ -18341,7 +18341,7 @@
         <v>677</v>
       </c>
       <c r="R683" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="684" spans="1:18" x14ac:dyDescent="0.25">
@@ -18364,7 +18364,7 @@
         <v>678</v>
       </c>
       <c r="R684" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="685" spans="1:18" x14ac:dyDescent="0.25">
@@ -18387,7 +18387,7 @@
         <v>679</v>
       </c>
       <c r="R685" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="686" spans="1:18" x14ac:dyDescent="0.25">
@@ -18410,7 +18410,7 @@
         <v>680</v>
       </c>
       <c r="R686" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="687" spans="1:18" x14ac:dyDescent="0.25">
@@ -18433,7 +18433,7 @@
         <v>681</v>
       </c>
       <c r="R687" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="688" spans="1:18" x14ac:dyDescent="0.25">
@@ -18456,7 +18456,7 @@
         <v>682</v>
       </c>
       <c r="R688" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="689" spans="1:18" x14ac:dyDescent="0.25">
@@ -18479,7 +18479,7 @@
         <v>683</v>
       </c>
       <c r="R689" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="690" spans="1:18" x14ac:dyDescent="0.25">
@@ -18502,7 +18502,7 @@
         <v>684</v>
       </c>
       <c r="R690" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="691" spans="1:18" x14ac:dyDescent="0.25">
@@ -18525,7 +18525,7 @@
         <v>685</v>
       </c>
       <c r="R691" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="692" spans="1:18" x14ac:dyDescent="0.25">
@@ -18548,7 +18548,7 @@
         <v>686</v>
       </c>
       <c r="R692" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="693" spans="1:18" x14ac:dyDescent="0.25">
@@ -18571,7 +18571,7 @@
         <v>687</v>
       </c>
       <c r="R693" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="694" spans="1:18" x14ac:dyDescent="0.25">
@@ -18594,7 +18594,7 @@
         <v>688</v>
       </c>
       <c r="R694" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="695" spans="1:18" x14ac:dyDescent="0.25">
@@ -18617,7 +18617,7 @@
         <v>689</v>
       </c>
       <c r="R695" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="696" spans="1:18" x14ac:dyDescent="0.25">
@@ -18640,7 +18640,7 @@
         <v>690</v>
       </c>
       <c r="R696" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="697" spans="1:18" x14ac:dyDescent="0.25">
@@ -18663,7 +18663,7 @@
         <v>691</v>
       </c>
       <c r="R697" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="698" spans="1:18" x14ac:dyDescent="0.25">
@@ -18686,7 +18686,7 @@
         <v>692</v>
       </c>
       <c r="R698" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="699" spans="1:18" x14ac:dyDescent="0.25">
@@ -18709,7 +18709,7 @@
         <v>693</v>
       </c>
       <c r="R699" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="700" spans="1:18" x14ac:dyDescent="0.25">
@@ -18732,7 +18732,7 @@
         <v>694</v>
       </c>
       <c r="R700" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="701" spans="1:18" x14ac:dyDescent="0.25">
@@ -18755,7 +18755,7 @@
         <v>695</v>
       </c>
       <c r="R701" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>

--- a/Supports files/members.xlsx
+++ b/Supports files/members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Laravel\Code-js\code-js-lms\Supports files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B89D283-3B5B-4131-A639-D763A48D1BBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA1A64E-7E55-4112-AC22-F638CC2C5B6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2152,9 +2152,6 @@
     <t>address2_en</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -2183,6 +2180,9 @@
   </si>
   <si>
     <t>default_avatar.png</t>
+  </si>
+  <si>
+    <t>genderid</t>
   </si>
 </sst>
 </file>
@@ -2577,7 +2577,7 @@
   <dimension ref="A1:R701"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2604,10 +2604,10 @@
         <v>699</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>700</v>
@@ -2637,22 +2637,22 @@
         <v>708</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>711</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -2666,19 +2666,19 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>715</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>715</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>716</v>
       </c>
       <c r="N2" s="5">
         <v>94715151050</v>
       </c>
       <c r="R2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -2701,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -2724,7 +2724,7 @@
         <v>3</v>
       </c>
       <c r="R4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -2747,7 +2747,7 @@
         <v>4</v>
       </c>
       <c r="R5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -2770,7 +2770,7 @@
         <v>5</v>
       </c>
       <c r="R6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -2793,7 +2793,7 @@
         <v>6</v>
       </c>
       <c r="R7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -2816,7 +2816,7 @@
         <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
         <v>8</v>
       </c>
       <c r="R9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -2862,7 +2862,7 @@
         <v>9</v>
       </c>
       <c r="R10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -2885,7 +2885,7 @@
         <v>10</v>
       </c>
       <c r="R11" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -2908,7 +2908,7 @@
         <v>11</v>
       </c>
       <c r="R12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -2931,7 +2931,7 @@
         <v>12</v>
       </c>
       <c r="R13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -2954,7 +2954,7 @@
         <v>13</v>
       </c>
       <c r="R14" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -2977,7 +2977,7 @@
         <v>14</v>
       </c>
       <c r="R15" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -3000,7 +3000,7 @@
         <v>15</v>
       </c>
       <c r="R16" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -3023,7 +3023,7 @@
         <v>16</v>
       </c>
       <c r="R17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -3046,7 +3046,7 @@
         <v>17</v>
       </c>
       <c r="R18" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -3069,7 +3069,7 @@
         <v>18</v>
       </c>
       <c r="R19" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -3092,7 +3092,7 @@
         <v>19</v>
       </c>
       <c r="R20" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -3115,7 +3115,7 @@
         <v>20</v>
       </c>
       <c r="R21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -3138,7 +3138,7 @@
         <v>21</v>
       </c>
       <c r="R22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -3161,7 +3161,7 @@
         <v>22</v>
       </c>
       <c r="R23" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -3184,7 +3184,7 @@
         <v>23</v>
       </c>
       <c r="R24" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -3207,7 +3207,7 @@
         <v>24</v>
       </c>
       <c r="R25" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -3230,7 +3230,7 @@
         <v>25</v>
       </c>
       <c r="R26" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -3253,7 +3253,7 @@
         <v>26</v>
       </c>
       <c r="R27" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -3276,7 +3276,7 @@
         <v>27</v>
       </c>
       <c r="R28" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -3299,7 +3299,7 @@
         <v>28</v>
       </c>
       <c r="R29" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -3322,7 +3322,7 @@
         <v>29</v>
       </c>
       <c r="R30" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -3345,7 +3345,7 @@
         <v>30</v>
       </c>
       <c r="R31" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -3368,7 +3368,7 @@
         <v>31</v>
       </c>
       <c r="R32" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -3391,7 +3391,7 @@
         <v>32</v>
       </c>
       <c r="R33" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -3414,7 +3414,7 @@
         <v>33</v>
       </c>
       <c r="R34" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -3437,7 +3437,7 @@
         <v>34</v>
       </c>
       <c r="R35" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -3460,7 +3460,7 @@
         <v>35</v>
       </c>
       <c r="R36" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -3483,7 +3483,7 @@
         <v>36</v>
       </c>
       <c r="R37" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -3506,7 +3506,7 @@
         <v>37</v>
       </c>
       <c r="R38" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -3529,7 +3529,7 @@
         <v>38</v>
       </c>
       <c r="R39" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -3552,7 +3552,7 @@
         <v>39</v>
       </c>
       <c r="R40" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -3575,7 +3575,7 @@
         <v>40</v>
       </c>
       <c r="R41" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -3598,7 +3598,7 @@
         <v>41</v>
       </c>
       <c r="R42" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -3621,7 +3621,7 @@
         <v>42</v>
       </c>
       <c r="R43" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -3644,7 +3644,7 @@
         <v>43</v>
       </c>
       <c r="R44" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -3667,7 +3667,7 @@
         <v>44</v>
       </c>
       <c r="R45" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -3690,7 +3690,7 @@
         <v>45</v>
       </c>
       <c r="R46" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="R47" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -3736,7 +3736,7 @@
         <v>46</v>
       </c>
       <c r="R48" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -3759,7 +3759,7 @@
         <v>47</v>
       </c>
       <c r="R49" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -3782,7 +3782,7 @@
         <v>48</v>
       </c>
       <c r="R50" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -3805,7 +3805,7 @@
         <v>49</v>
       </c>
       <c r="R51" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -3828,7 +3828,7 @@
         <v>50</v>
       </c>
       <c r="R52" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -3851,7 +3851,7 @@
         <v>51</v>
       </c>
       <c r="R53" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -3874,7 +3874,7 @@
         <v>52</v>
       </c>
       <c r="R54" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -3897,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="R55" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -3920,7 +3920,7 @@
         <v>53</v>
       </c>
       <c r="R56" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -3943,7 +3943,7 @@
         <v>54</v>
       </c>
       <c r="R57" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -3966,7 +3966,7 @@
         <v>55</v>
       </c>
       <c r="R58" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -3989,7 +3989,7 @@
         <v>56</v>
       </c>
       <c r="R59" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -4012,7 +4012,7 @@
         <v>57</v>
       </c>
       <c r="R60" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -4035,7 +4035,7 @@
         <v>58</v>
       </c>
       <c r="R61" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -4058,7 +4058,7 @@
         <v>59</v>
       </c>
       <c r="R62" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -4081,7 +4081,7 @@
         <v>60</v>
       </c>
       <c r="R63" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -4104,7 +4104,7 @@
         <v>61</v>
       </c>
       <c r="R64" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -4127,7 +4127,7 @@
         <v>62</v>
       </c>
       <c r="R65" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -4150,7 +4150,7 @@
         <v>63</v>
       </c>
       <c r="R66" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -4173,7 +4173,7 @@
         <v>64</v>
       </c>
       <c r="R67" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -4196,7 +4196,7 @@
         <v>65</v>
       </c>
       <c r="R68" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -4219,7 +4219,7 @@
         <v>66</v>
       </c>
       <c r="R69" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -4242,7 +4242,7 @@
         <v>696</v>
       </c>
       <c r="R70" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -4265,7 +4265,7 @@
         <v>67</v>
       </c>
       <c r="R71" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
@@ -4288,7 +4288,7 @@
         <v>68</v>
       </c>
       <c r="R72" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
@@ -4311,7 +4311,7 @@
         <v>69</v>
       </c>
       <c r="R73" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
@@ -4334,7 +4334,7 @@
         <v>70</v>
       </c>
       <c r="R74" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
@@ -4357,7 +4357,7 @@
         <v>71</v>
       </c>
       <c r="R75" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -4380,7 +4380,7 @@
         <v>72</v>
       </c>
       <c r="R76" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
@@ -4403,7 +4403,7 @@
         <v>73</v>
       </c>
       <c r="R77" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -4426,7 +4426,7 @@
         <v>74</v>
       </c>
       <c r="R78" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -4449,7 +4449,7 @@
         <v>75</v>
       </c>
       <c r="R79" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -4472,7 +4472,7 @@
         <v>76</v>
       </c>
       <c r="R80" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -4495,7 +4495,7 @@
         <v>77</v>
       </c>
       <c r="R81" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
@@ -4518,7 +4518,7 @@
         <v>78</v>
       </c>
       <c r="R82" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
@@ -4541,7 +4541,7 @@
         <v>79</v>
       </c>
       <c r="R83" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
@@ -4564,7 +4564,7 @@
         <v>80</v>
       </c>
       <c r="R84" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
@@ -4587,7 +4587,7 @@
         <v>81</v>
       </c>
       <c r="R85" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
@@ -4610,7 +4610,7 @@
         <v>82</v>
       </c>
       <c r="R86" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
@@ -4633,7 +4633,7 @@
         <v>83</v>
       </c>
       <c r="R87" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
@@ -4656,7 +4656,7 @@
         <v>84</v>
       </c>
       <c r="R88" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
@@ -4679,7 +4679,7 @@
         <v>85</v>
       </c>
       <c r="R89" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
@@ -4702,7 +4702,7 @@
         <v>86</v>
       </c>
       <c r="R90" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
@@ -4725,7 +4725,7 @@
         <v>87</v>
       </c>
       <c r="R91" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
@@ -4748,7 +4748,7 @@
         <v>88</v>
       </c>
       <c r="R92" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
@@ -4771,7 +4771,7 @@
         <v>89</v>
       </c>
       <c r="R93" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
@@ -4794,7 +4794,7 @@
         <v>90</v>
       </c>
       <c r="R94" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
@@ -4817,7 +4817,7 @@
         <v>91</v>
       </c>
       <c r="R95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
@@ -4840,7 +4840,7 @@
         <v>92</v>
       </c>
       <c r="R96" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
@@ -4863,7 +4863,7 @@
         <v>93</v>
       </c>
       <c r="R97" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
@@ -4886,7 +4886,7 @@
         <v>94</v>
       </c>
       <c r="R98" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
@@ -4909,7 +4909,7 @@
         <v>95</v>
       </c>
       <c r="R99" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
@@ -4932,7 +4932,7 @@
         <v>96</v>
       </c>
       <c r="R100" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
@@ -4955,7 +4955,7 @@
         <v>97</v>
       </c>
       <c r="R101" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
@@ -4978,7 +4978,7 @@
         <v>98</v>
       </c>
       <c r="R102" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
@@ -5001,7 +5001,7 @@
         <v>99</v>
       </c>
       <c r="R103" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
@@ -5024,7 +5024,7 @@
         <v>100</v>
       </c>
       <c r="R104" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
@@ -5047,7 +5047,7 @@
         <v>101</v>
       </c>
       <c r="R105" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
@@ -5070,7 +5070,7 @@
         <v>102</v>
       </c>
       <c r="R106" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
@@ -5093,7 +5093,7 @@
         <v>103</v>
       </c>
       <c r="R107" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
@@ -5116,7 +5116,7 @@
         <v>104</v>
       </c>
       <c r="R108" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
@@ -5139,7 +5139,7 @@
         <v>105</v>
       </c>
       <c r="R109" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
@@ -5162,7 +5162,7 @@
         <v>106</v>
       </c>
       <c r="R110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
@@ -5185,7 +5185,7 @@
         <v>107</v>
       </c>
       <c r="R111" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
@@ -5208,7 +5208,7 @@
         <v>108</v>
       </c>
       <c r="R112" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
@@ -5231,7 +5231,7 @@
         <v>109</v>
       </c>
       <c r="R113" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
@@ -5254,7 +5254,7 @@
         <v>110</v>
       </c>
       <c r="R114" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
@@ -5277,7 +5277,7 @@
         <v>111</v>
       </c>
       <c r="R115" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
@@ -5300,7 +5300,7 @@
         <v>112</v>
       </c>
       <c r="R116" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
@@ -5323,7 +5323,7 @@
         <v>113</v>
       </c>
       <c r="R117" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
@@ -5346,7 +5346,7 @@
         <v>114</v>
       </c>
       <c r="R118" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
@@ -5369,7 +5369,7 @@
         <v>115</v>
       </c>
       <c r="R119" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
@@ -5392,7 +5392,7 @@
         <v>116</v>
       </c>
       <c r="R120" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
@@ -5415,7 +5415,7 @@
         <v>117</v>
       </c>
       <c r="R121" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
@@ -5438,7 +5438,7 @@
         <v>118</v>
       </c>
       <c r="R122" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
@@ -5461,7 +5461,7 @@
         <v>119</v>
       </c>
       <c r="R123" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
@@ -5484,7 +5484,7 @@
         <v>120</v>
       </c>
       <c r="R124" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
@@ -5507,7 +5507,7 @@
         <v>121</v>
       </c>
       <c r="R125" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
@@ -5530,7 +5530,7 @@
         <v>122</v>
       </c>
       <c r="R126" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
@@ -5553,7 +5553,7 @@
         <v>123</v>
       </c>
       <c r="R127" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
@@ -5576,7 +5576,7 @@
         <v>124</v>
       </c>
       <c r="R128" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
@@ -5599,7 +5599,7 @@
         <v>125</v>
       </c>
       <c r="R129" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
@@ -5622,7 +5622,7 @@
         <v>126</v>
       </c>
       <c r="R130" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
@@ -5645,7 +5645,7 @@
         <v>127</v>
       </c>
       <c r="R131" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
@@ -5668,7 +5668,7 @@
         <v>128</v>
       </c>
       <c r="R132" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
@@ -5691,7 +5691,7 @@
         <v>129</v>
       </c>
       <c r="R133" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
@@ -5714,7 +5714,7 @@
         <v>130</v>
       </c>
       <c r="R134" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
@@ -5737,7 +5737,7 @@
         <v>131</v>
       </c>
       <c r="R135" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
@@ -5760,7 +5760,7 @@
         <v>132</v>
       </c>
       <c r="R136" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
@@ -5783,7 +5783,7 @@
         <v>133</v>
       </c>
       <c r="R137" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
@@ -5806,7 +5806,7 @@
         <v>134</v>
       </c>
       <c r="R138" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
@@ -5829,7 +5829,7 @@
         <v>135</v>
       </c>
       <c r="R139" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
@@ -5852,7 +5852,7 @@
         <v>136</v>
       </c>
       <c r="R140" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
@@ -5875,7 +5875,7 @@
         <v>137</v>
       </c>
       <c r="R141" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
@@ -5898,7 +5898,7 @@
         <v>138</v>
       </c>
       <c r="R142" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
@@ -5921,7 +5921,7 @@
         <v>139</v>
       </c>
       <c r="R143" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
@@ -5944,7 +5944,7 @@
         <v>140</v>
       </c>
       <c r="R144" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
@@ -5967,7 +5967,7 @@
         <v>141</v>
       </c>
       <c r="R145" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
@@ -5990,7 +5990,7 @@
         <v>142</v>
       </c>
       <c r="R146" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
@@ -6013,7 +6013,7 @@
         <v>143</v>
       </c>
       <c r="R147" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
@@ -6036,7 +6036,7 @@
         <v>144</v>
       </c>
       <c r="R148" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
@@ -6059,7 +6059,7 @@
         <v>145</v>
       </c>
       <c r="R149" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
@@ -6082,7 +6082,7 @@
         <v>146</v>
       </c>
       <c r="R150" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
@@ -6105,7 +6105,7 @@
         <v>147</v>
       </c>
       <c r="R151" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
@@ -6128,7 +6128,7 @@
         <v>148</v>
       </c>
       <c r="R152" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
@@ -6151,7 +6151,7 @@
         <v>149</v>
       </c>
       <c r="R153" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
@@ -6174,7 +6174,7 @@
         <v>150</v>
       </c>
       <c r="R154" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
@@ -6197,7 +6197,7 @@
         <v>151</v>
       </c>
       <c r="R155" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
@@ -6220,7 +6220,7 @@
         <v>152</v>
       </c>
       <c r="R156" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
@@ -6243,7 +6243,7 @@
         <v>153</v>
       </c>
       <c r="R157" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
@@ -6266,7 +6266,7 @@
         <v>154</v>
       </c>
       <c r="R158" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
@@ -6289,7 +6289,7 @@
         <v>155</v>
       </c>
       <c r="R159" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
@@ -6312,7 +6312,7 @@
         <v>156</v>
       </c>
       <c r="R160" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
@@ -6335,7 +6335,7 @@
         <v>157</v>
       </c>
       <c r="R161" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
@@ -6358,7 +6358,7 @@
         <v>158</v>
       </c>
       <c r="R162" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
@@ -6381,7 +6381,7 @@
         <v>159</v>
       </c>
       <c r="R163" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
@@ -6404,7 +6404,7 @@
         <v>160</v>
       </c>
       <c r="R164" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
@@ -6427,7 +6427,7 @@
         <v>161</v>
       </c>
       <c r="R165" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
@@ -6450,7 +6450,7 @@
         <v>162</v>
       </c>
       <c r="R166" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
@@ -6473,7 +6473,7 @@
         <v>163</v>
       </c>
       <c r="R167" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
@@ -6496,7 +6496,7 @@
         <v>164</v>
       </c>
       <c r="R168" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
@@ -6519,7 +6519,7 @@
         <v>165</v>
       </c>
       <c r="R169" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
@@ -6542,7 +6542,7 @@
         <v>166</v>
       </c>
       <c r="R170" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
@@ -6565,7 +6565,7 @@
         <v>167</v>
       </c>
       <c r="R171" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
@@ -6588,7 +6588,7 @@
         <v>168</v>
       </c>
       <c r="R172" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
@@ -6611,7 +6611,7 @@
         <v>169</v>
       </c>
       <c r="R173" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
@@ -6634,7 +6634,7 @@
         <v>170</v>
       </c>
       <c r="R174" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
@@ -6657,7 +6657,7 @@
         <v>171</v>
       </c>
       <c r="R175" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
@@ -6680,7 +6680,7 @@
         <v>172</v>
       </c>
       <c r="R176" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
@@ -6703,7 +6703,7 @@
         <v>173</v>
       </c>
       <c r="R177" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
@@ -6726,7 +6726,7 @@
         <v>174</v>
       </c>
       <c r="R178" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
@@ -6749,7 +6749,7 @@
         <v>175</v>
       </c>
       <c r="R179" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
@@ -6772,7 +6772,7 @@
         <v>176</v>
       </c>
       <c r="R180" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
@@ -6795,7 +6795,7 @@
         <v>177</v>
       </c>
       <c r="R181" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
@@ -6818,7 +6818,7 @@
         <v>178</v>
       </c>
       <c r="R182" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
@@ -6841,7 +6841,7 @@
         <v>179</v>
       </c>
       <c r="R183" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
@@ -6864,7 +6864,7 @@
         <v>180</v>
       </c>
       <c r="R184" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
@@ -6887,7 +6887,7 @@
         <v>181</v>
       </c>
       <c r="R185" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
@@ -6910,7 +6910,7 @@
         <v>182</v>
       </c>
       <c r="R186" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
@@ -6933,7 +6933,7 @@
         <v>183</v>
       </c>
       <c r="R187" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
@@ -6956,7 +6956,7 @@
         <v>184</v>
       </c>
       <c r="R188" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
@@ -6979,7 +6979,7 @@
         <v>185</v>
       </c>
       <c r="R189" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
@@ -7002,7 +7002,7 @@
         <v>186</v>
       </c>
       <c r="R190" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
@@ -7025,7 +7025,7 @@
         <v>187</v>
       </c>
       <c r="R191" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
@@ -7048,7 +7048,7 @@
         <v>188</v>
       </c>
       <c r="R192" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
@@ -7071,7 +7071,7 @@
         <v>189</v>
       </c>
       <c r="R193" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
@@ -7094,7 +7094,7 @@
         <v>190</v>
       </c>
       <c r="R194" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
@@ -7117,7 +7117,7 @@
         <v>191</v>
       </c>
       <c r="R195" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
@@ -7140,7 +7140,7 @@
         <v>192</v>
       </c>
       <c r="R196" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
@@ -7163,7 +7163,7 @@
         <v>193</v>
       </c>
       <c r="R197" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
@@ -7186,7 +7186,7 @@
         <v>194</v>
       </c>
       <c r="R198" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
@@ -7209,7 +7209,7 @@
         <v>195</v>
       </c>
       <c r="R199" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
@@ -7232,7 +7232,7 @@
         <v>196</v>
       </c>
       <c r="R200" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
@@ -7255,7 +7255,7 @@
         <v>197</v>
       </c>
       <c r="R201" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
@@ -7278,7 +7278,7 @@
         <v>198</v>
       </c>
       <c r="R202" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
@@ -7301,7 +7301,7 @@
         <v>199</v>
       </c>
       <c r="R203" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
@@ -7324,7 +7324,7 @@
         <v>200</v>
       </c>
       <c r="R204" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
@@ -7347,7 +7347,7 @@
         <v>201</v>
       </c>
       <c r="R205" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
@@ -7370,7 +7370,7 @@
         <v>202</v>
       </c>
       <c r="R206" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
@@ -7393,7 +7393,7 @@
         <v>203</v>
       </c>
       <c r="R207" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
@@ -7416,7 +7416,7 @@
         <v>204</v>
       </c>
       <c r="R208" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
@@ -7439,7 +7439,7 @@
         <v>205</v>
       </c>
       <c r="R209" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
@@ -7462,7 +7462,7 @@
         <v>206</v>
       </c>
       <c r="R210" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
@@ -7485,7 +7485,7 @@
         <v>207</v>
       </c>
       <c r="R211" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
@@ -7508,7 +7508,7 @@
         <v>208</v>
       </c>
       <c r="R212" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
@@ -7531,7 +7531,7 @@
         <v>209</v>
       </c>
       <c r="R213" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
@@ -7554,7 +7554,7 @@
         <v>210</v>
       </c>
       <c r="R214" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
@@ -7577,7 +7577,7 @@
         <v>211</v>
       </c>
       <c r="R215" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
@@ -7600,7 +7600,7 @@
         <v>212</v>
       </c>
       <c r="R216" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
@@ -7623,7 +7623,7 @@
         <v>213</v>
       </c>
       <c r="R217" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
@@ -7646,7 +7646,7 @@
         <v>214</v>
       </c>
       <c r="R218" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
@@ -7669,7 +7669,7 @@
         <v>215</v>
       </c>
       <c r="R219" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
@@ -7692,7 +7692,7 @@
         <v>216</v>
       </c>
       <c r="R220" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
@@ -7715,7 +7715,7 @@
         <v>217</v>
       </c>
       <c r="R221" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
@@ -7738,7 +7738,7 @@
         <v>218</v>
       </c>
       <c r="R222" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
@@ -7761,7 +7761,7 @@
         <v>219</v>
       </c>
       <c r="R223" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
@@ -7784,7 +7784,7 @@
         <v>220</v>
       </c>
       <c r="R224" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
@@ -7807,7 +7807,7 @@
         <v>221</v>
       </c>
       <c r="R225" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
@@ -7830,7 +7830,7 @@
         <v>222</v>
       </c>
       <c r="R226" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
@@ -7853,7 +7853,7 @@
         <v>223</v>
       </c>
       <c r="R227" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
@@ -7876,7 +7876,7 @@
         <v>224</v>
       </c>
       <c r="R228" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
@@ -7899,7 +7899,7 @@
         <v>225</v>
       </c>
       <c r="R229" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
@@ -7922,7 +7922,7 @@
         <v>226</v>
       </c>
       <c r="R230" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
@@ -7945,7 +7945,7 @@
         <v>227</v>
       </c>
       <c r="R231" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
@@ -7968,7 +7968,7 @@
         <v>228</v>
       </c>
       <c r="R232" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
@@ -7991,7 +7991,7 @@
         <v>229</v>
       </c>
       <c r="R233" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
@@ -8014,7 +8014,7 @@
         <v>230</v>
       </c>
       <c r="R234" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.25">
@@ -8037,7 +8037,7 @@
         <v>231</v>
       </c>
       <c r="R235" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
@@ -8060,7 +8060,7 @@
         <v>232</v>
       </c>
       <c r="R236" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.25">
@@ -8083,7 +8083,7 @@
         <v>233</v>
       </c>
       <c r="R237" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
@@ -8106,7 +8106,7 @@
         <v>234</v>
       </c>
       <c r="R238" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
@@ -8129,7 +8129,7 @@
         <v>235</v>
       </c>
       <c r="R239" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
@@ -8152,7 +8152,7 @@
         <v>236</v>
       </c>
       <c r="R240" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.25">
@@ -8175,7 +8175,7 @@
         <v>237</v>
       </c>
       <c r="R241" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.25">
@@ -8198,7 +8198,7 @@
         <v>238</v>
       </c>
       <c r="R242" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.25">
@@ -8221,7 +8221,7 @@
         <v>239</v>
       </c>
       <c r="R243" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.25">
@@ -8244,7 +8244,7 @@
         <v>240</v>
       </c>
       <c r="R244" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.25">
@@ -8267,7 +8267,7 @@
         <v>241</v>
       </c>
       <c r="R245" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
@@ -8290,7 +8290,7 @@
         <v>242</v>
       </c>
       <c r="R246" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.25">
@@ -8313,7 +8313,7 @@
         <v>243</v>
       </c>
       <c r="R247" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
@@ -8336,7 +8336,7 @@
         <v>244</v>
       </c>
       <c r="R248" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.25">
@@ -8359,7 +8359,7 @@
         <v>245</v>
       </c>
       <c r="R249" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.25">
@@ -8382,7 +8382,7 @@
         <v>246</v>
       </c>
       <c r="R250" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.25">
@@ -8405,7 +8405,7 @@
         <v>697</v>
       </c>
       <c r="R251" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.25">
@@ -8428,7 +8428,7 @@
         <v>247</v>
       </c>
       <c r="R252" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.25">
@@ -8451,7 +8451,7 @@
         <v>248</v>
       </c>
       <c r="R253" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.25">
@@ -8474,7 +8474,7 @@
         <v>249</v>
       </c>
       <c r="R254" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.25">
@@ -8497,7 +8497,7 @@
         <v>250</v>
       </c>
       <c r="R255" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.25">
@@ -8520,7 +8520,7 @@
         <v>251</v>
       </c>
       <c r="R256" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="257" spans="1:18" x14ac:dyDescent="0.25">
@@ -8543,7 +8543,7 @@
         <v>252</v>
       </c>
       <c r="R257" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.25">
@@ -8566,7 +8566,7 @@
         <v>253</v>
       </c>
       <c r="R258" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="259" spans="1:18" x14ac:dyDescent="0.25">
@@ -8589,7 +8589,7 @@
         <v>254</v>
       </c>
       <c r="R259" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="260" spans="1:18" x14ac:dyDescent="0.25">
@@ -8612,7 +8612,7 @@
         <v>255</v>
       </c>
       <c r="R260" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="261" spans="1:18" x14ac:dyDescent="0.25">
@@ -8635,7 +8635,7 @@
         <v>256</v>
       </c>
       <c r="R261" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="262" spans="1:18" x14ac:dyDescent="0.25">
@@ -8658,7 +8658,7 @@
         <v>257</v>
       </c>
       <c r="R262" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="263" spans="1:18" x14ac:dyDescent="0.25">
@@ -8681,7 +8681,7 @@
         <v>258</v>
       </c>
       <c r="R263" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="264" spans="1:18" x14ac:dyDescent="0.25">
@@ -8704,7 +8704,7 @@
         <v>259</v>
       </c>
       <c r="R264" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="265" spans="1:18" x14ac:dyDescent="0.25">
@@ -8727,7 +8727,7 @@
         <v>260</v>
       </c>
       <c r="R265" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="266" spans="1:18" x14ac:dyDescent="0.25">
@@ -8750,7 +8750,7 @@
         <v>261</v>
       </c>
       <c r="R266" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="267" spans="1:18" x14ac:dyDescent="0.25">
@@ -8773,7 +8773,7 @@
         <v>262</v>
       </c>
       <c r="R267" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="268" spans="1:18" x14ac:dyDescent="0.25">
@@ -8796,7 +8796,7 @@
         <v>263</v>
       </c>
       <c r="R268" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="269" spans="1:18" x14ac:dyDescent="0.25">
@@ -8819,7 +8819,7 @@
         <v>264</v>
       </c>
       <c r="R269" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="270" spans="1:18" x14ac:dyDescent="0.25">
@@ -8842,7 +8842,7 @@
         <v>265</v>
       </c>
       <c r="R270" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="271" spans="1:18" x14ac:dyDescent="0.25">
@@ -8865,7 +8865,7 @@
         <v>266</v>
       </c>
       <c r="R271" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="272" spans="1:18" x14ac:dyDescent="0.25">
@@ -8888,7 +8888,7 @@
         <v>267</v>
       </c>
       <c r="R272" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="273" spans="1:18" x14ac:dyDescent="0.25">
@@ -8911,7 +8911,7 @@
         <v>268</v>
       </c>
       <c r="R273" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="274" spans="1:18" x14ac:dyDescent="0.25">
@@ -8934,7 +8934,7 @@
         <v>269</v>
       </c>
       <c r="R274" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="275" spans="1:18" x14ac:dyDescent="0.25">
@@ -8957,7 +8957,7 @@
         <v>270</v>
       </c>
       <c r="R275" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="276" spans="1:18" x14ac:dyDescent="0.25">
@@ -8980,7 +8980,7 @@
         <v>271</v>
       </c>
       <c r="R276" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="277" spans="1:18" x14ac:dyDescent="0.25">
@@ -9003,7 +9003,7 @@
         <v>272</v>
       </c>
       <c r="R277" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="278" spans="1:18" x14ac:dyDescent="0.25">
@@ -9026,7 +9026,7 @@
         <v>273</v>
       </c>
       <c r="R278" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="279" spans="1:18" x14ac:dyDescent="0.25">
@@ -9049,7 +9049,7 @@
         <v>274</v>
       </c>
       <c r="R279" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="280" spans="1:18" x14ac:dyDescent="0.25">
@@ -9072,7 +9072,7 @@
         <v>275</v>
       </c>
       <c r="R280" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="281" spans="1:18" x14ac:dyDescent="0.25">
@@ -9095,7 +9095,7 @@
         <v>276</v>
       </c>
       <c r="R281" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="282" spans="1:18" x14ac:dyDescent="0.25">
@@ -9118,7 +9118,7 @@
         <v>277</v>
       </c>
       <c r="R282" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="283" spans="1:18" x14ac:dyDescent="0.25">
@@ -9141,7 +9141,7 @@
         <v>278</v>
       </c>
       <c r="R283" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="284" spans="1:18" x14ac:dyDescent="0.25">
@@ -9164,7 +9164,7 @@
         <v>279</v>
       </c>
       <c r="R284" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="285" spans="1:18" x14ac:dyDescent="0.25">
@@ -9187,7 +9187,7 @@
         <v>280</v>
       </c>
       <c r="R285" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="286" spans="1:18" x14ac:dyDescent="0.25">
@@ -9210,7 +9210,7 @@
         <v>281</v>
       </c>
       <c r="R286" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="287" spans="1:18" x14ac:dyDescent="0.25">
@@ -9233,7 +9233,7 @@
         <v>282</v>
       </c>
       <c r="R287" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="288" spans="1:18" x14ac:dyDescent="0.25">
@@ -9256,7 +9256,7 @@
         <v>283</v>
       </c>
       <c r="R288" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="289" spans="1:18" x14ac:dyDescent="0.25">
@@ -9279,7 +9279,7 @@
         <v>284</v>
       </c>
       <c r="R289" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="290" spans="1:18" x14ac:dyDescent="0.25">
@@ -9302,7 +9302,7 @@
         <v>285</v>
       </c>
       <c r="R290" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="291" spans="1:18" x14ac:dyDescent="0.25">
@@ -9325,7 +9325,7 @@
         <v>286</v>
       </c>
       <c r="R291" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="292" spans="1:18" x14ac:dyDescent="0.25">
@@ -9348,7 +9348,7 @@
         <v>287</v>
       </c>
       <c r="R292" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="293" spans="1:18" x14ac:dyDescent="0.25">
@@ -9371,7 +9371,7 @@
         <v>288</v>
       </c>
       <c r="R293" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="294" spans="1:18" x14ac:dyDescent="0.25">
@@ -9394,7 +9394,7 @@
         <v>289</v>
       </c>
       <c r="R294" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="295" spans="1:18" x14ac:dyDescent="0.25">
@@ -9417,7 +9417,7 @@
         <v>290</v>
       </c>
       <c r="R295" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="296" spans="1:18" x14ac:dyDescent="0.25">
@@ -9440,7 +9440,7 @@
         <v>291</v>
       </c>
       <c r="R296" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="297" spans="1:18" x14ac:dyDescent="0.25">
@@ -9463,7 +9463,7 @@
         <v>292</v>
       </c>
       <c r="R297" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="298" spans="1:18" x14ac:dyDescent="0.25">
@@ -9486,7 +9486,7 @@
         <v>293</v>
       </c>
       <c r="R298" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="299" spans="1:18" x14ac:dyDescent="0.25">
@@ -9509,7 +9509,7 @@
         <v>294</v>
       </c>
       <c r="R299" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="300" spans="1:18" x14ac:dyDescent="0.25">
@@ -9532,7 +9532,7 @@
         <v>295</v>
       </c>
       <c r="R300" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="301" spans="1:18" x14ac:dyDescent="0.25">
@@ -9555,7 +9555,7 @@
         <v>296</v>
       </c>
       <c r="R301" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="302" spans="1:18" x14ac:dyDescent="0.25">
@@ -9578,7 +9578,7 @@
         <v>297</v>
       </c>
       <c r="R302" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="303" spans="1:18" x14ac:dyDescent="0.25">
@@ -9601,7 +9601,7 @@
         <v>298</v>
       </c>
       <c r="R303" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="304" spans="1:18" x14ac:dyDescent="0.25">
@@ -9624,7 +9624,7 @@
         <v>299</v>
       </c>
       <c r="R304" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="305" spans="1:18" x14ac:dyDescent="0.25">
@@ -9647,7 +9647,7 @@
         <v>300</v>
       </c>
       <c r="R305" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="306" spans="1:18" x14ac:dyDescent="0.25">
@@ -9670,7 +9670,7 @@
         <v>301</v>
       </c>
       <c r="R306" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="307" spans="1:18" x14ac:dyDescent="0.25">
@@ -9693,7 +9693,7 @@
         <v>302</v>
       </c>
       <c r="R307" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="308" spans="1:18" x14ac:dyDescent="0.25">
@@ -9716,7 +9716,7 @@
         <v>303</v>
       </c>
       <c r="R308" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="309" spans="1:18" x14ac:dyDescent="0.25">
@@ -9739,7 +9739,7 @@
         <v>304</v>
       </c>
       <c r="R309" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="310" spans="1:18" x14ac:dyDescent="0.25">
@@ -9762,7 +9762,7 @@
         <v>305</v>
       </c>
       <c r="R310" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="311" spans="1:18" x14ac:dyDescent="0.25">
@@ -9785,7 +9785,7 @@
         <v>306</v>
       </c>
       <c r="R311" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="312" spans="1:18" x14ac:dyDescent="0.25">
@@ -9808,7 +9808,7 @@
         <v>307</v>
       </c>
       <c r="R312" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="313" spans="1:18" x14ac:dyDescent="0.25">
@@ -9831,7 +9831,7 @@
         <v>308</v>
       </c>
       <c r="R313" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="314" spans="1:18" x14ac:dyDescent="0.25">
@@ -9854,7 +9854,7 @@
         <v>309</v>
       </c>
       <c r="R314" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="315" spans="1:18" x14ac:dyDescent="0.25">
@@ -9877,7 +9877,7 @@
         <v>310</v>
       </c>
       <c r="R315" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="316" spans="1:18" x14ac:dyDescent="0.25">
@@ -9900,7 +9900,7 @@
         <v>311</v>
       </c>
       <c r="R316" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.25">
@@ -9923,7 +9923,7 @@
         <v>312</v>
       </c>
       <c r="R317" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="318" spans="1:18" x14ac:dyDescent="0.25">
@@ -9946,7 +9946,7 @@
         <v>313</v>
       </c>
       <c r="R318" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="319" spans="1:18" x14ac:dyDescent="0.25">
@@ -9969,7 +9969,7 @@
         <v>314</v>
       </c>
       <c r="R319" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="320" spans="1:18" x14ac:dyDescent="0.25">
@@ -9992,7 +9992,7 @@
         <v>315</v>
       </c>
       <c r="R320" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="321" spans="1:18" x14ac:dyDescent="0.25">
@@ -10015,7 +10015,7 @@
         <v>316</v>
       </c>
       <c r="R321" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="322" spans="1:18" x14ac:dyDescent="0.25">
@@ -10038,7 +10038,7 @@
         <v>317</v>
       </c>
       <c r="R322" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="323" spans="1:18" x14ac:dyDescent="0.25">
@@ -10061,7 +10061,7 @@
         <v>318</v>
       </c>
       <c r="R323" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="324" spans="1:18" x14ac:dyDescent="0.25">
@@ -10084,7 +10084,7 @@
         <v>319</v>
       </c>
       <c r="R324" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="325" spans="1:18" x14ac:dyDescent="0.25">
@@ -10107,7 +10107,7 @@
         <v>320</v>
       </c>
       <c r="R325" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="326" spans="1:18" x14ac:dyDescent="0.25">
@@ -10130,7 +10130,7 @@
         <v>321</v>
       </c>
       <c r="R326" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="327" spans="1:18" x14ac:dyDescent="0.25">
@@ -10153,7 +10153,7 @@
         <v>322</v>
       </c>
       <c r="R327" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="328" spans="1:18" x14ac:dyDescent="0.25">
@@ -10176,7 +10176,7 @@
         <v>323</v>
       </c>
       <c r="R328" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="329" spans="1:18" x14ac:dyDescent="0.25">
@@ -10199,7 +10199,7 @@
         <v>324</v>
       </c>
       <c r="R329" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.25">
@@ -10222,7 +10222,7 @@
         <v>325</v>
       </c>
       <c r="R330" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.25">
@@ -10245,7 +10245,7 @@
         <v>326</v>
       </c>
       <c r="R331" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="332" spans="1:18" x14ac:dyDescent="0.25">
@@ -10268,7 +10268,7 @@
         <v>327</v>
       </c>
       <c r="R332" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="333" spans="1:18" x14ac:dyDescent="0.25">
@@ -10291,7 +10291,7 @@
         <v>328</v>
       </c>
       <c r="R333" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="334" spans="1:18" x14ac:dyDescent="0.25">
@@ -10314,7 +10314,7 @@
         <v>329</v>
       </c>
       <c r="R334" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="335" spans="1:18" x14ac:dyDescent="0.25">
@@ -10337,7 +10337,7 @@
         <v>330</v>
       </c>
       <c r="R335" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="336" spans="1:18" x14ac:dyDescent="0.25">
@@ -10360,7 +10360,7 @@
         <v>331</v>
       </c>
       <c r="R336" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="337" spans="1:18" x14ac:dyDescent="0.25">
@@ -10383,7 +10383,7 @@
         <v>332</v>
       </c>
       <c r="R337" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="338" spans="1:18" x14ac:dyDescent="0.25">
@@ -10406,7 +10406,7 @@
         <v>333</v>
       </c>
       <c r="R338" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="339" spans="1:18" x14ac:dyDescent="0.25">
@@ -10429,7 +10429,7 @@
         <v>334</v>
       </c>
       <c r="R339" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="340" spans="1:18" x14ac:dyDescent="0.25">
@@ -10452,7 +10452,7 @@
         <v>335</v>
       </c>
       <c r="R340" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="341" spans="1:18" x14ac:dyDescent="0.25">
@@ -10475,7 +10475,7 @@
         <v>336</v>
       </c>
       <c r="R341" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="342" spans="1:18" x14ac:dyDescent="0.25">
@@ -10498,7 +10498,7 @@
         <v>337</v>
       </c>
       <c r="R342" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="343" spans="1:18" x14ac:dyDescent="0.25">
@@ -10521,7 +10521,7 @@
         <v>338</v>
       </c>
       <c r="R343" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="344" spans="1:18" x14ac:dyDescent="0.25">
@@ -10544,7 +10544,7 @@
         <v>339</v>
       </c>
       <c r="R344" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="345" spans="1:18" x14ac:dyDescent="0.25">
@@ -10567,7 +10567,7 @@
         <v>340</v>
       </c>
       <c r="R345" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="346" spans="1:18" x14ac:dyDescent="0.25">
@@ -10590,7 +10590,7 @@
         <v>341</v>
       </c>
       <c r="R346" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="347" spans="1:18" x14ac:dyDescent="0.25">
@@ -10613,7 +10613,7 @@
         <v>342</v>
       </c>
       <c r="R347" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="348" spans="1:18" x14ac:dyDescent="0.25">
@@ -10636,7 +10636,7 @@
         <v>343</v>
       </c>
       <c r="R348" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="349" spans="1:18" x14ac:dyDescent="0.25">
@@ -10659,7 +10659,7 @@
         <v>344</v>
       </c>
       <c r="R349" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="350" spans="1:18" x14ac:dyDescent="0.25">
@@ -10682,7 +10682,7 @@
         <v>345</v>
       </c>
       <c r="R350" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="351" spans="1:18" x14ac:dyDescent="0.25">
@@ -10705,7 +10705,7 @@
         <v>346</v>
       </c>
       <c r="R351" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="352" spans="1:18" x14ac:dyDescent="0.25">
@@ -10728,7 +10728,7 @@
         <v>347</v>
       </c>
       <c r="R352" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="353" spans="1:18" x14ac:dyDescent="0.25">
@@ -10751,7 +10751,7 @@
         <v>348</v>
       </c>
       <c r="R353" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="354" spans="1:18" x14ac:dyDescent="0.25">
@@ -10774,7 +10774,7 @@
         <v>349</v>
       </c>
       <c r="R354" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="355" spans="1:18" x14ac:dyDescent="0.25">
@@ -10797,7 +10797,7 @@
         <v>350</v>
       </c>
       <c r="R355" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="356" spans="1:18" x14ac:dyDescent="0.25">
@@ -10820,7 +10820,7 @@
         <v>351</v>
       </c>
       <c r="R356" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="357" spans="1:18" x14ac:dyDescent="0.25">
@@ -10843,7 +10843,7 @@
         <v>352</v>
       </c>
       <c r="R357" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="358" spans="1:18" x14ac:dyDescent="0.25">
@@ -10866,7 +10866,7 @@
         <v>353</v>
       </c>
       <c r="R358" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="359" spans="1:18" x14ac:dyDescent="0.25">
@@ -10889,7 +10889,7 @@
         <v>354</v>
       </c>
       <c r="R359" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="360" spans="1:18" x14ac:dyDescent="0.25">
@@ -10912,7 +10912,7 @@
         <v>355</v>
       </c>
       <c r="R360" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="361" spans="1:18" x14ac:dyDescent="0.25">
@@ -10935,7 +10935,7 @@
         <v>356</v>
       </c>
       <c r="R361" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="362" spans="1:18" x14ac:dyDescent="0.25">
@@ -10958,7 +10958,7 @@
         <v>357</v>
       </c>
       <c r="R362" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="363" spans="1:18" x14ac:dyDescent="0.25">
@@ -10981,7 +10981,7 @@
         <v>358</v>
       </c>
       <c r="R363" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="364" spans="1:18" x14ac:dyDescent="0.25">
@@ -11004,7 +11004,7 @@
         <v>359</v>
       </c>
       <c r="R364" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="365" spans="1:18" x14ac:dyDescent="0.25">
@@ -11027,7 +11027,7 @@
         <v>360</v>
       </c>
       <c r="R365" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="366" spans="1:18" x14ac:dyDescent="0.25">
@@ -11050,7 +11050,7 @@
         <v>361</v>
       </c>
       <c r="R366" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="367" spans="1:18" x14ac:dyDescent="0.25">
@@ -11073,7 +11073,7 @@
         <v>362</v>
       </c>
       <c r="R367" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="368" spans="1:18" x14ac:dyDescent="0.25">
@@ -11096,7 +11096,7 @@
         <v>363</v>
       </c>
       <c r="R368" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="369" spans="1:18" x14ac:dyDescent="0.25">
@@ -11119,7 +11119,7 @@
         <v>364</v>
       </c>
       <c r="R369" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="370" spans="1:18" x14ac:dyDescent="0.25">
@@ -11142,7 +11142,7 @@
         <v>365</v>
       </c>
       <c r="R370" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="371" spans="1:18" x14ac:dyDescent="0.25">
@@ -11165,7 +11165,7 @@
         <v>366</v>
       </c>
       <c r="R371" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="372" spans="1:18" x14ac:dyDescent="0.25">
@@ -11188,7 +11188,7 @@
         <v>367</v>
       </c>
       <c r="R372" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="373" spans="1:18" x14ac:dyDescent="0.25">
@@ -11211,7 +11211,7 @@
         <v>368</v>
       </c>
       <c r="R373" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="374" spans="1:18" x14ac:dyDescent="0.25">
@@ -11234,7 +11234,7 @@
         <v>369</v>
       </c>
       <c r="R374" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="375" spans="1:18" x14ac:dyDescent="0.25">
@@ -11257,7 +11257,7 @@
         <v>370</v>
       </c>
       <c r="R375" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="376" spans="1:18" x14ac:dyDescent="0.25">
@@ -11280,7 +11280,7 @@
         <v>371</v>
       </c>
       <c r="R376" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="377" spans="1:18" x14ac:dyDescent="0.25">
@@ -11303,7 +11303,7 @@
         <v>372</v>
       </c>
       <c r="R377" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="378" spans="1:18" x14ac:dyDescent="0.25">
@@ -11326,7 +11326,7 @@
         <v>373</v>
       </c>
       <c r="R378" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="379" spans="1:18" x14ac:dyDescent="0.25">
@@ -11349,7 +11349,7 @@
         <v>374</v>
       </c>
       <c r="R379" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="380" spans="1:18" x14ac:dyDescent="0.25">
@@ -11372,7 +11372,7 @@
         <v>375</v>
       </c>
       <c r="R380" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="381" spans="1:18" x14ac:dyDescent="0.25">
@@ -11395,7 +11395,7 @@
         <v>376</v>
       </c>
       <c r="R381" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="382" spans="1:18" x14ac:dyDescent="0.25">
@@ -11418,7 +11418,7 @@
         <v>377</v>
       </c>
       <c r="R382" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="383" spans="1:18" x14ac:dyDescent="0.25">
@@ -11441,7 +11441,7 @@
         <v>378</v>
       </c>
       <c r="R383" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="384" spans="1:18" x14ac:dyDescent="0.25">
@@ -11464,7 +11464,7 @@
         <v>379</v>
       </c>
       <c r="R384" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="385" spans="1:18" x14ac:dyDescent="0.25">
@@ -11487,7 +11487,7 @@
         <v>380</v>
       </c>
       <c r="R385" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="386" spans="1:18" x14ac:dyDescent="0.25">
@@ -11510,7 +11510,7 @@
         <v>381</v>
       </c>
       <c r="R386" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="387" spans="1:18" x14ac:dyDescent="0.25">
@@ -11533,7 +11533,7 @@
         <v>382</v>
       </c>
       <c r="R387" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="388" spans="1:18" x14ac:dyDescent="0.25">
@@ -11556,7 +11556,7 @@
         <v>383</v>
       </c>
       <c r="R388" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="389" spans="1:18" x14ac:dyDescent="0.25">
@@ -11579,7 +11579,7 @@
         <v>384</v>
       </c>
       <c r="R389" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="390" spans="1:18" x14ac:dyDescent="0.25">
@@ -11602,7 +11602,7 @@
         <v>385</v>
       </c>
       <c r="R390" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="391" spans="1:18" x14ac:dyDescent="0.25">
@@ -11625,7 +11625,7 @@
         <v>386</v>
       </c>
       <c r="R391" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="392" spans="1:18" x14ac:dyDescent="0.25">
@@ -11648,7 +11648,7 @@
         <v>387</v>
       </c>
       <c r="R392" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="393" spans="1:18" x14ac:dyDescent="0.25">
@@ -11671,7 +11671,7 @@
         <v>388</v>
       </c>
       <c r="R393" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="394" spans="1:18" x14ac:dyDescent="0.25">
@@ -11694,7 +11694,7 @@
         <v>389</v>
       </c>
       <c r="R394" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="395" spans="1:18" x14ac:dyDescent="0.25">
@@ -11717,7 +11717,7 @@
         <v>390</v>
       </c>
       <c r="R395" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="396" spans="1:18" x14ac:dyDescent="0.25">
@@ -11740,7 +11740,7 @@
         <v>391</v>
       </c>
       <c r="R396" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="397" spans="1:18" x14ac:dyDescent="0.25">
@@ -11763,7 +11763,7 @@
         <v>392</v>
       </c>
       <c r="R397" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="398" spans="1:18" x14ac:dyDescent="0.25">
@@ -11786,7 +11786,7 @@
         <v>393</v>
       </c>
       <c r="R398" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="399" spans="1:18" x14ac:dyDescent="0.25">
@@ -11809,7 +11809,7 @@
         <v>394</v>
       </c>
       <c r="R399" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="400" spans="1:18" x14ac:dyDescent="0.25">
@@ -11832,7 +11832,7 @@
         <v>395</v>
       </c>
       <c r="R400" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="401" spans="1:18" x14ac:dyDescent="0.25">
@@ -11855,7 +11855,7 @@
         <v>396</v>
       </c>
       <c r="R401" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="402" spans="1:18" x14ac:dyDescent="0.25">
@@ -11878,7 +11878,7 @@
         <v>397</v>
       </c>
       <c r="R402" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="403" spans="1:18" x14ac:dyDescent="0.25">
@@ -11901,7 +11901,7 @@
         <v>398</v>
       </c>
       <c r="R403" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="404" spans="1:18" x14ac:dyDescent="0.25">
@@ -11924,7 +11924,7 @@
         <v>399</v>
       </c>
       <c r="R404" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="405" spans="1:18" x14ac:dyDescent="0.25">
@@ -11947,7 +11947,7 @@
         <v>400</v>
       </c>
       <c r="R405" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="406" spans="1:18" x14ac:dyDescent="0.25">
@@ -11970,7 +11970,7 @@
         <v>401</v>
       </c>
       <c r="R406" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="407" spans="1:18" x14ac:dyDescent="0.25">
@@ -11993,7 +11993,7 @@
         <v>402</v>
       </c>
       <c r="R407" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="408" spans="1:18" x14ac:dyDescent="0.25">
@@ -12016,7 +12016,7 @@
         <v>403</v>
       </c>
       <c r="R408" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="409" spans="1:18" x14ac:dyDescent="0.25">
@@ -12039,7 +12039,7 @@
         <v>404</v>
       </c>
       <c r="R409" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="410" spans="1:18" x14ac:dyDescent="0.25">
@@ -12062,7 +12062,7 @@
         <v>405</v>
       </c>
       <c r="R410" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="411" spans="1:18" x14ac:dyDescent="0.25">
@@ -12085,7 +12085,7 @@
         <v>406</v>
       </c>
       <c r="R411" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="412" spans="1:18" x14ac:dyDescent="0.25">
@@ -12108,7 +12108,7 @@
         <v>407</v>
       </c>
       <c r="R412" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="413" spans="1:18" x14ac:dyDescent="0.25">
@@ -12131,7 +12131,7 @@
         <v>408</v>
       </c>
       <c r="R413" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="414" spans="1:18" x14ac:dyDescent="0.25">
@@ -12154,7 +12154,7 @@
         <v>409</v>
       </c>
       <c r="R414" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="415" spans="1:18" x14ac:dyDescent="0.25">
@@ -12177,7 +12177,7 @@
         <v>410</v>
       </c>
       <c r="R415" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="416" spans="1:18" x14ac:dyDescent="0.25">
@@ -12200,7 +12200,7 @@
         <v>411</v>
       </c>
       <c r="R416" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="417" spans="1:18" x14ac:dyDescent="0.25">
@@ -12223,7 +12223,7 @@
         <v>412</v>
       </c>
       <c r="R417" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="418" spans="1:18" x14ac:dyDescent="0.25">
@@ -12246,7 +12246,7 @@
         <v>413</v>
       </c>
       <c r="R418" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="419" spans="1:18" x14ac:dyDescent="0.25">
@@ -12269,7 +12269,7 @@
         <v>414</v>
       </c>
       <c r="R419" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="420" spans="1:18" x14ac:dyDescent="0.25">
@@ -12292,7 +12292,7 @@
         <v>415</v>
       </c>
       <c r="R420" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="421" spans="1:18" x14ac:dyDescent="0.25">
@@ -12315,7 +12315,7 @@
         <v>416</v>
       </c>
       <c r="R421" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="422" spans="1:18" x14ac:dyDescent="0.25">
@@ -12338,7 +12338,7 @@
         <v>417</v>
       </c>
       <c r="R422" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="423" spans="1:18" x14ac:dyDescent="0.25">
@@ -12361,7 +12361,7 @@
         <v>418</v>
       </c>
       <c r="R423" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="424" spans="1:18" x14ac:dyDescent="0.25">
@@ -12384,7 +12384,7 @@
         <v>419</v>
       </c>
       <c r="R424" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="425" spans="1:18" x14ac:dyDescent="0.25">
@@ -12407,7 +12407,7 @@
         <v>420</v>
       </c>
       <c r="R425" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="426" spans="1:18" x14ac:dyDescent="0.25">
@@ -12430,7 +12430,7 @@
         <v>698</v>
       </c>
       <c r="R426" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="427" spans="1:18" x14ac:dyDescent="0.25">
@@ -12453,7 +12453,7 @@
         <v>421</v>
       </c>
       <c r="R427" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="428" spans="1:18" x14ac:dyDescent="0.25">
@@ -12476,7 +12476,7 @@
         <v>422</v>
       </c>
       <c r="R428" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="429" spans="1:18" x14ac:dyDescent="0.25">
@@ -12499,7 +12499,7 @@
         <v>423</v>
       </c>
       <c r="R429" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="430" spans="1:18" x14ac:dyDescent="0.25">
@@ -12522,7 +12522,7 @@
         <v>424</v>
       </c>
       <c r="R430" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="431" spans="1:18" x14ac:dyDescent="0.25">
@@ -12545,7 +12545,7 @@
         <v>425</v>
       </c>
       <c r="R431" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="432" spans="1:18" x14ac:dyDescent="0.25">
@@ -12568,7 +12568,7 @@
         <v>426</v>
       </c>
       <c r="R432" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="433" spans="1:18" x14ac:dyDescent="0.25">
@@ -12591,7 +12591,7 @@
         <v>427</v>
       </c>
       <c r="R433" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="434" spans="1:18" x14ac:dyDescent="0.25">
@@ -12614,7 +12614,7 @@
         <v>428</v>
       </c>
       <c r="R434" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="435" spans="1:18" x14ac:dyDescent="0.25">
@@ -12637,7 +12637,7 @@
         <v>429</v>
       </c>
       <c r="R435" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="436" spans="1:18" x14ac:dyDescent="0.25">
@@ -12660,7 +12660,7 @@
         <v>430</v>
       </c>
       <c r="R436" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="437" spans="1:18" x14ac:dyDescent="0.25">
@@ -12683,7 +12683,7 @@
         <v>431</v>
       </c>
       <c r="R437" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="438" spans="1:18" x14ac:dyDescent="0.25">
@@ -12706,7 +12706,7 @@
         <v>432</v>
       </c>
       <c r="R438" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="439" spans="1:18" x14ac:dyDescent="0.25">
@@ -12729,7 +12729,7 @@
         <v>433</v>
       </c>
       <c r="R439" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="440" spans="1:18" x14ac:dyDescent="0.25">
@@ -12752,7 +12752,7 @@
         <v>434</v>
       </c>
       <c r="R440" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="441" spans="1:18" x14ac:dyDescent="0.25">
@@ -12775,7 +12775,7 @@
         <v>435</v>
       </c>
       <c r="R441" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="442" spans="1:18" x14ac:dyDescent="0.25">
@@ -12798,7 +12798,7 @@
         <v>436</v>
       </c>
       <c r="R442" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="443" spans="1:18" x14ac:dyDescent="0.25">
@@ -12821,7 +12821,7 @@
         <v>437</v>
       </c>
       <c r="R443" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="444" spans="1:18" x14ac:dyDescent="0.25">
@@ -12844,7 +12844,7 @@
         <v>438</v>
       </c>
       <c r="R444" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="445" spans="1:18" x14ac:dyDescent="0.25">
@@ -12867,7 +12867,7 @@
         <v>439</v>
       </c>
       <c r="R445" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="446" spans="1:18" x14ac:dyDescent="0.25">
@@ -12890,7 +12890,7 @@
         <v>440</v>
       </c>
       <c r="R446" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="447" spans="1:18" x14ac:dyDescent="0.25">
@@ -12913,7 +12913,7 @@
         <v>441</v>
       </c>
       <c r="R447" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="448" spans="1:18" x14ac:dyDescent="0.25">
@@ -12936,7 +12936,7 @@
         <v>442</v>
       </c>
       <c r="R448" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="449" spans="1:18" x14ac:dyDescent="0.25">
@@ -12959,7 +12959,7 @@
         <v>443</v>
       </c>
       <c r="R449" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="450" spans="1:18" x14ac:dyDescent="0.25">
@@ -12982,7 +12982,7 @@
         <v>444</v>
       </c>
       <c r="R450" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="451" spans="1:18" x14ac:dyDescent="0.25">
@@ -13005,7 +13005,7 @@
         <v>445</v>
       </c>
       <c r="R451" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="452" spans="1:18" x14ac:dyDescent="0.25">
@@ -13028,7 +13028,7 @@
         <v>446</v>
       </c>
       <c r="R452" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="453" spans="1:18" x14ac:dyDescent="0.25">
@@ -13051,7 +13051,7 @@
         <v>447</v>
       </c>
       <c r="R453" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="454" spans="1:18" x14ac:dyDescent="0.25">
@@ -13074,7 +13074,7 @@
         <v>448</v>
       </c>
       <c r="R454" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="455" spans="1:18" x14ac:dyDescent="0.25">
@@ -13097,7 +13097,7 @@
         <v>449</v>
       </c>
       <c r="R455" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="456" spans="1:18" x14ac:dyDescent="0.25">
@@ -13120,7 +13120,7 @@
         <v>450</v>
       </c>
       <c r="R456" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="457" spans="1:18" x14ac:dyDescent="0.25">
@@ -13143,7 +13143,7 @@
         <v>451</v>
       </c>
       <c r="R457" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="458" spans="1:18" x14ac:dyDescent="0.25">
@@ -13166,7 +13166,7 @@
         <v>452</v>
       </c>
       <c r="R458" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="459" spans="1:18" x14ac:dyDescent="0.25">
@@ -13189,7 +13189,7 @@
         <v>453</v>
       </c>
       <c r="R459" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="460" spans="1:18" x14ac:dyDescent="0.25">
@@ -13212,7 +13212,7 @@
         <v>454</v>
       </c>
       <c r="R460" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="461" spans="1:18" x14ac:dyDescent="0.25">
@@ -13235,7 +13235,7 @@
         <v>455</v>
       </c>
       <c r="R461" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="462" spans="1:18" x14ac:dyDescent="0.25">
@@ -13258,7 +13258,7 @@
         <v>456</v>
       </c>
       <c r="R462" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="463" spans="1:18" x14ac:dyDescent="0.25">
@@ -13281,7 +13281,7 @@
         <v>457</v>
       </c>
       <c r="R463" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="464" spans="1:18" x14ac:dyDescent="0.25">
@@ -13304,7 +13304,7 @@
         <v>458</v>
       </c>
       <c r="R464" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="465" spans="1:18" x14ac:dyDescent="0.25">
@@ -13327,7 +13327,7 @@
         <v>459</v>
       </c>
       <c r="R465" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="466" spans="1:18" x14ac:dyDescent="0.25">
@@ -13350,7 +13350,7 @@
         <v>460</v>
       </c>
       <c r="R466" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="467" spans="1:18" x14ac:dyDescent="0.25">
@@ -13373,7 +13373,7 @@
         <v>461</v>
       </c>
       <c r="R467" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="468" spans="1:18" x14ac:dyDescent="0.25">
@@ -13396,7 +13396,7 @@
         <v>462</v>
       </c>
       <c r="R468" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="469" spans="1:18" x14ac:dyDescent="0.25">
@@ -13419,7 +13419,7 @@
         <v>463</v>
       </c>
       <c r="R469" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="470" spans="1:18" x14ac:dyDescent="0.25">
@@ -13442,7 +13442,7 @@
         <v>464</v>
       </c>
       <c r="R470" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="471" spans="1:18" x14ac:dyDescent="0.25">
@@ -13465,7 +13465,7 @@
         <v>465</v>
       </c>
       <c r="R471" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="472" spans="1:18" x14ac:dyDescent="0.25">
@@ -13488,7 +13488,7 @@
         <v>466</v>
       </c>
       <c r="R472" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="473" spans="1:18" x14ac:dyDescent="0.25">
@@ -13511,7 +13511,7 @@
         <v>467</v>
       </c>
       <c r="R473" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="474" spans="1:18" x14ac:dyDescent="0.25">
@@ -13534,7 +13534,7 @@
         <v>468</v>
       </c>
       <c r="R474" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="475" spans="1:18" x14ac:dyDescent="0.25">
@@ -13557,7 +13557,7 @@
         <v>469</v>
       </c>
       <c r="R475" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="476" spans="1:18" x14ac:dyDescent="0.25">
@@ -13580,7 +13580,7 @@
         <v>470</v>
       </c>
       <c r="R476" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="477" spans="1:18" x14ac:dyDescent="0.25">
@@ -13603,7 +13603,7 @@
         <v>471</v>
       </c>
       <c r="R477" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="478" spans="1:18" x14ac:dyDescent="0.25">
@@ -13626,7 +13626,7 @@
         <v>472</v>
       </c>
       <c r="R478" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="479" spans="1:18" x14ac:dyDescent="0.25">
@@ -13649,7 +13649,7 @@
         <v>473</v>
       </c>
       <c r="R479" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="480" spans="1:18" x14ac:dyDescent="0.25">
@@ -13672,7 +13672,7 @@
         <v>474</v>
       </c>
       <c r="R480" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="481" spans="1:18" x14ac:dyDescent="0.25">
@@ -13695,7 +13695,7 @@
         <v>475</v>
       </c>
       <c r="R481" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="482" spans="1:18" x14ac:dyDescent="0.25">
@@ -13718,7 +13718,7 @@
         <v>476</v>
       </c>
       <c r="R482" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="483" spans="1:18" x14ac:dyDescent="0.25">
@@ -13741,7 +13741,7 @@
         <v>477</v>
       </c>
       <c r="R483" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="484" spans="1:18" x14ac:dyDescent="0.25">
@@ -13764,7 +13764,7 @@
         <v>478</v>
       </c>
       <c r="R484" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="485" spans="1:18" x14ac:dyDescent="0.25">
@@ -13787,7 +13787,7 @@
         <v>479</v>
       </c>
       <c r="R485" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="486" spans="1:18" x14ac:dyDescent="0.25">
@@ -13810,7 +13810,7 @@
         <v>480</v>
       </c>
       <c r="R486" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="487" spans="1:18" x14ac:dyDescent="0.25">
@@ -13833,7 +13833,7 @@
         <v>481</v>
       </c>
       <c r="R487" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="488" spans="1:18" x14ac:dyDescent="0.25">
@@ -13856,7 +13856,7 @@
         <v>482</v>
       </c>
       <c r="R488" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="489" spans="1:18" x14ac:dyDescent="0.25">
@@ -13879,7 +13879,7 @@
         <v>483</v>
       </c>
       <c r="R489" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="490" spans="1:18" x14ac:dyDescent="0.25">
@@ -13902,7 +13902,7 @@
         <v>484</v>
       </c>
       <c r="R490" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="491" spans="1:18" x14ac:dyDescent="0.25">
@@ -13925,7 +13925,7 @@
         <v>485</v>
       </c>
       <c r="R491" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="492" spans="1:18" x14ac:dyDescent="0.25">
@@ -13948,7 +13948,7 @@
         <v>486</v>
       </c>
       <c r="R492" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="493" spans="1:18" x14ac:dyDescent="0.25">
@@ -13971,7 +13971,7 @@
         <v>487</v>
       </c>
       <c r="R493" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="494" spans="1:18" x14ac:dyDescent="0.25">
@@ -13994,7 +13994,7 @@
         <v>488</v>
       </c>
       <c r="R494" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="495" spans="1:18" x14ac:dyDescent="0.25">
@@ -14017,7 +14017,7 @@
         <v>489</v>
       </c>
       <c r="R495" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="496" spans="1:18" x14ac:dyDescent="0.25">
@@ -14040,7 +14040,7 @@
         <v>490</v>
       </c>
       <c r="R496" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="497" spans="1:18" x14ac:dyDescent="0.25">
@@ -14063,7 +14063,7 @@
         <v>491</v>
       </c>
       <c r="R497" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="498" spans="1:18" x14ac:dyDescent="0.25">
@@ -14086,7 +14086,7 @@
         <v>492</v>
       </c>
       <c r="R498" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="499" spans="1:18" x14ac:dyDescent="0.25">
@@ -14109,7 +14109,7 @@
         <v>493</v>
       </c>
       <c r="R499" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="500" spans="1:18" x14ac:dyDescent="0.25">
@@ -14132,7 +14132,7 @@
         <v>494</v>
       </c>
       <c r="R500" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="501" spans="1:18" x14ac:dyDescent="0.25">
@@ -14155,7 +14155,7 @@
         <v>495</v>
       </c>
       <c r="R501" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="502" spans="1:18" x14ac:dyDescent="0.25">
@@ -14178,7 +14178,7 @@
         <v>496</v>
       </c>
       <c r="R502" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="503" spans="1:18" x14ac:dyDescent="0.25">
@@ -14201,7 +14201,7 @@
         <v>497</v>
       </c>
       <c r="R503" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="504" spans="1:18" x14ac:dyDescent="0.25">
@@ -14224,7 +14224,7 @@
         <v>498</v>
       </c>
       <c r="R504" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="505" spans="1:18" x14ac:dyDescent="0.25">
@@ -14247,7 +14247,7 @@
         <v>499</v>
       </c>
       <c r="R505" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="506" spans="1:18" x14ac:dyDescent="0.25">
@@ -14270,7 +14270,7 @@
         <v>500</v>
       </c>
       <c r="R506" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="507" spans="1:18" x14ac:dyDescent="0.25">
@@ -14293,7 +14293,7 @@
         <v>501</v>
       </c>
       <c r="R507" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="508" spans="1:18" x14ac:dyDescent="0.25">
@@ -14316,7 +14316,7 @@
         <v>502</v>
       </c>
       <c r="R508" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="509" spans="1:18" x14ac:dyDescent="0.25">
@@ -14339,7 +14339,7 @@
         <v>503</v>
       </c>
       <c r="R509" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="510" spans="1:18" x14ac:dyDescent="0.25">
@@ -14362,7 +14362,7 @@
         <v>504</v>
       </c>
       <c r="R510" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="511" spans="1:18" x14ac:dyDescent="0.25">
@@ -14385,7 +14385,7 @@
         <v>505</v>
       </c>
       <c r="R511" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="512" spans="1:18" x14ac:dyDescent="0.25">
@@ -14408,7 +14408,7 @@
         <v>506</v>
       </c>
       <c r="R512" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="513" spans="1:18" x14ac:dyDescent="0.25">
@@ -14431,7 +14431,7 @@
         <v>507</v>
       </c>
       <c r="R513" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="514" spans="1:18" x14ac:dyDescent="0.25">
@@ -14454,7 +14454,7 @@
         <v>508</v>
       </c>
       <c r="R514" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="515" spans="1:18" x14ac:dyDescent="0.25">
@@ -14477,7 +14477,7 @@
         <v>509</v>
       </c>
       <c r="R515" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="516" spans="1:18" x14ac:dyDescent="0.25">
@@ -14500,7 +14500,7 @@
         <v>510</v>
       </c>
       <c r="R516" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="517" spans="1:18" x14ac:dyDescent="0.25">
@@ -14523,7 +14523,7 @@
         <v>511</v>
       </c>
       <c r="R517" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="518" spans="1:18" x14ac:dyDescent="0.25">
@@ -14546,7 +14546,7 @@
         <v>512</v>
       </c>
       <c r="R518" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="519" spans="1:18" x14ac:dyDescent="0.25">
@@ -14569,7 +14569,7 @@
         <v>513</v>
       </c>
       <c r="R519" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="520" spans="1:18" x14ac:dyDescent="0.25">
@@ -14592,7 +14592,7 @@
         <v>514</v>
       </c>
       <c r="R520" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="521" spans="1:18" x14ac:dyDescent="0.25">
@@ -14615,7 +14615,7 @@
         <v>515</v>
       </c>
       <c r="R521" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="522" spans="1:18" x14ac:dyDescent="0.25">
@@ -14638,7 +14638,7 @@
         <v>516</v>
       </c>
       <c r="R522" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="523" spans="1:18" x14ac:dyDescent="0.25">
@@ -14661,7 +14661,7 @@
         <v>517</v>
       </c>
       <c r="R523" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="524" spans="1:18" x14ac:dyDescent="0.25">
@@ -14684,7 +14684,7 @@
         <v>518</v>
       </c>
       <c r="R524" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="525" spans="1:18" x14ac:dyDescent="0.25">
@@ -14707,7 +14707,7 @@
         <v>519</v>
       </c>
       <c r="R525" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="526" spans="1:18" x14ac:dyDescent="0.25">
@@ -14730,7 +14730,7 @@
         <v>520</v>
       </c>
       <c r="R526" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="527" spans="1:18" x14ac:dyDescent="0.25">
@@ -14753,7 +14753,7 @@
         <v>521</v>
       </c>
       <c r="R527" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="528" spans="1:18" x14ac:dyDescent="0.25">
@@ -14776,7 +14776,7 @@
         <v>522</v>
       </c>
       <c r="R528" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="529" spans="1:18" x14ac:dyDescent="0.25">
@@ -14799,7 +14799,7 @@
         <v>523</v>
       </c>
       <c r="R529" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="530" spans="1:18" x14ac:dyDescent="0.25">
@@ -14822,7 +14822,7 @@
         <v>524</v>
       </c>
       <c r="R530" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="531" spans="1:18" x14ac:dyDescent="0.25">
@@ -14845,7 +14845,7 @@
         <v>525</v>
       </c>
       <c r="R531" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="532" spans="1:18" x14ac:dyDescent="0.25">
@@ -14868,7 +14868,7 @@
         <v>526</v>
       </c>
       <c r="R532" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="533" spans="1:18" x14ac:dyDescent="0.25">
@@ -14891,7 +14891,7 @@
         <v>527</v>
       </c>
       <c r="R533" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="534" spans="1:18" x14ac:dyDescent="0.25">
@@ -14914,7 +14914,7 @@
         <v>528</v>
       </c>
       <c r="R534" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="535" spans="1:18" x14ac:dyDescent="0.25">
@@ -14937,7 +14937,7 @@
         <v>529</v>
       </c>
       <c r="R535" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="536" spans="1:18" x14ac:dyDescent="0.25">
@@ -14960,7 +14960,7 @@
         <v>530</v>
       </c>
       <c r="R536" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="537" spans="1:18" x14ac:dyDescent="0.25">
@@ -14983,7 +14983,7 @@
         <v>531</v>
       </c>
       <c r="R537" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="538" spans="1:18" x14ac:dyDescent="0.25">
@@ -15006,7 +15006,7 @@
         <v>532</v>
       </c>
       <c r="R538" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="539" spans="1:18" x14ac:dyDescent="0.25">
@@ -15029,7 +15029,7 @@
         <v>533</v>
       </c>
       <c r="R539" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="540" spans="1:18" x14ac:dyDescent="0.25">
@@ -15052,7 +15052,7 @@
         <v>534</v>
       </c>
       <c r="R540" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="541" spans="1:18" x14ac:dyDescent="0.25">
@@ -15075,7 +15075,7 @@
         <v>535</v>
       </c>
       <c r="R541" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="542" spans="1:18" x14ac:dyDescent="0.25">
@@ -15098,7 +15098,7 @@
         <v>536</v>
       </c>
       <c r="R542" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="543" spans="1:18" x14ac:dyDescent="0.25">
@@ -15121,7 +15121,7 @@
         <v>537</v>
       </c>
       <c r="R543" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="544" spans="1:18" x14ac:dyDescent="0.25">
@@ -15144,7 +15144,7 @@
         <v>538</v>
       </c>
       <c r="R544" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="545" spans="1:18" x14ac:dyDescent="0.25">
@@ -15167,7 +15167,7 @@
         <v>539</v>
       </c>
       <c r="R545" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="546" spans="1:18" x14ac:dyDescent="0.25">
@@ -15190,7 +15190,7 @@
         <v>540</v>
       </c>
       <c r="R546" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="547" spans="1:18" x14ac:dyDescent="0.25">
@@ -15213,7 +15213,7 @@
         <v>541</v>
       </c>
       <c r="R547" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="548" spans="1:18" x14ac:dyDescent="0.25">
@@ -15236,7 +15236,7 @@
         <v>542</v>
       </c>
       <c r="R548" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="549" spans="1:18" x14ac:dyDescent="0.25">
@@ -15259,7 +15259,7 @@
         <v>543</v>
       </c>
       <c r="R549" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="550" spans="1:18" x14ac:dyDescent="0.25">
@@ -15282,7 +15282,7 @@
         <v>544</v>
       </c>
       <c r="R550" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="551" spans="1:18" x14ac:dyDescent="0.25">
@@ -15305,7 +15305,7 @@
         <v>545</v>
       </c>
       <c r="R551" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="552" spans="1:18" x14ac:dyDescent="0.25">
@@ -15328,7 +15328,7 @@
         <v>546</v>
       </c>
       <c r="R552" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="553" spans="1:18" x14ac:dyDescent="0.25">
@@ -15351,7 +15351,7 @@
         <v>547</v>
       </c>
       <c r="R553" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="554" spans="1:18" x14ac:dyDescent="0.25">
@@ -15374,7 +15374,7 @@
         <v>548</v>
       </c>
       <c r="R554" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="555" spans="1:18" x14ac:dyDescent="0.25">
@@ -15397,7 +15397,7 @@
         <v>549</v>
       </c>
       <c r="R555" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="556" spans="1:18" x14ac:dyDescent="0.25">
@@ -15420,7 +15420,7 @@
         <v>550</v>
       </c>
       <c r="R556" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="557" spans="1:18" x14ac:dyDescent="0.25">
@@ -15443,7 +15443,7 @@
         <v>551</v>
       </c>
       <c r="R557" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="558" spans="1:18" x14ac:dyDescent="0.25">
@@ -15466,7 +15466,7 @@
         <v>552</v>
       </c>
       <c r="R558" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="559" spans="1:18" x14ac:dyDescent="0.25">
@@ -15489,7 +15489,7 @@
         <v>553</v>
       </c>
       <c r="R559" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="560" spans="1:18" x14ac:dyDescent="0.25">
@@ -15512,7 +15512,7 @@
         <v>554</v>
       </c>
       <c r="R560" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="561" spans="1:18" x14ac:dyDescent="0.25">
@@ -15535,7 +15535,7 @@
         <v>555</v>
       </c>
       <c r="R561" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="562" spans="1:18" x14ac:dyDescent="0.25">
@@ -15558,7 +15558,7 @@
         <v>556</v>
       </c>
       <c r="R562" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="563" spans="1:18" x14ac:dyDescent="0.25">
@@ -15581,7 +15581,7 @@
         <v>557</v>
       </c>
       <c r="R563" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="564" spans="1:18" x14ac:dyDescent="0.25">
@@ -15604,7 +15604,7 @@
         <v>558</v>
       </c>
       <c r="R564" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="565" spans="1:18" x14ac:dyDescent="0.25">
@@ -15627,7 +15627,7 @@
         <v>559</v>
       </c>
       <c r="R565" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="566" spans="1:18" x14ac:dyDescent="0.25">
@@ -15650,7 +15650,7 @@
         <v>560</v>
       </c>
       <c r="R566" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="567" spans="1:18" x14ac:dyDescent="0.25">
@@ -15673,7 +15673,7 @@
         <v>561</v>
       </c>
       <c r="R567" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="568" spans="1:18" x14ac:dyDescent="0.25">
@@ -15696,7 +15696,7 @@
         <v>562</v>
       </c>
       <c r="R568" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="569" spans="1:18" x14ac:dyDescent="0.25">
@@ -15719,7 +15719,7 @@
         <v>563</v>
       </c>
       <c r="R569" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="570" spans="1:18" x14ac:dyDescent="0.25">
@@ -15742,7 +15742,7 @@
         <v>564</v>
       </c>
       <c r="R570" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="571" spans="1:18" x14ac:dyDescent="0.25">
@@ -15765,7 +15765,7 @@
         <v>565</v>
       </c>
       <c r="R571" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="572" spans="1:18" x14ac:dyDescent="0.25">
@@ -15788,7 +15788,7 @@
         <v>566</v>
       </c>
       <c r="R572" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="573" spans="1:18" x14ac:dyDescent="0.25">
@@ -15811,7 +15811,7 @@
         <v>567</v>
       </c>
       <c r="R573" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="574" spans="1:18" x14ac:dyDescent="0.25">
@@ -15834,7 +15834,7 @@
         <v>568</v>
       </c>
       <c r="R574" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="575" spans="1:18" x14ac:dyDescent="0.25">
@@ -15857,7 +15857,7 @@
         <v>569</v>
       </c>
       <c r="R575" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="576" spans="1:18" x14ac:dyDescent="0.25">
@@ -15880,7 +15880,7 @@
         <v>570</v>
       </c>
       <c r="R576" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="577" spans="1:18" x14ac:dyDescent="0.25">
@@ -15903,7 +15903,7 @@
         <v>571</v>
       </c>
       <c r="R577" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="578" spans="1:18" x14ac:dyDescent="0.25">
@@ -15926,7 +15926,7 @@
         <v>572</v>
       </c>
       <c r="R578" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="579" spans="1:18" x14ac:dyDescent="0.25">
@@ -15949,7 +15949,7 @@
         <v>573</v>
       </c>
       <c r="R579" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="580" spans="1:18" x14ac:dyDescent="0.25">
@@ -15972,7 +15972,7 @@
         <v>574</v>
       </c>
       <c r="R580" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="581" spans="1:18" x14ac:dyDescent="0.25">
@@ -15995,7 +15995,7 @@
         <v>575</v>
       </c>
       <c r="R581" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="582" spans="1:18" x14ac:dyDescent="0.25">
@@ -16018,7 +16018,7 @@
         <v>576</v>
       </c>
       <c r="R582" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="583" spans="1:18" x14ac:dyDescent="0.25">
@@ -16041,7 +16041,7 @@
         <v>577</v>
       </c>
       <c r="R583" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="584" spans="1:18" x14ac:dyDescent="0.25">
@@ -16064,7 +16064,7 @@
         <v>578</v>
       </c>
       <c r="R584" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="585" spans="1:18" x14ac:dyDescent="0.25">
@@ -16087,7 +16087,7 @@
         <v>579</v>
       </c>
       <c r="R585" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="586" spans="1:18" x14ac:dyDescent="0.25">
@@ -16110,7 +16110,7 @@
         <v>580</v>
       </c>
       <c r="R586" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="587" spans="1:18" x14ac:dyDescent="0.25">
@@ -16133,7 +16133,7 @@
         <v>581</v>
       </c>
       <c r="R587" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="588" spans="1:18" x14ac:dyDescent="0.25">
@@ -16156,7 +16156,7 @@
         <v>582</v>
       </c>
       <c r="R588" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="589" spans="1:18" x14ac:dyDescent="0.25">
@@ -16179,7 +16179,7 @@
         <v>583</v>
       </c>
       <c r="R589" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="590" spans="1:18" x14ac:dyDescent="0.25">
@@ -16202,7 +16202,7 @@
         <v>584</v>
       </c>
       <c r="R590" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="591" spans="1:18" x14ac:dyDescent="0.25">
@@ -16225,7 +16225,7 @@
         <v>585</v>
       </c>
       <c r="R591" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="592" spans="1:18" x14ac:dyDescent="0.25">
@@ -16248,7 +16248,7 @@
         <v>586</v>
       </c>
       <c r="R592" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="593" spans="1:18" x14ac:dyDescent="0.25">
@@ -16271,7 +16271,7 @@
         <v>587</v>
       </c>
       <c r="R593" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="594" spans="1:18" x14ac:dyDescent="0.25">
@@ -16294,7 +16294,7 @@
         <v>588</v>
       </c>
       <c r="R594" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="595" spans="1:18" x14ac:dyDescent="0.25">
@@ -16317,7 +16317,7 @@
         <v>589</v>
       </c>
       <c r="R595" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="596" spans="1:18" x14ac:dyDescent="0.25">
@@ -16340,7 +16340,7 @@
         <v>590</v>
       </c>
       <c r="R596" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="597" spans="1:18" x14ac:dyDescent="0.25">
@@ -16363,7 +16363,7 @@
         <v>591</v>
       </c>
       <c r="R597" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="598" spans="1:18" x14ac:dyDescent="0.25">
@@ -16386,7 +16386,7 @@
         <v>592</v>
       </c>
       <c r="R598" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="599" spans="1:18" x14ac:dyDescent="0.25">
@@ -16409,7 +16409,7 @@
         <v>593</v>
       </c>
       <c r="R599" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="600" spans="1:18" x14ac:dyDescent="0.25">
@@ -16432,7 +16432,7 @@
         <v>594</v>
       </c>
       <c r="R600" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="601" spans="1:18" x14ac:dyDescent="0.25">
@@ -16455,7 +16455,7 @@
         <v>595</v>
       </c>
       <c r="R601" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="602" spans="1:18" x14ac:dyDescent="0.25">
@@ -16478,7 +16478,7 @@
         <v>596</v>
       </c>
       <c r="R602" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="603" spans="1:18" x14ac:dyDescent="0.25">
@@ -16501,7 +16501,7 @@
         <v>597</v>
       </c>
       <c r="R603" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="604" spans="1:18" x14ac:dyDescent="0.25">
@@ -16524,7 +16524,7 @@
         <v>598</v>
       </c>
       <c r="R604" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="605" spans="1:18" x14ac:dyDescent="0.25">
@@ -16547,7 +16547,7 @@
         <v>599</v>
       </c>
       <c r="R605" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="606" spans="1:18" x14ac:dyDescent="0.25">
@@ -16570,7 +16570,7 @@
         <v>600</v>
       </c>
       <c r="R606" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="607" spans="1:18" x14ac:dyDescent="0.25">
@@ -16593,7 +16593,7 @@
         <v>601</v>
       </c>
       <c r="R607" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="608" spans="1:18" x14ac:dyDescent="0.25">
@@ -16616,7 +16616,7 @@
         <v>602</v>
       </c>
       <c r="R608" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="609" spans="1:18" x14ac:dyDescent="0.25">
@@ -16639,7 +16639,7 @@
         <v>603</v>
       </c>
       <c r="R609" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="610" spans="1:18" x14ac:dyDescent="0.25">
@@ -16662,7 +16662,7 @@
         <v>604</v>
       </c>
       <c r="R610" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="611" spans="1:18" x14ac:dyDescent="0.25">
@@ -16685,7 +16685,7 @@
         <v>605</v>
       </c>
       <c r="R611" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="612" spans="1:18" x14ac:dyDescent="0.25">
@@ -16708,7 +16708,7 @@
         <v>606</v>
       </c>
       <c r="R612" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="613" spans="1:18" x14ac:dyDescent="0.25">
@@ -16731,7 +16731,7 @@
         <v>607</v>
       </c>
       <c r="R613" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="614" spans="1:18" x14ac:dyDescent="0.25">
@@ -16754,7 +16754,7 @@
         <v>608</v>
       </c>
       <c r="R614" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="615" spans="1:18" x14ac:dyDescent="0.25">
@@ -16777,7 +16777,7 @@
         <v>609</v>
       </c>
       <c r="R615" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="616" spans="1:18" x14ac:dyDescent="0.25">
@@ -16800,7 +16800,7 @@
         <v>610</v>
       </c>
       <c r="R616" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="617" spans="1:18" x14ac:dyDescent="0.25">
@@ -16823,7 +16823,7 @@
         <v>611</v>
       </c>
       <c r="R617" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="618" spans="1:18" x14ac:dyDescent="0.25">
@@ -16846,7 +16846,7 @@
         <v>612</v>
       </c>
       <c r="R618" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="619" spans="1:18" x14ac:dyDescent="0.25">
@@ -16869,7 +16869,7 @@
         <v>613</v>
       </c>
       <c r="R619" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="620" spans="1:18" x14ac:dyDescent="0.25">
@@ -16892,7 +16892,7 @@
         <v>614</v>
       </c>
       <c r="R620" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="621" spans="1:18" x14ac:dyDescent="0.25">
@@ -16915,7 +16915,7 @@
         <v>615</v>
       </c>
       <c r="R621" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="622" spans="1:18" x14ac:dyDescent="0.25">
@@ -16938,7 +16938,7 @@
         <v>616</v>
       </c>
       <c r="R622" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="623" spans="1:18" x14ac:dyDescent="0.25">
@@ -16961,7 +16961,7 @@
         <v>617</v>
       </c>
       <c r="R623" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="624" spans="1:18" x14ac:dyDescent="0.25">
@@ -16984,7 +16984,7 @@
         <v>618</v>
       </c>
       <c r="R624" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="625" spans="1:18" x14ac:dyDescent="0.25">
@@ -17007,7 +17007,7 @@
         <v>619</v>
       </c>
       <c r="R625" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="626" spans="1:18" x14ac:dyDescent="0.25">
@@ -17030,7 +17030,7 @@
         <v>620</v>
       </c>
       <c r="R626" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="627" spans="1:18" x14ac:dyDescent="0.25">
@@ -17053,7 +17053,7 @@
         <v>621</v>
       </c>
       <c r="R627" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="628" spans="1:18" x14ac:dyDescent="0.25">
@@ -17076,7 +17076,7 @@
         <v>622</v>
       </c>
       <c r="R628" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="629" spans="1:18" x14ac:dyDescent="0.25">
@@ -17099,7 +17099,7 @@
         <v>623</v>
       </c>
       <c r="R629" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="630" spans="1:18" x14ac:dyDescent="0.25">
@@ -17122,7 +17122,7 @@
         <v>624</v>
       </c>
       <c r="R630" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="631" spans="1:18" x14ac:dyDescent="0.25">
@@ -17145,7 +17145,7 @@
         <v>625</v>
       </c>
       <c r="R631" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="632" spans="1:18" x14ac:dyDescent="0.25">
@@ -17168,7 +17168,7 @@
         <v>626</v>
       </c>
       <c r="R632" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="633" spans="1:18" x14ac:dyDescent="0.25">
@@ -17191,7 +17191,7 @@
         <v>627</v>
       </c>
       <c r="R633" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="634" spans="1:18" x14ac:dyDescent="0.25">
@@ -17214,7 +17214,7 @@
         <v>628</v>
       </c>
       <c r="R634" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="635" spans="1:18" x14ac:dyDescent="0.25">
@@ -17237,7 +17237,7 @@
         <v>629</v>
       </c>
       <c r="R635" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="636" spans="1:18" x14ac:dyDescent="0.25">
@@ -17260,7 +17260,7 @@
         <v>630</v>
       </c>
       <c r="R636" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="637" spans="1:18" x14ac:dyDescent="0.25">
@@ -17283,7 +17283,7 @@
         <v>631</v>
       </c>
       <c r="R637" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="638" spans="1:18" x14ac:dyDescent="0.25">
@@ -17306,7 +17306,7 @@
         <v>632</v>
       </c>
       <c r="R638" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="639" spans="1:18" x14ac:dyDescent="0.25">
@@ -17329,7 +17329,7 @@
         <v>633</v>
       </c>
       <c r="R639" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="640" spans="1:18" x14ac:dyDescent="0.25">
@@ -17352,7 +17352,7 @@
         <v>634</v>
       </c>
       <c r="R640" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="641" spans="1:18" x14ac:dyDescent="0.25">
@@ -17375,7 +17375,7 @@
         <v>635</v>
       </c>
       <c r="R641" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="642" spans="1:18" x14ac:dyDescent="0.25">
@@ -17398,7 +17398,7 @@
         <v>636</v>
       </c>
       <c r="R642" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="643" spans="1:18" x14ac:dyDescent="0.25">
@@ -17421,7 +17421,7 @@
         <v>637</v>
       </c>
       <c r="R643" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="644" spans="1:18" x14ac:dyDescent="0.25">
@@ -17444,7 +17444,7 @@
         <v>638</v>
       </c>
       <c r="R644" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="645" spans="1:18" x14ac:dyDescent="0.25">
@@ -17467,7 +17467,7 @@
         <v>639</v>
       </c>
       <c r="R645" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="646" spans="1:18" x14ac:dyDescent="0.25">
@@ -17490,7 +17490,7 @@
         <v>640</v>
       </c>
       <c r="R646" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="647" spans="1:18" x14ac:dyDescent="0.25">
@@ -17513,7 +17513,7 @@
         <v>641</v>
       </c>
       <c r="R647" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="648" spans="1:18" x14ac:dyDescent="0.25">
@@ -17536,7 +17536,7 @@
         <v>642</v>
       </c>
       <c r="R648" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="649" spans="1:18" x14ac:dyDescent="0.25">
@@ -17559,7 +17559,7 @@
         <v>643</v>
       </c>
       <c r="R649" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="650" spans="1:18" x14ac:dyDescent="0.25">
@@ -17582,7 +17582,7 @@
         <v>644</v>
       </c>
       <c r="R650" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="651" spans="1:18" x14ac:dyDescent="0.25">
@@ -17605,7 +17605,7 @@
         <v>645</v>
       </c>
       <c r="R651" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="652" spans="1:18" x14ac:dyDescent="0.25">
@@ -17628,7 +17628,7 @@
         <v>646</v>
       </c>
       <c r="R652" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="653" spans="1:18" x14ac:dyDescent="0.25">
@@ -17651,7 +17651,7 @@
         <v>647</v>
       </c>
       <c r="R653" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="654" spans="1:18" x14ac:dyDescent="0.25">
@@ -17674,7 +17674,7 @@
         <v>648</v>
       </c>
       <c r="R654" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="655" spans="1:18" x14ac:dyDescent="0.25">
@@ -17697,7 +17697,7 @@
         <v>649</v>
       </c>
       <c r="R655" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="656" spans="1:18" x14ac:dyDescent="0.25">
@@ -17720,7 +17720,7 @@
         <v>650</v>
       </c>
       <c r="R656" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="657" spans="1:18" x14ac:dyDescent="0.25">
@@ -17743,7 +17743,7 @@
         <v>651</v>
       </c>
       <c r="R657" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="658" spans="1:18" x14ac:dyDescent="0.25">
@@ -17766,7 +17766,7 @@
         <v>652</v>
       </c>
       <c r="R658" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="659" spans="1:18" x14ac:dyDescent="0.25">
@@ -17789,7 +17789,7 @@
         <v>653</v>
       </c>
       <c r="R659" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="660" spans="1:18" x14ac:dyDescent="0.25">
@@ -17812,7 +17812,7 @@
         <v>654</v>
       </c>
       <c r="R660" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="661" spans="1:18" x14ac:dyDescent="0.25">
@@ -17835,7 +17835,7 @@
         <v>655</v>
       </c>
       <c r="R661" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="662" spans="1:18" x14ac:dyDescent="0.25">
@@ -17858,7 +17858,7 @@
         <v>656</v>
       </c>
       <c r="R662" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="663" spans="1:18" x14ac:dyDescent="0.25">
@@ -17881,7 +17881,7 @@
         <v>657</v>
       </c>
       <c r="R663" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="664" spans="1:18" x14ac:dyDescent="0.25">
@@ -17904,7 +17904,7 @@
         <v>658</v>
       </c>
       <c r="R664" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="665" spans="1:18" x14ac:dyDescent="0.25">
@@ -17927,7 +17927,7 @@
         <v>659</v>
       </c>
       <c r="R665" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="666" spans="1:18" x14ac:dyDescent="0.25">
@@ -17950,7 +17950,7 @@
         <v>660</v>
       </c>
       <c r="R666" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="667" spans="1:18" x14ac:dyDescent="0.25">
@@ -17973,7 +17973,7 @@
         <v>661</v>
       </c>
       <c r="R667" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="668" spans="1:18" x14ac:dyDescent="0.25">
@@ -17996,7 +17996,7 @@
         <v>662</v>
       </c>
       <c r="R668" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="669" spans="1:18" x14ac:dyDescent="0.25">
@@ -18019,7 +18019,7 @@
         <v>663</v>
       </c>
       <c r="R669" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="670" spans="1:18" x14ac:dyDescent="0.25">
@@ -18042,7 +18042,7 @@
         <v>664</v>
       </c>
       <c r="R670" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="671" spans="1:18" x14ac:dyDescent="0.25">
@@ -18065,7 +18065,7 @@
         <v>665</v>
       </c>
       <c r="R671" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="672" spans="1:18" x14ac:dyDescent="0.25">
@@ -18088,7 +18088,7 @@
         <v>666</v>
       </c>
       <c r="R672" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="673" spans="1:18" x14ac:dyDescent="0.25">
@@ -18111,7 +18111,7 @@
         <v>667</v>
       </c>
       <c r="R673" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="674" spans="1:18" x14ac:dyDescent="0.25">
@@ -18134,7 +18134,7 @@
         <v>668</v>
       </c>
       <c r="R674" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="675" spans="1:18" x14ac:dyDescent="0.25">
@@ -18157,7 +18157,7 @@
         <v>669</v>
       </c>
       <c r="R675" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="676" spans="1:18" x14ac:dyDescent="0.25">
@@ -18180,7 +18180,7 @@
         <v>670</v>
       </c>
       <c r="R676" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="677" spans="1:18" x14ac:dyDescent="0.25">
@@ -18203,7 +18203,7 @@
         <v>671</v>
       </c>
       <c r="R677" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="678" spans="1:18" x14ac:dyDescent="0.25">
@@ -18226,7 +18226,7 @@
         <v>672</v>
       </c>
       <c r="R678" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="679" spans="1:18" x14ac:dyDescent="0.25">
@@ -18249,7 +18249,7 @@
         <v>673</v>
       </c>
       <c r="R679" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="680" spans="1:18" x14ac:dyDescent="0.25">
@@ -18272,7 +18272,7 @@
         <v>674</v>
       </c>
       <c r="R680" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="681" spans="1:18" x14ac:dyDescent="0.25">
@@ -18295,7 +18295,7 @@
         <v>675</v>
       </c>
       <c r="R681" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="682" spans="1:18" x14ac:dyDescent="0.25">
@@ -18318,7 +18318,7 @@
         <v>676</v>
       </c>
       <c r="R682" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="683" spans="1:18" x14ac:dyDescent="0.25">
@@ -18341,7 +18341,7 @@
         <v>677</v>
       </c>
       <c r="R683" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="684" spans="1:18" x14ac:dyDescent="0.25">
@@ -18364,7 +18364,7 @@
         <v>678</v>
       </c>
       <c r="R684" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="685" spans="1:18" x14ac:dyDescent="0.25">
@@ -18387,7 +18387,7 @@
         <v>679</v>
       </c>
       <c r="R685" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="686" spans="1:18" x14ac:dyDescent="0.25">
@@ -18410,7 +18410,7 @@
         <v>680</v>
       </c>
       <c r="R686" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="687" spans="1:18" x14ac:dyDescent="0.25">
@@ -18433,7 +18433,7 @@
         <v>681</v>
       </c>
       <c r="R687" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="688" spans="1:18" x14ac:dyDescent="0.25">
@@ -18456,7 +18456,7 @@
         <v>682</v>
       </c>
       <c r="R688" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="689" spans="1:18" x14ac:dyDescent="0.25">
@@ -18479,7 +18479,7 @@
         <v>683</v>
       </c>
       <c r="R689" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="690" spans="1:18" x14ac:dyDescent="0.25">
@@ -18502,7 +18502,7 @@
         <v>684</v>
       </c>
       <c r="R690" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="691" spans="1:18" x14ac:dyDescent="0.25">
@@ -18525,7 +18525,7 @@
         <v>685</v>
       </c>
       <c r="R691" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="692" spans="1:18" x14ac:dyDescent="0.25">
@@ -18548,7 +18548,7 @@
         <v>686</v>
       </c>
       <c r="R692" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="693" spans="1:18" x14ac:dyDescent="0.25">
@@ -18571,7 +18571,7 @@
         <v>687</v>
       </c>
       <c r="R693" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="694" spans="1:18" x14ac:dyDescent="0.25">
@@ -18594,7 +18594,7 @@
         <v>688</v>
       </c>
       <c r="R694" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="695" spans="1:18" x14ac:dyDescent="0.25">
@@ -18617,7 +18617,7 @@
         <v>689</v>
       </c>
       <c r="R695" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="696" spans="1:18" x14ac:dyDescent="0.25">
@@ -18640,7 +18640,7 @@
         <v>690</v>
       </c>
       <c r="R696" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="697" spans="1:18" x14ac:dyDescent="0.25">
@@ -18663,7 +18663,7 @@
         <v>691</v>
       </c>
       <c r="R697" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="698" spans="1:18" x14ac:dyDescent="0.25">
@@ -18686,7 +18686,7 @@
         <v>692</v>
       </c>
       <c r="R698" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="699" spans="1:18" x14ac:dyDescent="0.25">
@@ -18709,7 +18709,7 @@
         <v>693</v>
       </c>
       <c r="R699" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="700" spans="1:18" x14ac:dyDescent="0.25">
@@ -18732,7 +18732,7 @@
         <v>694</v>
       </c>
       <c r="R700" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="701" spans="1:18" x14ac:dyDescent="0.25">
@@ -18755,7 +18755,7 @@
         <v>695</v>
       </c>
       <c r="R701" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>

--- a/Supports files/members.xlsx
+++ b/Supports files/members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Laravel\Code-js\code-js-lms\Supports files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A8A8DA-081A-45D1-8EC7-C6E91B270645}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457CCF11-84BB-48A5-8B3F-826451DB461C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="239">
   <si>
     <t>id</t>
   </si>
@@ -734,16 +734,19 @@
   </si>
   <si>
     <t>அலவத்துரா</t>
+  </si>
+  <si>
+    <t>ආර්.ඒ්. සිරිමා අයිරංගනි</t>
+  </si>
+  <si>
+    <t>000000000V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,6 +760,12 @@
       <name val="Iskoola Pota"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -766,7 +775,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -774,11 +783,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -786,8 +810,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1126,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E4E8A3-F863-467D-9744-C089C81E808C}">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,8 +1172,8 @@
     <col min="11" max="11" width="18.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="3" customWidth="1"/>
+    <col min="15" max="15" width="18" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
   </cols>
@@ -1219,40 +1245,40 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="M2" t="s">
-        <v>74</v>
+        <v>228</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="N2" s="3">
-        <v>94715151050</v>
+        <v>94714243096</v>
       </c>
       <c r="O2" s="8">
-        <v>33243</v>
+        <v>27395</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -1269,34 +1295,43 @@
         <v>1</v>
       </c>
       <c r="C3" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
+      </c>
+      <c r="M3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="3">
+        <v>94715151050</v>
+      </c>
+      <c r="O3" s="8">
+        <v>33243</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -1345,6 +1380,9 @@
       <c r="M4" t="s">
         <v>75</v>
       </c>
+      <c r="N4" s="3">
+        <v>94760590782</v>
+      </c>
       <c r="O4" s="8">
         <v>29526</v>
       </c>
@@ -1395,6 +1433,9 @@
       <c r="M5" t="s">
         <v>76</v>
       </c>
+      <c r="N5" s="3">
+        <v>94704344483</v>
+      </c>
       <c r="O5" s="8">
         <v>30200</v>
       </c>
@@ -1410,19 +1451,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
+      <c r="D6" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>225</v>
@@ -1442,14 +1483,17 @@
       <c r="L6" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="M6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" s="8">
-        <v>31623</v>
+      <c r="M6" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="N6" s="3">
+        <v>94767747948</v>
+      </c>
+      <c r="O6" s="10">
+        <v>20498</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R6" t="s">
         <v>19</v>
@@ -1466,13 +1510,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>225</v>
@@ -1493,10 +1537,13 @@
         <v>228</v>
       </c>
       <c r="M7" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c r="N7" s="3">
+        <v>94717008475</v>
       </c>
       <c r="O7" s="8">
-        <v>32332</v>
+        <v>29503</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -1510,19 +1557,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>225</v>
@@ -1543,13 +1590,16 @@
         <v>228</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="N8" s="3">
+        <v>94713188618</v>
       </c>
       <c r="O8" s="8">
-        <v>32903</v>
+        <v>31623</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8" t="s">
         <v>19</v>
@@ -1566,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>225</v>
@@ -1593,10 +1643,10 @@
         <v>228</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O9" s="8">
-        <v>33309</v>
+        <v>32332</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -1616,13 +1666,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>225</v>
@@ -1643,10 +1693,10 @@
         <v>228</v>
       </c>
       <c r="M10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O10" s="8">
-        <v>32128</v>
+        <v>32903</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -1666,13 +1716,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>225</v>
@@ -1693,10 +1743,10 @@
         <v>228</v>
       </c>
       <c r="M11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O11" s="8">
-        <v>35172</v>
+        <v>33309</v>
       </c>
       <c r="P11">
         <v>2</v>
@@ -1716,13 +1766,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>225</v>
@@ -1743,10 +1793,10 @@
         <v>228</v>
       </c>
       <c r="M12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O12" s="8">
-        <v>30960</v>
+        <v>32128</v>
       </c>
       <c r="P12">
         <v>2</v>
@@ -1766,13 +1816,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>225</v>
@@ -1793,10 +1843,10 @@
         <v>228</v>
       </c>
       <c r="M13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O13" s="8">
-        <v>35777</v>
+        <v>35172</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -1816,13 +1866,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>225</v>
@@ -1843,10 +1893,10 @@
         <v>228</v>
       </c>
       <c r="M14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O14" s="8">
-        <v>29503</v>
+        <v>30960</v>
       </c>
       <c r="P14">
         <v>2</v>
@@ -1860,19 +1910,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>225</v>
@@ -1893,13 +1943,13 @@
         <v>228</v>
       </c>
       <c r="M15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O15" s="8">
-        <v>31353</v>
+        <v>35777</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15" t="s">
         <v>19</v>
@@ -1916,13 +1966,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>225</v>
@@ -1943,10 +1993,10 @@
         <v>228</v>
       </c>
       <c r="M16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O16" s="8">
-        <v>28620</v>
+        <v>31353</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -1960,19 +2010,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>225</v>
@@ -1993,13 +2043,13 @@
         <v>228</v>
       </c>
       <c r="M17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O17" s="8">
-        <v>30374</v>
+        <v>28620</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R17" t="s">
         <v>19</v>
@@ -2016,13 +2066,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>225</v>
@@ -2043,10 +2093,10 @@
         <v>228</v>
       </c>
       <c r="M18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O18" s="8">
-        <v>29528</v>
+        <v>30374</v>
       </c>
       <c r="P18">
         <v>2</v>
@@ -2066,13 +2116,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>225</v>
@@ -2093,10 +2143,10 @@
         <v>228</v>
       </c>
       <c r="M19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O19" s="8">
-        <v>30358</v>
+        <v>29528</v>
       </c>
       <c r="P19">
         <v>2</v>
@@ -2116,13 +2166,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>225</v>
@@ -2143,10 +2193,10 @@
         <v>228</v>
       </c>
       <c r="M20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O20" s="8">
-        <v>31951</v>
+        <v>30358</v>
       </c>
       <c r="P20">
         <v>2</v>
@@ -2166,13 +2216,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>225</v>
@@ -2193,10 +2243,10 @@
         <v>228</v>
       </c>
       <c r="M21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O21" s="8">
-        <v>29116</v>
+        <v>31951</v>
       </c>
       <c r="P21">
         <v>2</v>
@@ -2216,13 +2266,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>225</v>
@@ -2243,10 +2293,10 @@
         <v>228</v>
       </c>
       <c r="M22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O22" s="8">
-        <v>26983</v>
+        <v>29116</v>
       </c>
       <c r="P22">
         <v>2</v>
@@ -2266,13 +2316,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>225</v>
@@ -2293,10 +2343,10 @@
         <v>228</v>
       </c>
       <c r="M23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O23" s="8">
-        <v>25526</v>
+        <v>26983</v>
       </c>
       <c r="P23">
         <v>2</v>
@@ -2316,13 +2366,13 @@
         <v>1</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>225</v>
@@ -2343,10 +2393,10 @@
         <v>228</v>
       </c>
       <c r="M24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O24" s="8">
-        <v>25839</v>
+        <v>25526</v>
       </c>
       <c r="P24">
         <v>2</v>
@@ -2366,13 +2416,13 @@
         <v>1</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>225</v>
@@ -2393,10 +2443,10 @@
         <v>228</v>
       </c>
       <c r="M25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O25" s="8">
-        <v>30149</v>
+        <v>25839</v>
       </c>
       <c r="P25">
         <v>2</v>
@@ -2410,19 +2460,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>225</v>
@@ -2443,13 +2493,13 @@
         <v>228</v>
       </c>
       <c r="M26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O26" s="8">
-        <v>28466</v>
+        <v>30149</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R26" t="s">
         <v>19</v>
@@ -2466,13 +2516,13 @@
         <v>1</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>225</v>
@@ -2493,10 +2543,10 @@
         <v>228</v>
       </c>
       <c r="M27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O27" s="8">
-        <v>25050</v>
+        <v>28466</v>
       </c>
       <c r="P27">
         <v>1</v>
@@ -2510,19 +2560,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>225</v>
@@ -2543,13 +2593,13 @@
         <v>228</v>
       </c>
       <c r="M28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O28" s="8">
-        <v>25107</v>
+        <v>25050</v>
       </c>
       <c r="P28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R28" t="s">
         <v>19</v>
@@ -2566,13 +2616,13 @@
         <v>1</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>225</v>
@@ -2593,10 +2643,10 @@
         <v>228</v>
       </c>
       <c r="M29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O29" s="8">
-        <v>33568</v>
+        <v>25107</v>
       </c>
       <c r="P29">
         <v>2</v>
@@ -2610,19 +2660,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>225</v>
@@ -2643,13 +2693,13 @@
         <v>228</v>
       </c>
       <c r="M30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8">
-        <v>27522</v>
+        <v>33568</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R30" t="s">
         <v>19</v>
@@ -2666,13 +2716,13 @@
         <v>1</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>225</v>
@@ -2693,10 +2743,10 @@
         <v>228</v>
       </c>
       <c r="M31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8">
-        <v>26834</v>
+        <v>27522</v>
       </c>
       <c r="P31">
         <v>1</v>
@@ -2716,13 +2766,13 @@
         <v>1</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>225</v>
@@ -2743,10 +2793,10 @@
         <v>228</v>
       </c>
       <c r="M32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8">
-        <v>26600</v>
+        <v>26834</v>
       </c>
       <c r="P32">
         <v>1</v>
@@ -2766,13 +2816,13 @@
         <v>1</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>225</v>
@@ -2793,10 +2843,10 @@
         <v>228</v>
       </c>
       <c r="M33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8">
-        <v>27359</v>
+        <v>26600</v>
       </c>
       <c r="P33">
         <v>1</v>
@@ -2816,13 +2866,13 @@
         <v>1</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>225</v>
@@ -2843,10 +2893,10 @@
         <v>228</v>
       </c>
       <c r="M34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8">
-        <v>24577</v>
+        <v>27359</v>
       </c>
       <c r="P34">
         <v>1</v>
@@ -2866,13 +2916,13 @@
         <v>1</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>225</v>
@@ -2893,10 +2943,10 @@
         <v>228</v>
       </c>
       <c r="M35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8">
-        <v>25015</v>
+        <v>24577</v>
       </c>
       <c r="P35">
         <v>1</v>
@@ -2916,13 +2966,13 @@
         <v>1</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>225</v>
@@ -2943,10 +2993,10 @@
         <v>228</v>
       </c>
       <c r="M36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8">
-        <v>29205</v>
+        <v>25015</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -2966,13 +3016,13 @@
         <v>1</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>225</v>
@@ -2993,10 +3043,10 @@
         <v>228</v>
       </c>
       <c r="M37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8">
-        <v>26593</v>
+        <v>29205</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -3016,13 +3066,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>225</v>
@@ -3043,10 +3093,10 @@
         <v>228</v>
       </c>
       <c r="M38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O38" s="8">
-        <v>31556</v>
+        <v>26593</v>
       </c>
       <c r="P38">
         <v>1</v>
@@ -3066,13 +3116,13 @@
         <v>1</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>225</v>
@@ -3093,10 +3143,10 @@
         <v>228</v>
       </c>
       <c r="M39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O39" s="8">
-        <v>31708</v>
+        <v>31556</v>
       </c>
       <c r="P39">
         <v>1</v>
@@ -3116,13 +3166,13 @@
         <v>1</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>225</v>
@@ -3143,10 +3193,10 @@
         <v>228</v>
       </c>
       <c r="M40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O40" s="8">
-        <v>27338</v>
+        <v>31708</v>
       </c>
       <c r="P40">
         <v>1</v>
@@ -3166,13 +3216,13 @@
         <v>1</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>225</v>
@@ -3193,10 +3243,10 @@
         <v>228</v>
       </c>
       <c r="M41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O41" s="8">
-        <v>26124</v>
+        <v>27338</v>
       </c>
       <c r="P41">
         <v>1</v>
@@ -3216,13 +3266,13 @@
         <v>1</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>184</v>
+        <v>58</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>225</v>
@@ -3243,10 +3293,10 @@
         <v>228</v>
       </c>
       <c r="M42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O42" s="8">
-        <v>28439</v>
+        <v>26124</v>
       </c>
       <c r="P42">
         <v>1</v>
@@ -3266,13 +3316,13 @@
         <v>1</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>225</v>
@@ -3293,10 +3343,10 @@
         <v>228</v>
       </c>
       <c r="M43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O43" s="8">
-        <v>29295</v>
+        <v>28439</v>
       </c>
       <c r="P43">
         <v>1</v>
@@ -3316,13 +3366,13 @@
         <v>1</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>225</v>
@@ -3343,10 +3393,10 @@
         <v>228</v>
       </c>
       <c r="M44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O44" s="8">
-        <v>31331</v>
+        <v>29295</v>
       </c>
       <c r="P44">
         <v>1</v>
@@ -3366,13 +3416,13 @@
         <v>1</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>225</v>
@@ -3393,10 +3443,10 @@
         <v>228</v>
       </c>
       <c r="M45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O45" s="8">
-        <v>33620</v>
+        <v>31331</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -3416,13 +3466,13 @@
         <v>1</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>225</v>
@@ -3443,10 +3493,10 @@
         <v>228</v>
       </c>
       <c r="M46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O46" s="8">
-        <v>30403</v>
+        <v>33620</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -3466,13 +3516,13 @@
         <v>1</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>225</v>
@@ -3493,10 +3543,10 @@
         <v>228</v>
       </c>
       <c r="M47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O47" s="8">
-        <v>31889</v>
+        <v>30403</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -3516,13 +3566,13 @@
         <v>1</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>225</v>
@@ -3543,10 +3593,10 @@
         <v>228</v>
       </c>
       <c r="M48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O48" s="8">
-        <v>24976</v>
+        <v>31889</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -3566,13 +3616,13 @@
         <v>1</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>225</v>
@@ -3593,10 +3643,10 @@
         <v>228</v>
       </c>
       <c r="M49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O49" s="8">
-        <v>28794</v>
+        <v>24976</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -3616,13 +3666,13 @@
         <v>1</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>225</v>
@@ -3643,10 +3693,10 @@
         <v>228</v>
       </c>
       <c r="M50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O50" s="8">
-        <v>28611</v>
+        <v>28794</v>
       </c>
       <c r="P50">
         <v>1</v>
@@ -3666,13 +3716,13 @@
         <v>1</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>225</v>
@@ -3693,10 +3743,10 @@
         <v>228</v>
       </c>
       <c r="M51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O51" s="8">
-        <v>25134</v>
+        <v>28611</v>
       </c>
       <c r="P51">
         <v>1</v>
@@ -3716,13 +3766,13 @@
         <v>1</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>225</v>
@@ -3743,10 +3793,10 @@
         <v>228</v>
       </c>
       <c r="M52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O52" s="8">
-        <v>31440</v>
+        <v>25134</v>
       </c>
       <c r="P52">
         <v>1</v>
@@ -3766,13 +3816,13 @@
         <v>1</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>225</v>
@@ -3793,10 +3843,10 @@
         <v>228</v>
       </c>
       <c r="M53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O53" s="8">
-        <v>29465</v>
+        <v>31440</v>
       </c>
       <c r="P53">
         <v>1</v>
@@ -3810,19 +3860,19 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>225</v>
@@ -3843,13 +3893,13 @@
         <v>228</v>
       </c>
       <c r="M54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O54" s="8">
-        <v>20498</v>
+        <v>29465</v>
       </c>
       <c r="P54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R54" t="s">
         <v>19</v>
@@ -3866,13 +3916,13 @@
         <v>1</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>225</v>
@@ -3893,10 +3943,10 @@
         <v>228</v>
       </c>
       <c r="M55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O55" s="8">
-        <v>20456</v>
+        <v>20498</v>
       </c>
       <c r="P55">
         <v>2</v>
@@ -3910,53 +3960,103 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
       </c>
       <c r="D56" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" t="s">
+        <v>72</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="M56" t="s">
+        <v>126</v>
+      </c>
+      <c r="O56" s="8">
+        <v>20456</v>
+      </c>
+      <c r="P56">
+        <v>2</v>
+      </c>
+      <c r="R56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E57" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F57" t="s">
         <v>73</v>
       </c>
-      <c r="G56" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="M56" t="s">
+      <c r="G57" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="M57" t="s">
         <v>127</v>
       </c>
-      <c r="O56" s="8">
+      <c r="O57" s="8">
         <v>34072</v>
       </c>
-      <c r="P56">
-        <v>1</v>
-      </c>
-      <c r="R56" t="s">
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="R57" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D2" xr:uid="{4847CEF0-8C98-490C-A72F-45AEAFA11491}"/>
+  <autoFilter ref="D1:D3" xr:uid="{4847CEF0-8C98-490C-A72F-45AEAFA11491}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Supports files/members.xlsx
+++ b/Supports files/members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Laravel\Code-js\code-js-lms\Supports files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457CCF11-84BB-48A5-8B3F-826451DB461C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B085C793-2D67-4518-B744-44CA937C084D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -775,7 +775,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -783,26 +783,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -812,8 +797,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1446,14 +1435,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="11">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -1465,37 +1454,37 @@
       <c r="F6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="M6" s="6" t="s">
+      <c r="G6" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="13">
         <v>94767747948</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="14">
         <v>20498</v>
       </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="P6" s="10">
+        <v>2</v>
+      </c>
+      <c r="R6" s="10" t="s">
         <v>19</v>
       </c>
     </row>
